--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,159 +4,134 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="34520" windowHeight="17780" tabRatio="883" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16480" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
-    <sheet name="watchtower" sheetId="45" r:id="rId2"/>
+    <sheet name="watchTower" sheetId="45" r:id="rId2"/>
     <sheet name="dragoneyrie" sheetId="46" r:id="rId3"/>
     <sheet name="wall" sheetId="18" r:id="rId4"/>
     <sheet name="warehouse" sheetId="19" r:id="rId5"/>
     <sheet name="tower" sheetId="20" r:id="rId6"/>
-    <sheet name="dwelling" sheetId="21" r:id="rId7"/>
-    <sheet name="woodcutter" sheetId="22" r:id="rId8"/>
-    <sheet name="quarrier" sheetId="24" r:id="rId9"/>
-    <sheet name="miner" sheetId="25" r:id="rId10"/>
-    <sheet name="farmer" sheetId="26" r:id="rId11"/>
-    <sheet name="barracks" sheetId="32" r:id="rId12"/>
-    <sheet name="armycamp" sheetId="33" r:id="rId13"/>
-    <sheet name="blacksmith" sheetId="34" r:id="rId14"/>
-    <sheet name="materiardepot" sheetId="35" r:id="rId15"/>
-    <sheet name="toolshop" sheetId="36" r:id="rId16"/>
-    <sheet name="lumbermill" sheetId="27" r:id="rId17"/>
-    <sheet name="stonemason" sheetId="28" r:id="rId18"/>
-    <sheet name="foundry" sheetId="29" r:id="rId19"/>
-    <sheet name="mill" sheetId="30" r:id="rId20"/>
-    <sheet name="townhall" sheetId="31" r:id="rId21"/>
-    <sheet name="acdemy" sheetId="37" r:id="rId22"/>
-    <sheet name="hospital" sheetId="38" r:id="rId23"/>
-    <sheet name="tradeguild" sheetId="39" r:id="rId24"/>
-    <sheet name="prison" sheetId="40" r:id="rId25"/>
-    <sheet name="trainingground" sheetId="41" r:id="rId26"/>
-    <sheet name="hunterhall" sheetId="42" r:id="rId27"/>
-    <sheet name="stable" sheetId="43" r:id="rId28"/>
-    <sheet name="workshop" sheetId="44" r:id="rId29"/>
+    <sheet name="barracks" sheetId="32" r:id="rId7"/>
+    <sheet name="armycamp" sheetId="33" r:id="rId8"/>
+    <sheet name="blacksmith" sheetId="34" r:id="rId9"/>
+    <sheet name="materiardepot" sheetId="35" r:id="rId10"/>
+    <sheet name="toolshop" sheetId="36" r:id="rId11"/>
+    <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
+    <sheet name="stonemason" sheetId="28" r:id="rId13"/>
+    <sheet name="foundry" sheetId="29" r:id="rId14"/>
+    <sheet name="mill" sheetId="30" r:id="rId15"/>
+    <sheet name="townhall" sheetId="31" r:id="rId16"/>
+    <sheet name="acdemy" sheetId="37" r:id="rId17"/>
+    <sheet name="hospital" sheetId="38" r:id="rId18"/>
+    <sheet name="tradeguild" sheetId="39" r:id="rId19"/>
+    <sheet name="prison" sheetId="40" r:id="rId20"/>
+    <sheet name="trainingground" sheetId="41" r:id="rId21"/>
+    <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
+    <sheet name="stable" sheetId="43" r:id="rId23"/>
+    <sheet name="workshop" sheetId="44" r:id="rId24"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="26">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="24">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="27">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="25">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="28">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="26">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="24">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="27">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="25">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="28">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="26">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="24">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="27">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="25">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="28">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="26">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="24">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="27">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="25">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="28">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -169,10 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
-  <si>
-    <t>INT_population</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -219,17 +191,6 @@
   </si>
   <si>
     <t>INT_atkcats</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_recoverycitizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_poduction</t>
-  </si>
-  <si>
-    <t>INT_poduction</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1549,13 +1510,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -1838,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -1857,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -1865,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -1873,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -1881,7 +1842,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -1889,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -1897,7 +1858,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -1905,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -1913,7 +1874,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -1921,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -1929,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
@@ -1937,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
@@ -1945,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
@@ -1953,7 +1914,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
@@ -1961,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -1969,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -1977,7 +1938,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -1985,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -1993,7 +1954,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -2001,7 +1962,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -2009,7 +1970,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
@@ -2039,9 +2000,9 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2049,7 +2010,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2057,160 +2018,160 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>300</v>
+      <c r="B3" s="1">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>600</v>
+      <c r="B4" s="1">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>1800</v>
+      <c r="B5" s="1">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>3600</v>
+      <c r="B6" s="1">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>10800</v>
+      <c r="B7" s="1">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>21600</v>
+      <c r="B8" s="1">
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>32400</v>
+      <c r="B9" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>43200</v>
+      <c r="B10" s="1">
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>54000</v>
+      <c r="B11" s="1">
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>64800</v>
+      <c r="B12" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>75600</v>
+      <c r="B13" s="1">
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>86400</v>
+      <c r="B14" s="1">
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>97200</v>
+      <c r="B15" s="1">
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>108000</v>
+      <c r="B16" s="1">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>144000</v>
+      <c r="B17" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>180000</v>
+      <c r="B18" s="1">
+        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <v>216000</v>
+      <c r="B19" s="1">
+        <v>0.34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>252000</v>
+      <c r="B20" s="1">
+        <v>0.36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <v>288000</v>
+      <c r="B21" s="1">
+        <v>0.38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>540000</v>
+      <c r="B22" s="1">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2188,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -2240,7 +2201,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -2259,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -2267,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -2275,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -2283,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -2291,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -2299,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -2307,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -2315,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -2323,7 +2284,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -2331,87 +2292,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2309,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -2441,10 +2322,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2460,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -2468,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -2476,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -2484,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>6000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -2492,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -2500,7 +2381,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>10000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -2508,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>12000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -2516,7 +2397,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>16000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -2524,7 +2405,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>20000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -2532,87 +2413,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>64000</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2430,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2642,7 +2443,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -2661,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -2669,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -2677,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.06</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -2685,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.08</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -2693,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -2701,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -2709,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14000000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -2717,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -2725,7 +2526,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -2733,87 +2534,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2551,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -2843,7 +2564,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -2862,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -2870,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -2878,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -2886,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>160</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -2894,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>320</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -2902,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>640</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -2910,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>960</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -2918,7 +2639,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1280</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -2926,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1600</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -2934,87 +2655,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9999</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +2672,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3042,180 +2683,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.4</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +2829,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3245,10 +2842,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3264,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -3272,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -3280,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -3288,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -3296,7 +2893,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -3304,7 +2901,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -3312,7 +2909,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -3320,7 +2917,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -3328,7 +2925,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -3336,7 +2933,55 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -3353,7 +2998,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3364,100 +3009,202 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>3600</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>6000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>12000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>18000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>24000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>36000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>42000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>48000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>54000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>72000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>78000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>84000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>90000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +3221,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3485,100 +3232,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>800</v>
+      </c>
+      <c r="C6" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>1600</v>
+      </c>
+      <c r="C8" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>2400</v>
+      </c>
+      <c r="C10" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>2800</v>
+      </c>
+      <c r="C11" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>3200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3608,10 +3391,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3796,7 +3579,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3807,100 +3590,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -3917,7 +3736,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -3928,136 +3747,100 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="B3" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="B4" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="B5" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="B8" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="B9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="B10" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="B11" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>640</v>
+      <c r="B12" s="3">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +3857,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -4087,17 +3870,17 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4105,7 +3888,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.02</v>
       </c>
     </row>
@@ -4113,7 +3896,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.04</v>
       </c>
     </row>
@@ -4121,7 +3904,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.06</v>
       </c>
     </row>
@@ -4129,7 +3912,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.08</v>
       </c>
     </row>
@@ -4137,7 +3920,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -4145,7 +3928,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>0.12</v>
       </c>
     </row>
@@ -4153,7 +3936,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4161,7 +3944,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>0.16</v>
       </c>
     </row>
@@ -4169,7 +3952,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0.18</v>
       </c>
     </row>
@@ -4177,56 +3960,8 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -4243,7 +3978,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -4254,202 +3989,100 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="B3" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="B4" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>12000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="B5" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>18000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>24000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="B7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="B8" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>36000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="B9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>42000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="B10" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>48000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="B11" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>54000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>66000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>72000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>78000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>84000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>90000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.4</v>
+      <c r="B12" s="3">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -4466,320 +4099,6 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>200</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>400</v>
-      </c>
-      <c r="C5" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>800</v>
-      </c>
-      <c r="C6" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C8" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C10" s="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C11" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3200</v>
-      </c>
-      <c r="C12" s="1">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -4793,373 +4112,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5266,7 +4222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
@@ -5277,10 +4233,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5478,10 +4434,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5695,19 +4651,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6094,19 +5050,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6480,10 +5436,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6491,246 +5447,180 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>400</v>
-      </c>
-      <c r="C4" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C6" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>12000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>18000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>24000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>36000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>42000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>48000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>54000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>66000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>72000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>78000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>84000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>90000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>96000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>8000</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6760,10 +5650,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -6779,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -6787,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -6795,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -6803,7 +5693,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -6811,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -6819,7 +5709,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -6827,7 +5717,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -6835,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -6843,7 +5733,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -6851,7 +5741,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
@@ -6859,7 +5749,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
@@ -6867,7 +5757,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
@@ -6875,7 +5765,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
@@ -6883,7 +5773,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -6891,7 +5781,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -6899,7 +5789,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -6907,7 +5797,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -6915,7 +5805,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -6923,7 +5813,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -6931,7 +5821,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
+        <v>64000</v>
       </c>
     </row>
   </sheetData>
@@ -6951,7 +5841,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6961,10 +5851,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -6980,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -6988,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -6996,7 +5886,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -7004,7 +5894,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -7012,7 +5902,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -7020,7 +5910,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -7028,7 +5918,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -7036,7 +5926,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -7044,7 +5934,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -7052,7 +5942,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
@@ -7060,7 +5950,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
@@ -7068,7 +5958,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
@@ -7076,7 +5966,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
@@ -7084,7 +5974,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -7092,7 +5982,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -7100,7 +5990,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -7108,7 +5998,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
@@ -7116,7 +6006,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -7124,7 +6014,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
@@ -7132,7 +6022,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16480" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="13740" yWindow="60" windowWidth="14160" windowHeight="13720" tabRatio="883" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
     <sheet name="watchTower" sheetId="45" r:id="rId2"/>
-    <sheet name="dragoneyrie" sheetId="46" r:id="rId3"/>
+    <sheet name="dragonEyire" sheetId="46" r:id="rId3"/>
     <sheet name="wall" sheetId="18" r:id="rId4"/>
     <sheet name="warehouse" sheetId="19" r:id="rId5"/>
     <sheet name="tower" sheetId="20" r:id="rId6"/>
     <sheet name="barracks" sheetId="32" r:id="rId7"/>
-    <sheet name="armycamp" sheetId="33" r:id="rId8"/>
-    <sheet name="blacksmith" sheetId="34" r:id="rId9"/>
-    <sheet name="materiardepot" sheetId="35" r:id="rId10"/>
-    <sheet name="toolshop" sheetId="36" r:id="rId11"/>
+    <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId11"/>
     <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
-    <sheet name="stonemason" sheetId="28" r:id="rId13"/>
+    <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
     <sheet name="foundry" sheetId="29" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="townhall" sheetId="31" r:id="rId16"/>
+    <sheet name="townHall" sheetId="31" r:id="rId16"/>
     <sheet name="acdemy" sheetId="37" r:id="rId17"/>
     <sheet name="hospital" sheetId="38" r:id="rId18"/>
     <sheet name="tradeguild" sheetId="39" r:id="rId19"/>
@@ -2674,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -3381,7 +3381,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4222,7 +4222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="60" windowWidth="14160" windowHeight="13720" tabRatio="883" activeTab="15"/>
+    <workbookView xWindow="1920" yWindow="1100" windowWidth="36400" windowHeight="18820" tabRatio="883" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -144,13 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>INT_scout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dragonrecovery</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -229,10 +225,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_taxcitizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_maxcasualty</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -241,19 +233,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_cartrecovery</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_imprisontime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_casualtyrate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_imprisonrate</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -263,6 +243,42 @@
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_wallRecovery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_dragonRecovery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_troopPopulation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_taxCitizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_cartRecovery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_imprisonTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_imprisonRate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poduction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poductionType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -425,7 +441,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="302">
+  <cellStyleXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -440,6 +456,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -748,7 +796,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="302">
+  <cellStyles count="334">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -902,6 +950,22 @@
     <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1048,6 +1112,22 @@
     <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1510,13 +1590,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -1799,10 +1879,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -1987,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1998,180 +2078,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.4</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2201,10 +2347,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2322,10 +2468,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2443,10 +2589,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2564,10 +2710,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -2674,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2685,13 +2831,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -2842,10 +2988,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3011,13 +3157,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3224,7 +3370,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3234,13 +3380,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3391,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3582,7 +3728,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3592,13 +3738,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3620,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -3631,7 +3777,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -3642,7 +3788,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -3653,7 +3799,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -3664,7 +3810,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -3675,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -3686,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -3697,7 +3843,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -3708,7 +3854,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -3719,7 +3865,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -3749,10 +3895,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3870,10 +4016,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -3991,10 +4137,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -4112,10 +4258,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -4223,7 +4369,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4233,10 +4379,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -4421,10 +4567,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4432,196 +4578,269 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>4000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>6000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>7000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>8000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>9000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+        <v>11000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+        <v>12000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+        <v>13000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+        <v>14000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+        <v>16000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+        <v>18000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+        <v>20000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+        <v>22000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+        <v>24000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
+        <v>26000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
+        <v>28000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>300000</v>
+        <v>30000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
@@ -4651,19 +4870,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -5050,19 +5269,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -5449,10 +5668,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5640,7 +5859,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5650,10 +5869,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
@@ -5851,10 +6070,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1100" windowWidth="36400" windowHeight="18820" tabRatio="883" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="883" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <sheet name="townHall" sheetId="31" r:id="rId16"/>
     <sheet name="acdemy" sheetId="37" r:id="rId17"/>
     <sheet name="hospital" sheetId="38" r:id="rId18"/>
-    <sheet name="tradeguild" sheetId="39" r:id="rId19"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId19"/>
     <sheet name="prison" sheetId="40" r:id="rId20"/>
-    <sheet name="trainingground" sheetId="41" r:id="rId21"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId21"/>
     <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
     <sheet name="stable" sheetId="43" r:id="rId23"/>
     <sheet name="workshop" sheetId="44" r:id="rId24"/>
@@ -2069,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3727,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="883" activeTab="19"/>
+    <workbookView xWindow="2580" yWindow="2140" windowWidth="33220" windowHeight="14700" tabRatio="883" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -278,6 +278,42 @@
   </si>
   <si>
     <t>INT_poductionType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmtime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmtime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +477,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="334">
+  <cellStyleXfs count="452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -456,6 +492,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -796,7 +950,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="334">
+  <cellStyles count="452">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -966,6 +1120,65 @@
     <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1128,6 +1341,65 @@
     <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1577,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D1" sqref="D1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1588,7 +1860,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1598,8 +1870,11 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1609,8 +1884,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1620,8 +1898,11 @@
       <c r="C3" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1631,8 +1912,11 @@
       <c r="C4" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1642,8 +1926,11 @@
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1653,8 +1940,11 @@
       <c r="C6" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1664,8 +1954,11 @@
       <c r="C7" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1675,8 +1968,11 @@
       <c r="C8" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1686,8 +1982,11 @@
       <c r="C9" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1697,8 +1996,11 @@
       <c r="C10" s="1">
         <v>7000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1708,8 +2010,11 @@
       <c r="C11" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1719,8 +2024,11 @@
       <c r="C12" s="1">
         <v>9000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="D12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1730,8 +2038,11 @@
       <c r="C13" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="D13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1741,8 +2052,11 @@
       <c r="C14" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="D14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1752,8 +2066,11 @@
       <c r="C15" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="D15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1763,8 +2080,11 @@
       <c r="C16" s="1">
         <v>13000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="D16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1774,8 +2094,11 @@
       <c r="C17" s="1">
         <v>14000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="D17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1785,8 +2108,11 @@
       <c r="C18" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1796,8 +2122,11 @@
       <c r="C19" s="1">
         <v>16000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="D19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1807,8 +2136,11 @@
       <c r="C20" s="1">
         <v>17000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="D20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1818,8 +2150,11 @@
       <c r="C21" s="1">
         <v>18000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="D21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1829,8 +2164,11 @@
       <c r="C22" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="D22" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1840,8 +2178,11 @@
       <c r="C23" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1850,6 +2191,9 @@
       </c>
       <c r="C24" s="1">
         <v>24000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4440</v>
       </c>
     </row>
   </sheetData>
@@ -1866,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1877,180 +2221,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>1280</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1600</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>2400</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>3600</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4200</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>4800</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>5600</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>6400</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>7200</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>9999</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -2067,10 +2477,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2078,7 +2488,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2088,8 +2498,35 @@
       <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2099,8 +2536,35 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2110,8 +2574,35 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>300</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>600</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2121,8 +2612,35 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>600</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="L4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2132,8 +2650,35 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>900</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1800</v>
+      </c>
+      <c r="L5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2143,8 +2688,35 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="L6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2154,8 +2726,35 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2165,8 +2764,35 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2176,8 +2802,35 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2100</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2187,8 +2840,35 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>16000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4800</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2198,8 +2878,35 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2700</v>
+      </c>
+      <c r="H11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5400</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2209,8 +2916,35 @@
       <c r="C12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="D12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2220,8 +2954,35 @@
       <c r="C13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="D13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H13" s="1">
+        <v>22000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>22000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>22000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6600</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2231,8 +2992,35 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="D14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7200</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2242,8 +3030,35 @@
       <c r="C15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="D15" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>13000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3900</v>
+      </c>
+      <c r="H15" s="1">
+        <v>26000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>26000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>26000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2253,8 +3068,35 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="D16" s="1">
+        <v>14000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>28000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>28000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>28000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8400</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2264,8 +3106,35 @@
       <c r="C17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="D17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2275,8 +3144,35 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="D18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2286,8 +3182,35 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="D19" s="1">
+        <v>17000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>17000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>34000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>34000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>34000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10200</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2297,8 +3220,35 @@
       <c r="C20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="D20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H20" s="1">
+        <v>36000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>36000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>36000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2308,8 +3258,35 @@
       <c r="C21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="D21" s="1">
+        <v>19000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5700</v>
+      </c>
+      <c r="H21" s="1">
+        <v>38000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>38000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>38000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>11400</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2318,6 +3295,33 @@
       </c>
       <c r="C22" s="1">
         <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>12000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -2334,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2345,100 +3349,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -2455,10 +3495,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2466,100 +3506,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -2576,10 +3652,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2587,100 +3663,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -2697,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2708,100 +3820,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -2818,10 +3966,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2829,7 +3977,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2839,8 +3987,11 @@
       <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2850,8 +4001,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2861,8 +4015,11 @@
       <c r="C3" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2872,8 +4029,11 @@
       <c r="C4" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2883,8 +4043,11 @@
       <c r="C5" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2894,8 +4057,11 @@
       <c r="C6" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2905,8 +4071,11 @@
       <c r="C7" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2916,8 +4085,11 @@
       <c r="C8" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2927,8 +4099,11 @@
       <c r="C9" s="1">
         <v>460</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2938,8 +4113,11 @@
       <c r="C10" s="1">
         <v>520</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2949,8 +4127,11 @@
       <c r="C11" s="1">
         <v>580</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2959,6 +4140,9 @@
       </c>
       <c r="C12" s="1">
         <v>640</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -2975,10 +4159,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2986,148 +4170,202 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.32</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3720</v>
       </c>
     </row>
   </sheetData>
@@ -3144,10 +4382,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D1" sqref="D1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3155,7 +4393,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3165,8 +4403,11 @@
       <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3176,8 +4417,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3187,8 +4431,11 @@
       <c r="C3" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3198,8 +4445,11 @@
       <c r="C4" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3209,8 +4459,11 @@
       <c r="C5" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3220,8 +4473,11 @@
       <c r="C6" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3231,8 +4487,11 @@
       <c r="C7" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3242,8 +4501,11 @@
       <c r="C8" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3253,8 +4515,11 @@
       <c r="C9" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3264,8 +4529,11 @@
       <c r="C10" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3275,8 +4543,11 @@
       <c r="C11" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3286,8 +4557,11 @@
       <c r="C12" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="D12" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3297,8 +4571,11 @@
       <c r="C13" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="D13" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3308,8 +4585,11 @@
       <c r="C14" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="D14" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3319,8 +4599,11 @@
       <c r="C15" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="D15" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3330,8 +4613,11 @@
       <c r="C16" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="D16" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3341,8 +4627,11 @@
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="D17" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3351,6 +4640,9 @@
       </c>
       <c r="C18" s="1">
         <v>0.4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3720</v>
       </c>
     </row>
   </sheetData>
@@ -3367,10 +4659,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D1" sqref="D1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3378,7 +4670,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3388,8 +4680,11 @@
       <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3399,8 +4694,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3410,8 +4708,11 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3421,8 +4722,11 @@
       <c r="C4" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3432,8 +4736,11 @@
       <c r="C5" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3443,8 +4750,11 @@
       <c r="C6" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3454,8 +4764,11 @@
       <c r="C7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3465,8 +4778,11 @@
       <c r="C8" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3476,8 +4792,11 @@
       <c r="C9" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3487,8 +4806,11 @@
       <c r="C10" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3498,8 +4820,11 @@
       <c r="C11" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3508,6 +4833,9 @@
       </c>
       <c r="C12" s="1">
         <v>260</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -3524,10 +4852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3535,180 +4863,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -3725,10 +5119,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3736,7 +5130,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3746,8 +5140,11 @@
       <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3757,8 +5154,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3768,8 +5168,11 @@
       <c r="C3" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3779,8 +5182,11 @@
       <c r="C4" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3790,8 +5196,11 @@
       <c r="C5" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3801,8 +5210,11 @@
       <c r="C6" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3812,8 +5224,11 @@
       <c r="C7" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3823,8 +5238,11 @@
       <c r="C8" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3834,8 +5252,11 @@
       <c r="C9" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3845,8 +5266,11 @@
       <c r="C10" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3856,8 +5280,11 @@
       <c r="C11" s="1">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3866,6 +5293,9 @@
       </c>
       <c r="C12" s="1">
         <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -3882,10 +5312,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3893,100 +5323,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -4003,10 +5469,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4014,100 +5480,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -4124,10 +5626,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4135,100 +5637,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -4245,10 +5783,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4256,100 +5794,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -4366,10 +5940,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4377,180 +5951,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>36000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>72000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>108000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>144000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>180000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>216000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>252000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>288000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>324000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>360000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>480000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>600000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>720000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>840000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>960000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1800000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -4567,10 +6207,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4578,7 +6218,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -4588,8 +6228,11 @@
       <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4600,8 +6243,11 @@
         <f>B2/4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4611,8 +6257,11 @@
       <c r="C3" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4622,8 +6271,11 @@
       <c r="C4" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4633,8 +6285,11 @@
       <c r="C5" s="1">
         <v>750</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4644,8 +6299,11 @@
       <c r="C6" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4655,8 +6313,11 @@
       <c r="C7" s="1">
         <v>1250</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4666,8 +6327,11 @@
       <c r="C8" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4677,8 +6341,11 @@
       <c r="C9" s="1">
         <v>1750</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4688,8 +6355,11 @@
       <c r="C10" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4699,8 +6369,11 @@
       <c r="C11" s="1">
         <v>2250</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4710,8 +6383,11 @@
       <c r="C12" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="D12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4721,8 +6397,11 @@
       <c r="C13" s="1">
         <v>2750</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="D13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4732,8 +6411,11 @@
       <c r="C14" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="D14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4743,8 +6425,11 @@
       <c r="C15" s="1">
         <v>3250</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="D15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4754,8 +6439,11 @@
       <c r="C16" s="1">
         <v>3500</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="D16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4765,8 +6453,11 @@
       <c r="C17" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="D17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4776,8 +6467,11 @@
       <c r="C18" s="1">
         <v>4500</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4787,8 +6481,11 @@
       <c r="C19" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="D19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4798,8 +6495,11 @@
       <c r="C20" s="1">
         <v>5500</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="D20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4809,8 +6509,11 @@
       <c r="C21" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="D21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4820,8 +6523,11 @@
       <c r="C22" s="1">
         <v>6500</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="D22" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4831,8 +6537,11 @@
       <c r="C23" s="1">
         <v>7000</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4841,6 +6550,9 @@
       </c>
       <c r="C24" s="1">
         <v>7500</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4440</v>
       </c>
     </row>
   </sheetData>
@@ -4857,10 +6569,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4868,7 +6580,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -4884,8 +6596,11 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4901,8 +6616,11 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4918,8 +6636,11 @@
       <c r="E3" s="1">
         <v>60000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4935,8 +6656,11 @@
       <c r="E4" s="1">
         <v>120000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4952,8 +6676,11 @@
       <c r="E5" s="1">
         <v>240000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4969,8 +6696,11 @@
       <c r="E6" s="1">
         <v>640000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="F6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4986,8 +6716,11 @@
       <c r="E7" s="1">
         <v>1040000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="F7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5003,8 +6736,11 @@
       <c r="E8" s="1">
         <v>1440000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5020,8 +6756,11 @@
       <c r="E9" s="1">
         <v>1840000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="F9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5037,8 +6776,11 @@
       <c r="E10" s="1">
         <v>2240000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="F10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5054,8 +6796,11 @@
       <c r="E11" s="1">
         <v>2640000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="F11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5071,8 +6816,11 @@
       <c r="E12" s="1">
         <v>3040000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="F12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5088,8 +6836,11 @@
       <c r="E13" s="1">
         <v>3440000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="F13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5105,8 +6856,11 @@
       <c r="E14" s="1">
         <v>3840000</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="F14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5122,8 +6876,11 @@
       <c r="E15" s="1">
         <v>4240000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="F15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5139,8 +6896,11 @@
       <c r="E16" s="1">
         <v>4640000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+      <c r="F16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5156,8 +6916,11 @@
       <c r="E17" s="1">
         <v>5040000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+      <c r="F17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5173,8 +6936,11 @@
       <c r="E18" s="1">
         <v>5440000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+      <c r="F18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5190,8 +6956,11 @@
       <c r="E19" s="1">
         <v>5840000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+      <c r="F19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5207,8 +6976,11 @@
       <c r="E20" s="1">
         <v>6240000</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+      <c r="F20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5224,8 +6996,11 @@
       <c r="E21" s="1">
         <v>6640000</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+      <c r="F21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5240,6 +7015,9 @@
       </c>
       <c r="E22" s="1">
         <v>7040000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -5256,10 +7034,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F1" sqref="F1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5267,7 +7045,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -5283,8 +7061,11 @@
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5300,8 +7081,11 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5317,8 +7101,11 @@
       <c r="E3" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5334,8 +7121,11 @@
       <c r="E4" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5351,8 +7141,11 @@
       <c r="E5" s="1">
         <v>204.00000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5368,8 +7161,11 @@
       <c r="E6" s="1">
         <v>408.00000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="F6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5385,8 +7181,11 @@
       <c r="E7" s="1">
         <v>1224</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="F7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5402,8 +7201,11 @@
       <c r="E8" s="1">
         <v>2448</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5419,8 +7221,11 @@
       <c r="E9" s="1">
         <v>3672</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="F9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5436,8 +7241,11 @@
       <c r="E10" s="1">
         <v>4896</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="F10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5453,8 +7261,11 @@
       <c r="E11" s="1">
         <v>6120.0000000000009</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="F11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5470,8 +7281,11 @@
       <c r="E12" s="1">
         <v>7344</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="F12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5487,8 +7301,11 @@
       <c r="E13" s="1">
         <v>8568</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="F13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5504,8 +7321,11 @@
       <c r="E14" s="1">
         <v>9792</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="F14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5521,8 +7341,11 @@
       <c r="E15" s="1">
         <v>11016.000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="F15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5538,8 +7361,11 @@
       <c r="E16" s="1">
         <v>12240.000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+      <c r="F16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5555,8 +7381,11 @@
       <c r="E17" s="1">
         <v>16320</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+      <c r="F17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5572,8 +7401,11 @@
       <c r="E18" s="1">
         <v>20400.000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+      <c r="F18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5589,8 +7421,11 @@
       <c r="E19" s="1">
         <v>24480.000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+      <c r="F19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5606,8 +7441,11 @@
       <c r="E20" s="1">
         <v>28560</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+      <c r="F20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5623,8 +7461,11 @@
       <c r="E21" s="1">
         <v>32640</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+      <c r="F21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5639,6 +7480,9 @@
       </c>
       <c r="E22" s="1">
         <v>61200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -5655,10 +7499,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5666,180 +7510,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>460</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>500</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -5856,10 +7766,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5867,180 +7777,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>24000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>28000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>32000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>36000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>40000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>44000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>48000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>52000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>56000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>60000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>64000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -6057,10 +8033,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6068,180 +8044,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2140" windowWidth="33220" windowHeight="14700" tabRatio="883" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="2580" yWindow="2140" windowWidth="33220" windowHeight="14700" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
     <sheet name="watchTower" sheetId="45" r:id="rId2"/>
-    <sheet name="dragonEyire" sheetId="46" r:id="rId3"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId3"/>
     <sheet name="wall" sheetId="18" r:id="rId4"/>
     <sheet name="warehouse" sheetId="19" r:id="rId5"/>
     <sheet name="tower" sheetId="20" r:id="rId6"/>
@@ -2479,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -5942,8 +5942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2140" windowWidth="33220" windowHeight="14700" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="2580" yWindow="2140" windowWidth="33220" windowHeight="14700" tabRatio="883" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -144,33 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>INT_scout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_trooppopulation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_wallhp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxwood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxstone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxiron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxfood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -190,22 +166,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_maxrecruit</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_efficiency</t>
   </si>
   <si>
     <t>FLOAT_efficiency</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxmaterial</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_woodcutter</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -222,18 +186,6 @@
   </si>
   <si>
     <t>INT_dwelling</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxcasualty</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxcart</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_casualtyrate</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -314,6 +266,50 @@
   </si>
   <si>
     <t>INT_productAmtime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxFood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_wallHp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxRecruit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_woodcutter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxCasualty</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_casualtyRate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxCart</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1852,7 +1848,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1862,16 +1858,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2213,7 +2209,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2223,13 +2219,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -2490,40 +2486,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -3341,7 +3337,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3351,13 +3347,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3508,13 +3504,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3665,13 +3661,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3822,13 +3818,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3979,16 +3975,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4172,13 +4168,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4385,7 +4381,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4395,16 +4391,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4662,7 +4658,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4672,16 +4668,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4865,13 +4861,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5132,16 +5128,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5314,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5325,13 +5321,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5482,13 +5478,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5639,13 +5635,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5786,7 +5782,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5796,13 +5792,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5942,7 +5938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -5953,13 +5949,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6210,7 +6206,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6220,16 +6216,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6572,7 +6568,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6582,22 +6578,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -7047,22 +7043,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -7502,7 +7498,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7512,13 +7508,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -7779,13 +7775,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8046,13 +8042,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2140" windowWidth="33220" windowHeight="14700" tabRatio="883" activeTab="20"/>
+    <workbookView xWindow="8020" yWindow="1440" windowWidth="33220" windowHeight="14700" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="keep" sheetId="17" r:id="rId1"/>
-    <sheet name="watchTower" sheetId="45" r:id="rId2"/>
-    <sheet name="dragonEyrie" sheetId="46" r:id="rId3"/>
-    <sheet name="wall" sheetId="18" r:id="rId4"/>
-    <sheet name="warehouse" sheetId="19" r:id="rId5"/>
-    <sheet name="tower" sheetId="20" r:id="rId6"/>
+    <sheet name="wall" sheetId="18" r:id="rId1"/>
+    <sheet name="tower" sheetId="20" r:id="rId2"/>
+    <sheet name="keep" sheetId="17" r:id="rId3"/>
+    <sheet name="watchTower" sheetId="45" r:id="rId4"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId5"/>
+    <sheet name="warehouse" sheetId="19" r:id="rId6"/>
     <sheet name="barracks" sheetId="32" r:id="rId7"/>
     <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
     <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
@@ -37,11 +37,11 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
@@ -49,24 +49,24 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
@@ -74,24 +74,24 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
@@ -99,24 +99,24 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
@@ -124,13 +124,13 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
@@ -1848,7 +1848,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1861,10 +1861,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>22</v>
@@ -1878,6 +1878,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
+        <f>B2/4</f>
         <v>0</v>
       </c>
       <c r="D2" s="3">
@@ -1888,11 +1889,11 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>4</v>
+      <c r="B3" s="3">
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
@@ -1902,11 +1903,11 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>5</v>
+      <c r="B4" s="3">
+        <v>2000</v>
       </c>
       <c r="C4" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D4" s="3">
         <v>20</v>
@@ -1916,11 +1917,11 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>6</v>
+      <c r="B5" s="3">
+        <v>3000</v>
       </c>
       <c r="C5" s="1">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -1930,11 +1931,11 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>7</v>
+      <c r="B6" s="3">
+        <v>4000</v>
       </c>
       <c r="C6" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="3">
         <v>120</v>
@@ -1944,11 +1945,11 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>8</v>
+      <c r="B7" s="3">
+        <v>5000</v>
       </c>
       <c r="C7" s="1">
-        <v>4000</v>
+        <v>1250</v>
       </c>
       <c r="D7" s="3">
         <v>360</v>
@@ -1958,11 +1959,11 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>9</v>
+      <c r="B8" s="3">
+        <v>6000</v>
       </c>
       <c r="C8" s="1">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="D8" s="3">
         <v>600</v>
@@ -1972,11 +1973,11 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>10</v>
+      <c r="B9" s="3">
+        <v>7000</v>
       </c>
       <c r="C9" s="1">
-        <v>6000</v>
+        <v>1750</v>
       </c>
       <c r="D9" s="3">
         <v>840</v>
@@ -1986,11 +1987,11 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>11</v>
+      <c r="B10" s="3">
+        <v>8000</v>
       </c>
       <c r="C10" s="1">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="D10" s="3">
         <v>1080</v>
@@ -2000,11 +2001,11 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>12</v>
+      <c r="B11" s="3">
+        <v>9000</v>
       </c>
       <c r="C11" s="1">
-        <v>8000</v>
+        <v>2250</v>
       </c>
       <c r="D11" s="3">
         <v>1320</v>
@@ -2014,11 +2015,11 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>13</v>
+      <c r="B12" s="3">
+        <v>10000</v>
       </c>
       <c r="C12" s="1">
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="3">
         <v>1560</v>
@@ -2028,11 +2029,11 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>14</v>
+      <c r="B13" s="3">
+        <v>11000</v>
       </c>
       <c r="C13" s="1">
-        <v>10000</v>
+        <v>2750</v>
       </c>
       <c r="D13" s="3">
         <v>1800</v>
@@ -2042,11 +2043,11 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>15</v>
+      <c r="B14" s="3">
+        <v>12000</v>
       </c>
       <c r="C14" s="1">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="D14" s="3">
         <v>2040</v>
@@ -2056,11 +2057,11 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>16</v>
+      <c r="B15" s="3">
+        <v>13000</v>
       </c>
       <c r="C15" s="1">
-        <v>12000</v>
+        <v>3250</v>
       </c>
       <c r="D15" s="3">
         <v>2280</v>
@@ -2070,11 +2071,11 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>17</v>
+      <c r="B16" s="3">
+        <v>14000</v>
       </c>
       <c r="C16" s="1">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="D16" s="3">
         <v>2520</v>
@@ -2084,11 +2085,11 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>18</v>
+      <c r="B17" s="3">
+        <v>16000</v>
       </c>
       <c r="C17" s="1">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="D17" s="3">
         <v>2760</v>
@@ -2098,11 +2099,11 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>19</v>
+      <c r="B18" s="3">
+        <v>18000</v>
       </c>
       <c r="C18" s="1">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="D18" s="3">
         <v>3000</v>
@@ -2112,11 +2113,11 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>20</v>
+      <c r="B19" s="3">
+        <v>20000</v>
       </c>
       <c r="C19" s="1">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="D19" s="3">
         <v>3240</v>
@@ -2126,11 +2127,11 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>21</v>
+      <c r="B20" s="3">
+        <v>22000</v>
       </c>
       <c r="C20" s="1">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="D20" s="3">
         <v>3480</v>
@@ -2140,11 +2141,11 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>22</v>
+      <c r="B21" s="3">
+        <v>24000</v>
       </c>
       <c r="C21" s="1">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="3">
         <v>3720</v>
@@ -2154,11 +2155,11 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>23</v>
+      <c r="B22" s="3">
+        <v>26000</v>
       </c>
       <c r="C22" s="1">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="D22" s="3">
         <v>3960</v>
@@ -2168,11 +2169,11 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>24</v>
+      <c r="B23" s="3">
+        <v>28000</v>
       </c>
       <c r="C23" s="1">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="D23" s="3">
         <v>4200</v>
@@ -2182,11 +2183,11 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>25</v>
+      <c r="B24" s="3">
+        <v>30000</v>
       </c>
       <c r="C24" s="1">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="D24" s="3">
         <v>4440</v>
@@ -4848,10 +4849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4859,245 +4860,443 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="F5" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="C6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="D6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="E6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="F6" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
+        <v>1224</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1224</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1224</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1224</v>
+      </c>
+      <c r="F7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
+        <v>2448</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2448</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2448</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2448</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
+        <v>3672</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3672</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3672</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3672</v>
+      </c>
+      <c r="F9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
+        <v>4896</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4896</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4896</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4896</v>
+      </c>
+      <c r="F10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="F11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
+        <v>7344</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7344</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7344</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7344</v>
+      </c>
+      <c r="F12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
+        <v>8568</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8568</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8568</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8568</v>
+      </c>
+      <c r="F13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
+        <v>9792</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9792</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9792</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9792</v>
+      </c>
+      <c r="F14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="F15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="F16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3">
+        <v>16320</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16320</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16320</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16320</v>
+      </c>
+      <c r="F17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="D19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="E19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="F19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3">
+        <v>28560</v>
+      </c>
+      <c r="C20" s="1">
+        <v>28560</v>
+      </c>
+      <c r="D20" s="1">
+        <v>28560</v>
+      </c>
+      <c r="E20" s="1">
+        <v>28560</v>
+      </c>
+      <c r="F20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3">
+        <v>32640</v>
+      </c>
+      <c r="C21" s="1">
+        <v>32640</v>
+      </c>
+      <c r="D21" s="1">
+        <v>32640</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32640</v>
+      </c>
+      <c r="F21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3">
+        <v>61200</v>
+      </c>
+      <c r="C22" s="1">
+        <v>61200</v>
+      </c>
+      <c r="D22" s="1">
+        <v>61200</v>
+      </c>
+      <c r="E22" s="1">
+        <v>61200</v>
+      </c>
+      <c r="F22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -5310,7 +5509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5936,6 +6135,634 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4440</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -6186,833 +7013,6 @@
         <v>1800000</v>
       </c>
       <c r="C22" s="3">
-        <v>3960</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <f>B2/4</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>250</v>
-      </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>500</v>
-      </c>
-      <c r="D4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>750</v>
-      </c>
-      <c r="D5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1250</v>
-      </c>
-      <c r="D7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1750</v>
-      </c>
-      <c r="D9" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2250</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2500</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>11000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2750</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>13000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3250</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>14000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3500</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>16000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4000</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>18000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4500</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>22000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5500</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>24000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6000</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>26000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6500</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>28000</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7000</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>30000</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7500</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4440</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>240000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>240000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>240000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>240000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>640000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>640000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>640000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>640000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1040000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1040000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1040000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1040000</v>
-      </c>
-      <c r="F7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1840000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1840000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1840000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1840000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2240000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2240000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2240000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2240000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2640000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2640000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2640000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2640000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3040000</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3040000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3040000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3040000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3440000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3440000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3440000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3440000</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3840000</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3840000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3840000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3840000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4240000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4240000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4240000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4240000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4640000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4640000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4640000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4640000</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5040000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5040000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5040000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5040000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5440000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5440000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5440000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5440000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5840000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5840000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5840000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5840000</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6240000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6240000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6240000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>6240000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>6640000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6640000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6640000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6640000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>7040000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7040000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>7040000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7040000</v>
-      </c>
-      <c r="F22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -7033,7 +7033,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7046,16 +7046,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>22</v>
@@ -7086,16 +7086,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>34</v>
+        <v>60000</v>
       </c>
       <c r="C3" s="1">
-        <v>34</v>
+        <v>60000</v>
       </c>
       <c r="D3" s="1">
-        <v>34</v>
+        <v>60000</v>
       </c>
       <c r="E3" s="1">
-        <v>34</v>
+        <v>60000</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
@@ -7106,16 +7106,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>68</v>
+        <v>120000</v>
       </c>
       <c r="C4" s="1">
-        <v>68</v>
+        <v>120000</v>
       </c>
       <c r="D4" s="1">
-        <v>68</v>
+        <v>120000</v>
       </c>
       <c r="E4" s="1">
-        <v>68</v>
+        <v>120000</v>
       </c>
       <c r="F4" s="3">
         <v>20</v>
@@ -7126,16 +7126,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>204.00000000000003</v>
+        <v>240000</v>
       </c>
       <c r="C5" s="1">
-        <v>204.00000000000003</v>
+        <v>240000</v>
       </c>
       <c r="D5" s="1">
-        <v>204.00000000000003</v>
+        <v>240000</v>
       </c>
       <c r="E5" s="1">
-        <v>204.00000000000003</v>
+        <v>240000</v>
       </c>
       <c r="F5" s="3">
         <v>60</v>
@@ -7146,16 +7146,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>408.00000000000006</v>
+        <v>640000</v>
       </c>
       <c r="C6" s="1">
-        <v>408.00000000000006</v>
+        <v>640000</v>
       </c>
       <c r="D6" s="1">
-        <v>408.00000000000006</v>
+        <v>640000</v>
       </c>
       <c r="E6" s="1">
-        <v>408.00000000000006</v>
+        <v>640000</v>
       </c>
       <c r="F6" s="3">
         <v>120</v>
@@ -7166,16 +7166,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1224</v>
+        <v>1040000</v>
       </c>
       <c r="C7" s="1">
-        <v>1224</v>
+        <v>1040000</v>
       </c>
       <c r="D7" s="1">
-        <v>1224</v>
+        <v>1040000</v>
       </c>
       <c r="E7" s="1">
-        <v>1224</v>
+        <v>1040000</v>
       </c>
       <c r="F7" s="3">
         <v>360</v>
@@ -7186,16 +7186,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2448</v>
+        <v>1440000</v>
       </c>
       <c r="C8" s="1">
-        <v>2448</v>
+        <v>1440000</v>
       </c>
       <c r="D8" s="1">
-        <v>2448</v>
+        <v>1440000</v>
       </c>
       <c r="E8" s="1">
-        <v>2448</v>
+        <v>1440000</v>
       </c>
       <c r="F8" s="3">
         <v>600</v>
@@ -7206,16 +7206,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3672</v>
+        <v>1840000</v>
       </c>
       <c r="C9" s="1">
-        <v>3672</v>
+        <v>1840000</v>
       </c>
       <c r="D9" s="1">
-        <v>3672</v>
+        <v>1840000</v>
       </c>
       <c r="E9" s="1">
-        <v>3672</v>
+        <v>1840000</v>
       </c>
       <c r="F9" s="3">
         <v>840</v>
@@ -7226,16 +7226,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4896</v>
+        <v>2240000</v>
       </c>
       <c r="C10" s="1">
-        <v>4896</v>
+        <v>2240000</v>
       </c>
       <c r="D10" s="1">
-        <v>4896</v>
+        <v>2240000</v>
       </c>
       <c r="E10" s="1">
-        <v>4896</v>
+        <v>2240000</v>
       </c>
       <c r="F10" s="3">
         <v>1080</v>
@@ -7246,16 +7246,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6120.0000000000009</v>
+        <v>2640000</v>
       </c>
       <c r="C11" s="1">
-        <v>6120.0000000000009</v>
+        <v>2640000</v>
       </c>
       <c r="D11" s="1">
-        <v>6120.0000000000009</v>
+        <v>2640000</v>
       </c>
       <c r="E11" s="1">
-        <v>6120.0000000000009</v>
+        <v>2640000</v>
       </c>
       <c r="F11" s="3">
         <v>1320</v>
@@ -7266,16 +7266,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>7344</v>
+        <v>3040000</v>
       </c>
       <c r="C12" s="1">
-        <v>7344</v>
+        <v>3040000</v>
       </c>
       <c r="D12" s="1">
-        <v>7344</v>
+        <v>3040000</v>
       </c>
       <c r="E12" s="1">
-        <v>7344</v>
+        <v>3040000</v>
       </c>
       <c r="F12" s="3">
         <v>1560</v>
@@ -7286,16 +7286,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>8568</v>
+        <v>3440000</v>
       </c>
       <c r="C13" s="1">
-        <v>8568</v>
+        <v>3440000</v>
       </c>
       <c r="D13" s="1">
-        <v>8568</v>
+        <v>3440000</v>
       </c>
       <c r="E13" s="1">
-        <v>8568</v>
+        <v>3440000</v>
       </c>
       <c r="F13" s="3">
         <v>1800</v>
@@ -7306,16 +7306,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>9792</v>
+        <v>3840000</v>
       </c>
       <c r="C14" s="1">
-        <v>9792</v>
+        <v>3840000</v>
       </c>
       <c r="D14" s="1">
-        <v>9792</v>
+        <v>3840000</v>
       </c>
       <c r="E14" s="1">
-        <v>9792</v>
+        <v>3840000</v>
       </c>
       <c r="F14" s="3">
         <v>2040</v>
@@ -7326,16 +7326,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>11016.000000000002</v>
+        <v>4240000</v>
       </c>
       <c r="C15" s="1">
-        <v>11016.000000000002</v>
+        <v>4240000</v>
       </c>
       <c r="D15" s="1">
-        <v>11016.000000000002</v>
+        <v>4240000</v>
       </c>
       <c r="E15" s="1">
-        <v>11016.000000000002</v>
+        <v>4240000</v>
       </c>
       <c r="F15" s="3">
         <v>2280</v>
@@ -7346,16 +7346,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>12240.000000000002</v>
+        <v>4640000</v>
       </c>
       <c r="C16" s="1">
-        <v>12240.000000000002</v>
+        <v>4640000</v>
       </c>
       <c r="D16" s="1">
-        <v>12240.000000000002</v>
+        <v>4640000</v>
       </c>
       <c r="E16" s="1">
-        <v>12240.000000000002</v>
+        <v>4640000</v>
       </c>
       <c r="F16" s="3">
         <v>2520</v>
@@ -7366,16 +7366,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>16320</v>
+        <v>5040000</v>
       </c>
       <c r="C17" s="1">
-        <v>16320</v>
+        <v>5040000</v>
       </c>
       <c r="D17" s="1">
-        <v>16320</v>
+        <v>5040000</v>
       </c>
       <c r="E17" s="1">
-        <v>16320</v>
+        <v>5040000</v>
       </c>
       <c r="F17" s="3">
         <v>2760</v>
@@ -7386,16 +7386,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>20400.000000000004</v>
+        <v>5440000</v>
       </c>
       <c r="C18" s="1">
-        <v>20400.000000000004</v>
+        <v>5440000</v>
       </c>
       <c r="D18" s="1">
-        <v>20400.000000000004</v>
+        <v>5440000</v>
       </c>
       <c r="E18" s="1">
-        <v>20400.000000000004</v>
+        <v>5440000</v>
       </c>
       <c r="F18" s="3">
         <v>3000</v>
@@ -7406,16 +7406,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>24480.000000000004</v>
+        <v>5840000</v>
       </c>
       <c r="C19" s="1">
-        <v>24480.000000000004</v>
+        <v>5840000</v>
       </c>
       <c r="D19" s="1">
-        <v>24480.000000000004</v>
+        <v>5840000</v>
       </c>
       <c r="E19" s="1">
-        <v>24480.000000000004</v>
+        <v>5840000</v>
       </c>
       <c r="F19" s="3">
         <v>3240</v>
@@ -7426,16 +7426,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>28560</v>
+        <v>6240000</v>
       </c>
       <c r="C20" s="1">
-        <v>28560</v>
+        <v>6240000</v>
       </c>
       <c r="D20" s="1">
-        <v>28560</v>
+        <v>6240000</v>
       </c>
       <c r="E20" s="1">
-        <v>28560</v>
+        <v>6240000</v>
       </c>
       <c r="F20" s="3">
         <v>3480</v>
@@ -7446,16 +7446,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>32640</v>
+        <v>6640000</v>
       </c>
       <c r="C21" s="1">
-        <v>32640</v>
+        <v>6640000</v>
       </c>
       <c r="D21" s="1">
-        <v>32640</v>
+        <v>6640000</v>
       </c>
       <c r="E21" s="1">
-        <v>32640</v>
+        <v>6640000</v>
       </c>
       <c r="F21" s="3">
         <v>3720</v>
@@ -7466,16 +7466,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>61200</v>
+        <v>7040000</v>
       </c>
       <c r="C22" s="1">
-        <v>61200</v>
+        <v>7040000</v>
       </c>
       <c r="D22" s="1">
-        <v>61200</v>
+        <v>7040000</v>
       </c>
       <c r="E22" s="1">
-        <v>61200</v>
+        <v>7040000</v>
       </c>
       <c r="F22" s="3">
         <v>3960</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="1440" windowWidth="33220" windowHeight="14700" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="1280" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -312,6 +312,18 @@
     <t>INT_maxCart</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_maxSoldierMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxDragonMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxDragonEquipment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -473,7 +485,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="452">
+  <cellStyleXfs count="464">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -488,6 +500,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -946,7 +970,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="452">
+  <cellStyles count="464">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1175,6 +1199,12 @@
     <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1396,6 +1426,12 @@
     <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2207,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2218,7 +2254,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2226,237 +2262,435 @@
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>160</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
+        <v>160</v>
+      </c>
+      <c r="D6" s="1">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1">
+        <v>160</v>
+      </c>
+      <c r="F6" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>320</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
+        <v>320</v>
+      </c>
+      <c r="D7" s="1">
+        <v>320</v>
+      </c>
+      <c r="E7" s="1">
+        <v>320</v>
+      </c>
+      <c r="F7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>640</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
+        <v>640</v>
+      </c>
+      <c r="D8" s="1">
+        <v>640</v>
+      </c>
+      <c r="E8" s="1">
+        <v>640</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
+        <v>960</v>
+      </c>
+      <c r="D9" s="1">
+        <v>960</v>
+      </c>
+      <c r="E9" s="1">
+        <v>960</v>
+      </c>
+      <c r="F9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>1280</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="F10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1600</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>2000</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>2400</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>3000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>3600</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4200</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>4800</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>5600</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>6400</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="F19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>7200</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>8000</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>9999</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="F22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -4851,7 +5085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G22"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="1280" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -198,10 +198,6 @@
   </si>
   <si>
     <t>INT_wallRecovery</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dragonRecovery</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -322,6 +318,22 @@
   </si>
   <si>
     <t>INT_maxDragonEquipment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_vitalityRecoveryPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_energyMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_perEnergyTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1897,13 +1909,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2245,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2259,19 +2271,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -2724,37 +2736,37 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -3585,10 +3597,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3745,7 +3757,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -3902,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4059,7 +4071,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4216,10 +4228,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4409,7 +4421,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4629,13 +4641,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4906,13 +4918,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5111,7 +5123,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -5564,13 +5576,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5760,7 +5772,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -5917,7 +5929,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6074,7 +6086,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6231,7 +6243,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6388,10 +6400,10 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6749,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6997,256 +7009,390 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>120</v>
+      </c>
+      <c r="E3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>6000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
+        <v>120</v>
+      </c>
+      <c r="E5" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="E6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>36000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>120</v>
+      </c>
+      <c r="E7" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>72000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>120</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>108000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>120</v>
+      </c>
+      <c r="E9" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>144000</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>120</v>
+      </c>
+      <c r="E10" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>180000</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>120</v>
+      </c>
+      <c r="E11" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>216000</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>252000</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>288000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>324000</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>360000</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>120</v>
+      </c>
+      <c r="E16" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>480000</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <v>120</v>
+      </c>
+      <c r="E17" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>600000</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>120</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>720000</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>120</v>
+      </c>
+      <c r="E19" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>840000</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <v>120</v>
+      </c>
+      <c r="E20" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>960000</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1">
+        <v>120</v>
+      </c>
+      <c r="E21" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1800000</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <v>120</v>
+      </c>
+      <c r="E22" s="3">
         <v>3960</v>
       </c>
     </row>
@@ -7280,19 +7426,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -7745,10 +7891,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8012,10 +8158,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8282,7 +8428,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="380" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="4360" yWindow="1020" windowWidth="31020" windowHeight="17280" tabRatio="883" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -336,6 +336,21 @@
     <t>INT_perEnergyTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_taxTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_addEfficency</t>
+  </si>
+  <si>
+    <t>FLOAT_addEfficency</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_perCitizenHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -497,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="464">
+  <cellStyleXfs count="504">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -512,6 +527,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -982,7 +1037,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="464">
+  <cellStyles count="504">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1217,6 +1272,26 @@
     <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1444,6 +1519,26 @@
     <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3581,10 +3676,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3592,7 +3687,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3600,10 +3695,13 @@
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3613,8 +3711,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3622,105 +3723,135 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
         <v>2520</v>
       </c>
     </row>
@@ -3738,10 +3869,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3749,7 +3880,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3757,10 +3888,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3770,8 +3904,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3779,105 +3916,135 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
         <v>2520</v>
       </c>
     </row>
@@ -3895,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3906,7 +4073,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3914,10 +4081,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3927,8 +4097,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3936,105 +4109,135 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
         <v>2520</v>
       </c>
     </row>
@@ -4052,10 +4255,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4063,18 +4266,21 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4084,8 +4290,11 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4093,105 +4302,135 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
         <v>2520</v>
       </c>
     </row>
@@ -4209,10 +4448,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4220,7 +4459,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -4233,8 +4472,14 @@
       <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4247,8 +4492,14 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4256,136 +4507,196 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="D3" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="1">
+        <v>8640</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>160</v>
+        <v>2400</v>
       </c>
       <c r="D4" s="3">
         <v>840</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>220</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="3">
         <v>1080</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="1">
+        <v>11520</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>280</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="3">
         <v>1320</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="1">
+        <v>12960</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>340</v>
+        <v>24000</v>
       </c>
       <c r="D7" s="3">
         <v>1560</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="1">
+        <v>14400</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>400</v>
+        <v>36000</v>
       </c>
       <c r="D8" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="1">
+        <v>15840.000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>460</v>
+        <v>48000</v>
       </c>
       <c r="D9" s="3">
         <v>2040</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="1">
+        <v>17280</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>520</v>
+        <v>60000</v>
       </c>
       <c r="D10" s="3">
         <v>2280</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="1">
+        <v>18720</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>580</v>
+        <v>72000</v>
       </c>
       <c r="D11" s="3">
         <v>2520</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="1">
+        <v>20160</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>640</v>
+        <v>96000</v>
       </c>
       <c r="D12" s="3">
         <v>2760</v>
+      </c>
+      <c r="E12" s="1">
+        <v>21600</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7011,7 +7322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="1020" windowWidth="31020" windowHeight="17280" tabRatio="883" activeTab="15"/>
+    <workbookView xWindow="8440" yWindow="22000" windowWidth="20240" windowHeight="15400" tabRatio="883" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_perCitizenHour</t>
+    <t>INT_totalTax</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="504">
+  <cellStyleXfs count="506">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -527,6 +527,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1037,7 +1039,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="504">
+  <cellStyles count="506">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1292,6 +1294,7 @@
     <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1539,6 +1542,7 @@
     <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4451,7 +4455,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4516,7 +4520,7 @@
         <v>8640</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -4536,7 +4540,7 @@
         <v>10080</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -4556,7 +4560,7 @@
         <v>11520</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -4576,7 +4580,7 @@
         <v>12960</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
@@ -4596,7 +4600,7 @@
         <v>14400</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -4616,7 +4620,7 @@
         <v>15840.000000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -4636,7 +4640,7 @@
         <v>17280</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -4656,7 +4660,7 @@
         <v>18720</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -4676,7 +4680,7 @@
         <v>20160</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -4696,7 +4700,7 @@
         <v>21600</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>96000</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="7820" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -144,25 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>INT_scout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkinfs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkarcs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkcavs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkcats</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -351,6 +335,26 @@
     <t>INT_hpRecoveryPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_infantry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_archer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_defencePower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="510">
+  <cellStyleXfs count="514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -527,6 +531,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1043,7 +1051,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="510">
+  <cellStyles count="514">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1301,6 +1309,8 @@
     <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1551,6 +1561,8 @@
     <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2002,7 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2013,16 +2025,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2375,22 +2387,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -2840,40 +2852,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -3701,16 +3713,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -3894,16 +3906,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4087,16 +4099,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4280,16 +4292,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4473,22 +4485,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -4738,13 +4750,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4961,16 +4973,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5238,16 +5250,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5418,10 +5430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5429,31 +5441,34 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -5465,16 +5480,19 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>34</v>
+      <c r="B3" s="3">
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>34</v>
@@ -5485,16 +5503,19 @@
       <c r="E3" s="1">
         <v>34</v>
       </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="F3" s="1">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>68</v>
+      <c r="B4" s="3">
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>68</v>
@@ -5505,16 +5526,19 @@
       <c r="E4" s="1">
         <v>68</v>
       </c>
-      <c r="F4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="F4" s="1">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>204.00000000000003</v>
+      <c r="B5" s="3">
+        <v>60</v>
       </c>
       <c r="C5" s="1">
         <v>204.00000000000003</v>
@@ -5525,16 +5549,19 @@
       <c r="E5" s="1">
         <v>204.00000000000003</v>
       </c>
-      <c r="F5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="F5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>408.00000000000006</v>
+      <c r="B6" s="3">
+        <v>120</v>
       </c>
       <c r="C6" s="1">
         <v>408.00000000000006</v>
@@ -5545,16 +5572,19 @@
       <c r="E6" s="1">
         <v>408.00000000000006</v>
       </c>
-      <c r="F6" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="F6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="G6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>1224</v>
+      <c r="B7" s="3">
+        <v>360</v>
       </c>
       <c r="C7" s="1">
         <v>1224</v>
@@ -5565,16 +5595,19 @@
       <c r="E7" s="1">
         <v>1224</v>
       </c>
-      <c r="F7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="F7" s="1">
+        <v>1224</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>2448</v>
+      <c r="B8" s="3">
+        <v>600</v>
       </c>
       <c r="C8" s="1">
         <v>2448</v>
@@ -5585,16 +5618,19 @@
       <c r="E8" s="1">
         <v>2448</v>
       </c>
-      <c r="F8" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="F8" s="1">
+        <v>2448</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3672</v>
+      <c r="B9" s="3">
+        <v>840</v>
       </c>
       <c r="C9" s="1">
         <v>3672</v>
@@ -5605,16 +5641,19 @@
       <c r="E9" s="1">
         <v>3672</v>
       </c>
-      <c r="F9" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="F9" s="1">
+        <v>3672</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>4896</v>
+      <c r="B10" s="3">
+        <v>1080</v>
       </c>
       <c r="C10" s="1">
         <v>4896</v>
@@ -5625,16 +5664,19 @@
       <c r="E10" s="1">
         <v>4896</v>
       </c>
-      <c r="F10" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="F10" s="1">
+        <v>4896</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>6120.0000000000009</v>
+      <c r="B11" s="3">
+        <v>1320</v>
       </c>
       <c r="C11" s="1">
         <v>6120.0000000000009</v>
@@ -5645,16 +5687,19 @@
       <c r="E11" s="1">
         <v>6120.0000000000009</v>
       </c>
-      <c r="F11" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="F11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>7344</v>
+      <c r="B12" s="3">
+        <v>1560</v>
       </c>
       <c r="C12" s="1">
         <v>7344</v>
@@ -5665,16 +5710,19 @@
       <c r="E12" s="1">
         <v>7344</v>
       </c>
-      <c r="F12" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="F12" s="1">
+        <v>7344</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>8568</v>
+      <c r="B13" s="3">
+        <v>1800</v>
       </c>
       <c r="C13" s="1">
         <v>8568</v>
@@ -5685,16 +5733,19 @@
       <c r="E13" s="1">
         <v>8568</v>
       </c>
-      <c r="F13" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="F13" s="1">
+        <v>8568</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>9792</v>
+      <c r="B14" s="3">
+        <v>2040</v>
       </c>
       <c r="C14" s="1">
         <v>9792</v>
@@ -5705,16 +5756,19 @@
       <c r="E14" s="1">
         <v>9792</v>
       </c>
-      <c r="F14" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="F14" s="1">
+        <v>9792</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>11016.000000000002</v>
+      <c r="B15" s="3">
+        <v>2280</v>
       </c>
       <c r="C15" s="1">
         <v>11016.000000000002</v>
@@ -5725,16 +5779,19 @@
       <c r="E15" s="1">
         <v>11016.000000000002</v>
       </c>
-      <c r="F15" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="F15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>12240.000000000002</v>
+      <c r="B16" s="3">
+        <v>2520</v>
       </c>
       <c r="C16" s="1">
         <v>12240.000000000002</v>
@@ -5745,16 +5802,19 @@
       <c r="E16" s="1">
         <v>12240.000000000002</v>
       </c>
-      <c r="F16" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+      <c r="F16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>16320</v>
+      <c r="B17" s="3">
+        <v>2760</v>
       </c>
       <c r="C17" s="1">
         <v>16320</v>
@@ -5765,16 +5825,19 @@
       <c r="E17" s="1">
         <v>16320</v>
       </c>
-      <c r="F17" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="F17" s="1">
+        <v>16320</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>20400.000000000004</v>
+      <c r="B18" s="3">
+        <v>3000</v>
       </c>
       <c r="C18" s="1">
         <v>20400.000000000004</v>
@@ -5785,16 +5848,19 @@
       <c r="E18" s="1">
         <v>20400.000000000004</v>
       </c>
-      <c r="F18" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="F18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>24480.000000000004</v>
+      <c r="B19" s="3">
+        <v>3240</v>
       </c>
       <c r="C19" s="1">
         <v>24480.000000000004</v>
@@ -5805,16 +5871,19 @@
       <c r="E19" s="1">
         <v>24480.000000000004</v>
       </c>
-      <c r="F19" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="F19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="G19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>28560</v>
+      <c r="B20" s="3">
+        <v>3480</v>
       </c>
       <c r="C20" s="1">
         <v>28560</v>
@@ -5825,16 +5894,19 @@
       <c r="E20" s="1">
         <v>28560</v>
       </c>
-      <c r="F20" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="F20" s="1">
+        <v>28560</v>
+      </c>
+      <c r="G20" s="1">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>32640</v>
+      <c r="B21" s="3">
+        <v>3720</v>
       </c>
       <c r="C21" s="1">
         <v>32640</v>
@@ -5845,16 +5917,19 @@
       <c r="E21" s="1">
         <v>32640</v>
       </c>
-      <c r="F21" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="F21" s="1">
+        <v>32640</v>
+      </c>
+      <c r="G21" s="1">
+        <v>32640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>61200</v>
+      <c r="B22" s="3">
+        <v>3960</v>
       </c>
       <c r="C22" s="1">
         <v>61200</v>
@@ -5865,8 +5940,11 @@
       <c r="E22" s="1">
         <v>61200</v>
       </c>
-      <c r="F22" s="3">
-        <v>3960</v>
+      <c r="F22" s="1">
+        <v>61200</v>
+      </c>
+      <c r="G22" s="1">
+        <v>61200</v>
       </c>
     </row>
   </sheetData>
@@ -5896,16 +5974,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6089,13 +6167,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6246,13 +6324,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6403,13 +6481,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6560,13 +6638,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6717,16 +6795,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7078,13 +7156,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -7347,19 +7425,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7746,22 +7824,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -8211,13 +8289,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8478,13 +8556,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8745,13 +8823,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="6800" yWindow="2920" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5433,7 +5433,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="2920" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="6020" yWindow="2200" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -516,7 +516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="514">
+  <cellStyleXfs count="516">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -531,6 +531,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1051,7 +1053,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="514">
+  <cellStyles count="516">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1311,6 +1313,7 @@
     <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1563,6 +1566,7 @@
     <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2841,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2946,7 +2950,7 @@
         <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>2000</v>
@@ -2958,7 +2962,7 @@
         <v>2000</v>
       </c>
       <c r="K3" s="1">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="L3" s="3">
         <v>10</v>
@@ -2984,7 +2988,7 @@
         <v>2000</v>
       </c>
       <c r="G4" s="1">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>4000</v>
@@ -2996,7 +3000,7 @@
         <v>4000</v>
       </c>
       <c r="K4" s="1">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3">
         <v>20</v>
@@ -3022,7 +3026,7 @@
         <v>3000</v>
       </c>
       <c r="G5" s="1">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1">
         <v>6000</v>
@@ -3034,7 +3038,7 @@
         <v>6000</v>
       </c>
       <c r="K5" s="1">
-        <v>1800</v>
+        <v>30</v>
       </c>
       <c r="L5" s="3">
         <v>60</v>
@@ -3060,7 +3064,7 @@
         <v>4000</v>
       </c>
       <c r="G6" s="1">
-        <v>1200</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1">
         <v>8000</v>
@@ -3072,7 +3076,7 @@
         <v>8000</v>
       </c>
       <c r="K6" s="1">
-        <v>2400</v>
+        <v>40</v>
       </c>
       <c r="L6" s="3">
         <v>120</v>
@@ -3098,7 +3102,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="1">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1">
         <v>10000</v>
@@ -3110,7 +3114,7 @@
         <v>10000</v>
       </c>
       <c r="K7" s="1">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="L7" s="3">
         <v>360</v>
@@ -3136,7 +3140,7 @@
         <v>6000</v>
       </c>
       <c r="G8" s="1">
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
         <v>12000</v>
@@ -3148,7 +3152,7 @@
         <v>12000</v>
       </c>
       <c r="K8" s="1">
-        <v>3600</v>
+        <v>60</v>
       </c>
       <c r="L8" s="3">
         <v>600</v>
@@ -3174,7 +3178,7 @@
         <v>7000</v>
       </c>
       <c r="G9" s="1">
-        <v>2100</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1">
         <v>14000</v>
@@ -3186,7 +3190,7 @@
         <v>14000</v>
       </c>
       <c r="K9" s="1">
-        <v>4200</v>
+        <v>70</v>
       </c>
       <c r="L9" s="3">
         <v>840</v>
@@ -3212,7 +3216,7 @@
         <v>8000</v>
       </c>
       <c r="G10" s="1">
-        <v>2400</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1">
         <v>16000</v>
@@ -3224,7 +3228,7 @@
         <v>16000</v>
       </c>
       <c r="K10" s="1">
-        <v>4800</v>
+        <v>80</v>
       </c>
       <c r="L10" s="3">
         <v>1080</v>
@@ -3250,7 +3254,7 @@
         <v>9000</v>
       </c>
       <c r="G11" s="1">
-        <v>2700</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
         <v>18000</v>
@@ -3262,7 +3266,7 @@
         <v>18000</v>
       </c>
       <c r="K11" s="1">
-        <v>5400</v>
+        <v>90</v>
       </c>
       <c r="L11" s="3">
         <v>1320</v>
@@ -3288,7 +3292,7 @@
         <v>10000</v>
       </c>
       <c r="G12" s="1">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
         <v>20000</v>
@@ -3300,7 +3304,7 @@
         <v>20000</v>
       </c>
       <c r="K12" s="1">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>1560</v>
@@ -3326,7 +3330,7 @@
         <v>11000</v>
       </c>
       <c r="G13" s="1">
-        <v>3300</v>
+        <v>110</v>
       </c>
       <c r="H13" s="1">
         <v>22000</v>
@@ -3338,7 +3342,7 @@
         <v>22000</v>
       </c>
       <c r="K13" s="1">
-        <v>6600</v>
+        <v>110</v>
       </c>
       <c r="L13" s="3">
         <v>1800</v>
@@ -3364,7 +3368,7 @@
         <v>12000</v>
       </c>
       <c r="G14" s="1">
-        <v>3600</v>
+        <v>120</v>
       </c>
       <c r="H14" s="1">
         <v>24000</v>
@@ -3376,7 +3380,7 @@
         <v>24000</v>
       </c>
       <c r="K14" s="1">
-        <v>7200</v>
+        <v>120</v>
       </c>
       <c r="L14" s="3">
         <v>2040</v>
@@ -3402,7 +3406,7 @@
         <v>13000</v>
       </c>
       <c r="G15" s="1">
-        <v>3900</v>
+        <v>130</v>
       </c>
       <c r="H15" s="1">
         <v>26000</v>
@@ -3414,7 +3418,7 @@
         <v>26000</v>
       </c>
       <c r="K15" s="1">
-        <v>7800</v>
+        <v>130</v>
       </c>
       <c r="L15" s="3">
         <v>2280</v>
@@ -3440,7 +3444,7 @@
         <v>14000</v>
       </c>
       <c r="G16" s="1">
-        <v>4200</v>
+        <v>140</v>
       </c>
       <c r="H16" s="1">
         <v>28000</v>
@@ -3452,7 +3456,7 @@
         <v>28000</v>
       </c>
       <c r="K16" s="1">
-        <v>8400</v>
+        <v>140</v>
       </c>
       <c r="L16" s="3">
         <v>2520</v>
@@ -3478,7 +3482,7 @@
         <v>15000</v>
       </c>
       <c r="G17" s="1">
-        <v>4500</v>
+        <v>150</v>
       </c>
       <c r="H17" s="1">
         <v>30000</v>
@@ -3490,7 +3494,7 @@
         <v>30000</v>
       </c>
       <c r="K17" s="1">
-        <v>9000</v>
+        <v>150</v>
       </c>
       <c r="L17" s="3">
         <v>2760</v>
@@ -3516,7 +3520,7 @@
         <v>16000</v>
       </c>
       <c r="G18" s="1">
-        <v>4800</v>
+        <v>160</v>
       </c>
       <c r="H18" s="1">
         <v>32000</v>
@@ -3528,7 +3532,7 @@
         <v>32000</v>
       </c>
       <c r="K18" s="1">
-        <v>9600</v>
+        <v>160</v>
       </c>
       <c r="L18" s="3">
         <v>3000</v>
@@ -3554,7 +3558,7 @@
         <v>17000</v>
       </c>
       <c r="G19" s="1">
-        <v>5100</v>
+        <v>170</v>
       </c>
       <c r="H19" s="1">
         <v>34000</v>
@@ -3566,7 +3570,7 @@
         <v>34000</v>
       </c>
       <c r="K19" s="1">
-        <v>10200</v>
+        <v>170</v>
       </c>
       <c r="L19" s="3">
         <v>3240</v>
@@ -3592,7 +3596,7 @@
         <v>18000</v>
       </c>
       <c r="G20" s="1">
-        <v>5400</v>
+        <v>180</v>
       </c>
       <c r="H20" s="1">
         <v>36000</v>
@@ -3604,7 +3608,7 @@
         <v>36000</v>
       </c>
       <c r="K20" s="1">
-        <v>10800</v>
+        <v>180</v>
       </c>
       <c r="L20" s="3">
         <v>3480</v>
@@ -3630,7 +3634,7 @@
         <v>19000</v>
       </c>
       <c r="G21" s="1">
-        <v>5700</v>
+        <v>190</v>
       </c>
       <c r="H21" s="1">
         <v>38000</v>
@@ -3642,7 +3646,7 @@
         <v>38000</v>
       </c>
       <c r="K21" s="1">
-        <v>11400</v>
+        <v>190</v>
       </c>
       <c r="L21" s="3">
         <v>3720</v>
@@ -3668,7 +3672,7 @@
         <v>20000</v>
       </c>
       <c r="G22" s="1">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="H22" s="1">
         <v>40000</v>
@@ -3680,7 +3684,7 @@
         <v>40000</v>
       </c>
       <c r="K22" s="1">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>3960</v>
@@ -5432,7 +5436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -2846,7 +2846,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2962,7 +2962,7 @@
         <v>2000</v>
       </c>
       <c r="K3" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L3" s="3">
         <v>10</v>
@@ -3000,7 +3000,7 @@
         <v>4000</v>
       </c>
       <c r="K4" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3">
         <v>20</v>
@@ -3038,7 +3038,7 @@
         <v>6000</v>
       </c>
       <c r="K5" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L5" s="3">
         <v>60</v>
@@ -3076,7 +3076,7 @@
         <v>8000</v>
       </c>
       <c r="K6" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L6" s="3">
         <v>120</v>
@@ -3114,7 +3114,7 @@
         <v>10000</v>
       </c>
       <c r="K7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L7" s="3">
         <v>360</v>
@@ -3152,7 +3152,7 @@
         <v>12000</v>
       </c>
       <c r="K8" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L8" s="3">
         <v>600</v>
@@ -3190,7 +3190,7 @@
         <v>14000</v>
       </c>
       <c r="K9" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L9" s="3">
         <v>840</v>
@@ -3228,7 +3228,7 @@
         <v>16000</v>
       </c>
       <c r="K10" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>1080</v>
@@ -3266,7 +3266,7 @@
         <v>18000</v>
       </c>
       <c r="K11" s="1">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L11" s="3">
         <v>1320</v>
@@ -3304,7 +3304,7 @@
         <v>20000</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L12" s="3">
         <v>1560</v>
@@ -3342,7 +3342,7 @@
         <v>22000</v>
       </c>
       <c r="K13" s="1">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L13" s="3">
         <v>1800</v>
@@ -3380,7 +3380,7 @@
         <v>24000</v>
       </c>
       <c r="K14" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L14" s="3">
         <v>2040</v>
@@ -3418,7 +3418,7 @@
         <v>26000</v>
       </c>
       <c r="K15" s="1">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="L15" s="3">
         <v>2280</v>
@@ -3456,7 +3456,7 @@
         <v>28000</v>
       </c>
       <c r="K16" s="1">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L16" s="3">
         <v>2520</v>
@@ -3494,7 +3494,7 @@
         <v>30000</v>
       </c>
       <c r="K17" s="1">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L17" s="3">
         <v>2760</v>
@@ -3532,7 +3532,7 @@
         <v>32000</v>
       </c>
       <c r="K18" s="1">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="L18" s="3">
         <v>3000</v>
@@ -3570,7 +3570,7 @@
         <v>34000</v>
       </c>
       <c r="K19" s="1">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L19" s="3">
         <v>3240</v>
@@ -3608,7 +3608,7 @@
         <v>36000</v>
       </c>
       <c r="K20" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>3480</v>
@@ -3646,7 +3646,7 @@
         <v>38000</v>
       </c>
       <c r="K21" s="1">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="L21" s="3">
         <v>3720</v>
@@ -3684,7 +3684,7 @@
         <v>40000</v>
       </c>
       <c r="K22" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L22" s="3">
         <v>3960</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2620" windowWidth="33240" windowHeight="15980" tabRatio="883" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="2400" yWindow="2620" windowWidth="33240" windowHeight="15980" tabRatio="883" firstSheet="3" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
     <sheet name="workshop" sheetId="44" r:id="rId19"/>
     <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
-    <sheet name="hunterhall" sheetId="42" r:id="rId21"/>
+    <sheet name="hunterHall" sheetId="42" r:id="rId21"/>
     <sheet name="stable" sheetId="43" r:id="rId22"/>
   </sheets>
   <definedNames>
@@ -5168,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8170,7 +8170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="520" windowWidth="33240" windowHeight="15980" tabRatio="883" activeTab="15"/>
+    <workbookView xWindow="5760" yWindow="460" windowWidth="33240" windowHeight="15980" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -478,7 +478,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="522">
+  <cellStyleXfs count="526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -493,6 +493,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1021,7 +1025,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="522">
+  <cellStyles count="526">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1285,6 +1289,8 @@
     <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1541,6 +1547,8 @@
     <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1993,7 +2001,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5939,7 +5947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -14466,8 +14474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="460" windowWidth="33240" windowHeight="15980" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="4340" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -13,17 +13,17 @@
     <sheet name="watchTower" sheetId="45" r:id="rId4"/>
     <sheet name="warehouse" sheetId="19" r:id="rId5"/>
     <sheet name="dragonEyrie" sheetId="46" r:id="rId6"/>
-    <sheet name="toolShop" sheetId="36" r:id="rId7"/>
-    <sheet name="materialDepot" sheetId="35" r:id="rId8"/>
+    <sheet name="barracks" sheetId="32" r:id="rId7"/>
+    <sheet name="hospital" sheetId="38" r:id="rId8"/>
     <sheet name="academy" sheetId="37" r:id="rId9"/>
-    <sheet name="barracks" sheetId="32" r:id="rId10"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
     <sheet name="blackSmith" sheetId="34" r:id="rId11"/>
     <sheet name="foundry" sheetId="29" r:id="rId12"/>
     <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
     <sheet name="lumbermill" sheetId="27" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="hospital" sheetId="38" r:id="rId16"/>
-    <sheet name="townHall" sheetId="31" r:id="rId17"/>
+    <sheet name="townHall" sheetId="31" r:id="rId16"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId17"/>
     <sheet name="tradeGuild" sheetId="39" r:id="rId18"/>
     <sheet name="workshop" sheetId="44" r:id="rId19"/>
     <sheet name="trainingGround" sheetId="41" r:id="rId20"/>
@@ -32,21 +32,21 @@
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
@@ -55,21 +55,21 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
@@ -78,21 +78,21 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
@@ -101,21 +101,21 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="19">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
@@ -2597,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2608,454 +2608,823 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>40</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3">
         <v>60</v>
       </c>
-      <c r="C4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
-      </c>
-      <c r="C5" s="3">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1">
+        <v>160</v>
+      </c>
+      <c r="D5" s="1">
+        <v>160</v>
+      </c>
+      <c r="E5" s="1">
+        <v>160</v>
+      </c>
+      <c r="F5" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="3">
+        <v>320</v>
+      </c>
+      <c r="C6" s="1">
+        <v>320</v>
+      </c>
+      <c r="D6" s="1">
+        <v>320</v>
+      </c>
+      <c r="E6" s="1">
+        <v>320</v>
+      </c>
+      <c r="F6" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>120</v>
-      </c>
-      <c r="C7" s="3">
+        <v>640</v>
+      </c>
+      <c r="C7" s="1">
+        <v>640</v>
+      </c>
+      <c r="D7" s="1">
+        <v>640</v>
+      </c>
+      <c r="E7" s="1">
+        <v>640</v>
+      </c>
+      <c r="F7" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>140</v>
-      </c>
-      <c r="C8" s="3">
+        <v>960</v>
+      </c>
+      <c r="C8" s="1">
+        <v>960</v>
+      </c>
+      <c r="D8" s="1">
+        <v>960</v>
+      </c>
+      <c r="E8" s="1">
+        <v>960</v>
+      </c>
+      <c r="F8" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>160</v>
-      </c>
-      <c r="C9" s="3">
+        <v>1280</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1280</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1280</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1280</v>
+      </c>
+      <c r="F9" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>180</v>
-      </c>
-      <c r="C10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F10" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>200</v>
-      </c>
-      <c r="C11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>220</v>
-      </c>
-      <c r="C12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>240</v>
-      </c>
-      <c r="C13" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F13" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>260</v>
-      </c>
-      <c r="C14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>280</v>
-      </c>
-      <c r="C15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4200</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F15" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>300</v>
-      </c>
-      <c r="C16" s="3">
+        <v>4800</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4800</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F16" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>340</v>
-      </c>
-      <c r="C17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5600</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>380</v>
-      </c>
-      <c r="C18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6400</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6400</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>420</v>
-      </c>
-      <c r="C19" s="3">
+        <v>7200</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7200</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7200</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F19" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>460</v>
-      </c>
-      <c r="C20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>500</v>
-      </c>
-      <c r="C21" s="3">
+        <v>9999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9999</v>
+      </c>
+      <c r="F21" s="3">
         <v>3960</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>540</v>
-      </c>
-      <c r="C22" s="3">
+        <v>11998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>11998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>11998</v>
+      </c>
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+    <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>580</v>
-      </c>
-      <c r="C23" s="3">
+        <v>13997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>13997</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13997</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13997</v>
+      </c>
+      <c r="F23" s="3">
         <v>4440</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+    <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>620</v>
-      </c>
-      <c r="C24" s="3">
+        <v>15996</v>
+      </c>
+      <c r="C24" s="1">
+        <v>15996</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15996</v>
+      </c>
+      <c r="E24" s="1">
+        <v>15996</v>
+      </c>
+      <c r="F24" s="3">
         <v>4680</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
+    <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>660</v>
-      </c>
-      <c r="C25" s="3">
+        <v>17995</v>
+      </c>
+      <c r="C25" s="1">
+        <v>17995</v>
+      </c>
+      <c r="D25" s="1">
+        <v>17995</v>
+      </c>
+      <c r="E25" s="1">
+        <v>17995</v>
+      </c>
+      <c r="F25" s="3">
         <v>4920</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
+    <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>700</v>
-      </c>
-      <c r="C26" s="3">
+        <v>19994</v>
+      </c>
+      <c r="C26" s="1">
+        <v>19994</v>
+      </c>
+      <c r="D26" s="1">
+        <v>19994</v>
+      </c>
+      <c r="E26" s="1">
+        <v>19994</v>
+      </c>
+      <c r="F26" s="3">
         <v>5160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
+    <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>740</v>
-      </c>
-      <c r="C27" s="3">
+        <v>21993</v>
+      </c>
+      <c r="C27" s="1">
+        <v>21993</v>
+      </c>
+      <c r="D27" s="1">
+        <v>21993</v>
+      </c>
+      <c r="E27" s="1">
+        <v>21993</v>
+      </c>
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
+    <row r="28" spans="1:6" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>780</v>
-      </c>
-      <c r="C28" s="3">
+        <v>23992</v>
+      </c>
+      <c r="C28" s="1">
+        <v>23992</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23992</v>
+      </c>
+      <c r="E28" s="1">
+        <v>23992</v>
+      </c>
+      <c r="F28" s="3">
         <v>5640</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
+    <row r="29" spans="1:6" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>820</v>
-      </c>
-      <c r="C29" s="3">
+        <v>25991</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25991</v>
+      </c>
+      <c r="D29" s="1">
+        <v>25991</v>
+      </c>
+      <c r="E29" s="1">
+        <v>25991</v>
+      </c>
+      <c r="F29" s="3">
         <v>5880</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
+    <row r="30" spans="1:6" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>860</v>
-      </c>
-      <c r="C30" s="3">
+        <v>27990</v>
+      </c>
+      <c r="C30" s="1">
+        <v>27990</v>
+      </c>
+      <c r="D30" s="1">
+        <v>27990</v>
+      </c>
+      <c r="E30" s="1">
+        <v>27990</v>
+      </c>
+      <c r="F30" s="3">
         <v>6120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1">
+    <row r="31" spans="1:6" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>900</v>
-      </c>
-      <c r="C31" s="3">
+        <v>29989</v>
+      </c>
+      <c r="C31" s="1">
+        <v>29989</v>
+      </c>
+      <c r="D31" s="1">
+        <v>29989</v>
+      </c>
+      <c r="E31" s="1">
+        <v>29989</v>
+      </c>
+      <c r="F31" s="3">
         <v>6360</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
+    <row r="32" spans="1:6" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>940</v>
-      </c>
-      <c r="C32" s="3">
+        <v>31988</v>
+      </c>
+      <c r="C32" s="1">
+        <v>31988</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31988</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31988</v>
+      </c>
+      <c r="F32" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
+    <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>980</v>
-      </c>
-      <c r="C33" s="3">
+        <v>33987</v>
+      </c>
+      <c r="C33" s="1">
+        <v>33987</v>
+      </c>
+      <c r="D33" s="1">
+        <v>33987</v>
+      </c>
+      <c r="E33" s="1">
+        <v>33987</v>
+      </c>
+      <c r="F33" s="3">
         <v>6840</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1">
+    <row r="34" spans="1:6" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1020</v>
-      </c>
-      <c r="C34" s="3">
+        <v>35986</v>
+      </c>
+      <c r="C34" s="1">
+        <v>35986</v>
+      </c>
+      <c r="D34" s="1">
+        <v>35986</v>
+      </c>
+      <c r="E34" s="1">
+        <v>35986</v>
+      </c>
+      <c r="F34" s="3">
         <v>7080</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1">
+    <row r="35" spans="1:6" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1060</v>
-      </c>
-      <c r="C35" s="3">
+        <v>37985</v>
+      </c>
+      <c r="C35" s="1">
+        <v>37985</v>
+      </c>
+      <c r="D35" s="1">
+        <v>37985</v>
+      </c>
+      <c r="E35" s="1">
+        <v>37985</v>
+      </c>
+      <c r="F35" s="3">
         <v>7320</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1">
+    <row r="36" spans="1:6" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C36" s="3">
+        <v>39984</v>
+      </c>
+      <c r="C36" s="1">
+        <v>39984</v>
+      </c>
+      <c r="D36" s="1">
+        <v>39984</v>
+      </c>
+      <c r="E36" s="1">
+        <v>39984</v>
+      </c>
+      <c r="F36" s="3">
         <v>7560</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1">
+    <row r="37" spans="1:6" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1140</v>
-      </c>
-      <c r="C37" s="3">
+        <v>41983</v>
+      </c>
+      <c r="C37" s="1">
+        <v>41983</v>
+      </c>
+      <c r="D37" s="1">
+        <v>41983</v>
+      </c>
+      <c r="E37" s="1">
+        <v>41983</v>
+      </c>
+      <c r="F37" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1">
+    <row r="38" spans="1:6" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>1180</v>
-      </c>
-      <c r="C38" s="3">
+        <v>43982</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43982</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F38" s="3">
         <v>8040</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1">
+    <row r="39" spans="1:6" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1220</v>
-      </c>
-      <c r="C39" s="3">
+        <v>45981</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45981</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45981</v>
+      </c>
+      <c r="F39" s="3">
         <v>8280</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
+    <row r="40" spans="1:6" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>1260</v>
-      </c>
-      <c r="C40" s="3">
+        <v>47980</v>
+      </c>
+      <c r="C40" s="1">
+        <v>47980</v>
+      </c>
+      <c r="D40" s="1">
+        <v>47980</v>
+      </c>
+      <c r="E40" s="1">
+        <v>47980</v>
+      </c>
+      <c r="F40" s="3">
         <v>8520</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1">
+    <row r="41" spans="1:6" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C41" s="3">
+        <v>49979</v>
+      </c>
+      <c r="C41" s="1">
+        <v>49979</v>
+      </c>
+      <c r="D41" s="1">
+        <v>49979</v>
+      </c>
+      <c r="E41" s="1">
+        <v>49979</v>
+      </c>
+      <c r="F41" s="3">
         <v>8760</v>
       </c>
     </row>
@@ -5947,8 +6316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5961,7 +6330,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -5972,10 +6341,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3600</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -5983,10 +6352,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>6000</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>360</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -5994,10 +6363,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>12000</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>600</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -6005,10 +6374,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>18000</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>840</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -6016,10 +6385,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>24000</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>1080</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -6027,10 +6396,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>30000</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>1320</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -6038,10 +6407,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>36000</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>1560</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -6049,10 +6418,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>42000</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>1800</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -6060,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>48000</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
-        <v>2040</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -6071,10 +6440,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>2280</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -6082,10 +6451,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>60000</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>2520</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -6093,10 +6462,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>66000</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>2760</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -6104,10 +6473,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>72000</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>3000</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -6115,10 +6484,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>78000</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
-        <v>3240</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -6126,10 +6495,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>84000</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3">
-        <v>3480</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -6137,10 +6506,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>90000</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3">
-        <v>3720</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -6148,10 +6517,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>96000</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3">
-        <v>3960</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -6159,10 +6528,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>102000</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
-        <v>4200</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -6170,10 +6539,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>108000</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
-        <v>4440</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -6181,10 +6550,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>114000</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
-        <v>4680</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -6192,10 +6561,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>120000</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>4920</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -6203,10 +6572,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>126000</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3">
-        <v>5160</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -6214,10 +6583,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>132000</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3">
-        <v>5400</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -6225,10 +6594,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>138000</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
-        <v>5640</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -6236,10 +6605,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>144000</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3">
-        <v>5880</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -6247,10 +6616,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>150000</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3">
-        <v>6120</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -6258,10 +6627,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>156000</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3">
-        <v>6360</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -6269,10 +6638,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>162000</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3">
-        <v>6600</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -6280,10 +6649,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>168000</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3">
-        <v>6840</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -6291,10 +6660,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>174000</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3">
-        <v>7080</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -6302,10 +6671,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>180000</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3">
-        <v>7320</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -6313,10 +6682,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>186000</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3">
-        <v>7560</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -6324,10 +6693,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>192000</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
-        <v>7800</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -6335,10 +6704,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>198000</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>8040</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -6346,10 +6715,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>204000</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>8280</v>
+        <v>8760</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -6357,10 +6726,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>210000</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
-        <v>8520</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -6368,10 +6737,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>216000</v>
+        <v>33</v>
       </c>
       <c r="C38" s="3">
-        <v>8760</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -6379,10 +6748,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>222000</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
-        <v>9000</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6390,10 +6759,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>228000</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3">
-        <v>9240</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -6401,10 +6770,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>234000</v>
+        <v>36</v>
       </c>
       <c r="C41" s="3">
-        <v>9480</v>
+        <v>9960</v>
       </c>
     </row>
   </sheetData>
@@ -6421,10 +6790,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6432,455 +6801,1562 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>40</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>60</v>
+      </c>
+      <c r="L5" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>70</v>
+      </c>
+      <c r="L6" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>12000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>80</v>
+      </c>
+      <c r="L7" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>70</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>14000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>14000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>90</v>
+      </c>
+      <c r="L8" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1">
+        <v>16000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>16000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>16000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>90</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>18000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>18000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>110</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>120</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>110</v>
+      </c>
+      <c r="H12" s="1">
+        <v>22000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>22000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>22000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>130</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>120</v>
+      </c>
+      <c r="H13" s="1">
+        <v>24000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>24000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>24000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>140</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>130</v>
+      </c>
+      <c r="H14" s="1">
+        <v>26000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>26000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>26000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>150</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>140</v>
+      </c>
+      <c r="H15" s="1">
+        <v>28000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>28000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>28000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>160</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>150</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>170</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>160</v>
+      </c>
+      <c r="H17" s="1">
+        <v>32000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>32000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>32000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>180</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>170</v>
+      </c>
+      <c r="H18" s="1">
+        <v>34000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>34000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>34000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>190</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>180</v>
+      </c>
+      <c r="H19" s="1">
+        <v>36000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>36000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>36000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>200</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>19000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>190</v>
+      </c>
+      <c r="H20" s="1">
+        <v>38000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>38000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>38000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>210</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>200</v>
+      </c>
+      <c r="H21" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>220</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>21000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>210</v>
+      </c>
+      <c r="H22" s="1">
+        <v>42000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>42000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>42000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>230</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>22000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>220</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>44000</v>
+      </c>
+      <c r="K23" s="1">
+        <v>240</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>23000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>23000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>230</v>
+      </c>
+      <c r="H24" s="1">
+        <v>46000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>46000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>46000</v>
+      </c>
+      <c r="K24" s="1">
+        <v>250</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>24000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>24000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>240</v>
+      </c>
+      <c r="H25" s="1">
+        <v>48000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>48000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>48000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>260</v>
+      </c>
+      <c r="L25" s="3">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21</v>
-      </c>
-      <c r="C26" s="3">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>250</v>
+      </c>
+      <c r="H26" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>50000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>50000</v>
+      </c>
+      <c r="K26" s="1">
+        <v>270</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>26000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>26000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>26000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>260</v>
+      </c>
+      <c r="H27" s="1">
+        <v>52000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>52000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>52000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>280</v>
+      </c>
+      <c r="L27" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6840</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>27000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>27000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>27000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>270</v>
+      </c>
+      <c r="H28" s="1">
+        <v>54000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>54000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>54000</v>
+      </c>
+      <c r="K28" s="1">
+        <v>290</v>
+      </c>
+      <c r="L28" s="3">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3">
-        <v>7080</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>28000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>28000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>28000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>280</v>
+      </c>
+      <c r="H29" s="1">
+        <v>56000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>56000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>56000</v>
+      </c>
+      <c r="K29" s="1">
+        <v>300</v>
+      </c>
+      <c r="L29" s="3">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3">
-        <v>7320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>29000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>29000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>29000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>290</v>
+      </c>
+      <c r="H30" s="1">
+        <v>58000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>58000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>58000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>310</v>
+      </c>
+      <c r="L30" s="3">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>26</v>
-      </c>
-      <c r="C31" s="3">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>300</v>
+      </c>
+      <c r="H31" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>60000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>60000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>320</v>
+      </c>
+      <c r="L31" s="3">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>31000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>310</v>
+      </c>
+      <c r="H32" s="1">
+        <v>62000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>62000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>62000</v>
+      </c>
+      <c r="K32" s="1">
+        <v>330</v>
+      </c>
+      <c r="L32" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>28</v>
-      </c>
-      <c r="C33" s="3">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>32000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>32000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>32000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>320</v>
+      </c>
+      <c r="H33" s="1">
+        <v>64000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>64000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>64000</v>
+      </c>
+      <c r="K33" s="1">
+        <v>340</v>
+      </c>
+      <c r="L33" s="3">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>33000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>33000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>33000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>330</v>
+      </c>
+      <c r="H34" s="1">
+        <v>66000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>66000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>66000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>350</v>
+      </c>
+      <c r="L34" s="3">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>30</v>
-      </c>
-      <c r="C35" s="3">
-        <v>8520</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>34000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>34000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>34000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>340</v>
+      </c>
+      <c r="H35" s="1">
+        <v>68000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>68000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>68000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>360</v>
+      </c>
+      <c r="L35" s="3">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>31</v>
-      </c>
-      <c r="C36" s="3">
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>35000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>35000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>350</v>
+      </c>
+      <c r="H36" s="1">
+        <v>70000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>70000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>70000</v>
+      </c>
+      <c r="K36" s="1">
+        <v>370</v>
+      </c>
+      <c r="L36" s="3">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32</v>
-      </c>
-      <c r="C37" s="3">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>36000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>36000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>360</v>
+      </c>
+      <c r="H37" s="1">
+        <v>72000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>72000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>72000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>380</v>
+      </c>
+      <c r="L37" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>33</v>
-      </c>
-      <c r="C38" s="3">
-        <v>9240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>37000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>37000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>37000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>370</v>
+      </c>
+      <c r="H38" s="1">
+        <v>74000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>74000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>74000</v>
+      </c>
+      <c r="K38" s="1">
+        <v>390</v>
+      </c>
+      <c r="L38" s="3">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>34</v>
-      </c>
-      <c r="C39" s="3">
-        <v>9480</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>38000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>38000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>38000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>380</v>
+      </c>
+      <c r="H39" s="1">
+        <v>76000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>76000</v>
+      </c>
+      <c r="J39" s="1">
+        <v>76000</v>
+      </c>
+      <c r="K39" s="1">
+        <v>400</v>
+      </c>
+      <c r="L39" s="3">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>35</v>
-      </c>
-      <c r="C40" s="3">
-        <v>9720</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>39000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>39000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>39000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>390</v>
+      </c>
+      <c r="H40" s="1">
+        <v>78000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>78000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>78000</v>
+      </c>
+      <c r="K40" s="1">
+        <v>410</v>
+      </c>
+      <c r="L40" s="3">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>36</v>
-      </c>
-      <c r="C41" s="3">
-        <v>9960</v>
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>40000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>400</v>
+      </c>
+      <c r="H41" s="1">
+        <v>80000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J41" s="1">
+        <v>80000</v>
+      </c>
+      <c r="K41" s="1">
+        <v>420</v>
+      </c>
+      <c r="L41" s="3">
+        <v>8760</v>
       </c>
     </row>
   </sheetData>
@@ -12889,10 +14365,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L41"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12900,1561 +14376,454 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>30</v>
-      </c>
-      <c r="L2" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="1">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3">
         <v>20</v>
       </c>
-      <c r="H3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>40</v>
-      </c>
-      <c r="L3" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>50</v>
-      </c>
-      <c r="L4" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="J5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="K5" s="1">
-        <v>60</v>
-      </c>
-      <c r="L5" s="3">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>70</v>
-      </c>
-      <c r="L6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G7" s="1">
-        <v>60</v>
-      </c>
-      <c r="H7" s="1">
-        <v>12000</v>
-      </c>
-      <c r="I7" s="1">
-        <v>12000</v>
-      </c>
-      <c r="J7" s="1">
-        <v>12000</v>
-      </c>
-      <c r="K7" s="1">
-        <v>80</v>
-      </c>
-      <c r="L7" s="3">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>70</v>
-      </c>
-      <c r="H8" s="1">
-        <v>14000</v>
-      </c>
-      <c r="I8" s="1">
-        <v>14000</v>
-      </c>
-      <c r="J8" s="1">
-        <v>14000</v>
-      </c>
-      <c r="K8" s="1">
-        <v>90</v>
-      </c>
-      <c r="L8" s="3">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3">
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>80</v>
-      </c>
-      <c r="H9" s="1">
-        <v>16000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>16000</v>
-      </c>
-      <c r="J9" s="1">
-        <v>16000</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
+        <v>160</v>
+      </c>
+      <c r="C9" s="3">
         <v>1080</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>90</v>
-      </c>
-      <c r="H10" s="1">
-        <v>18000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>18000</v>
-      </c>
-      <c r="J10" s="1">
-        <v>18000</v>
-      </c>
-      <c r="K10" s="1">
-        <v>110</v>
-      </c>
-      <c r="L10" s="3">
+        <v>180</v>
+      </c>
+      <c r="C10" s="3">
         <v>1320</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="I11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="J11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="K11" s="1">
-        <v>120</v>
-      </c>
-      <c r="L11" s="3">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3">
         <v>1560</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>11000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>11000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>110</v>
-      </c>
-      <c r="H12" s="1">
-        <v>22000</v>
-      </c>
-      <c r="I12" s="1">
-        <v>22000</v>
-      </c>
-      <c r="J12" s="1">
-        <v>22000</v>
-      </c>
-      <c r="K12" s="1">
-        <v>130</v>
-      </c>
-      <c r="L12" s="3">
+        <v>220</v>
+      </c>
+      <c r="C12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>12000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>12000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>12000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>120</v>
-      </c>
-      <c r="H13" s="1">
-        <v>24000</v>
-      </c>
-      <c r="I13" s="1">
-        <v>24000</v>
-      </c>
-      <c r="J13" s="1">
-        <v>24000</v>
-      </c>
-      <c r="K13" s="1">
-        <v>140</v>
-      </c>
-      <c r="L13" s="3">
+        <v>240</v>
+      </c>
+      <c r="C13" s="3">
         <v>2040</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>13000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>13000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>130</v>
-      </c>
-      <c r="H14" s="1">
-        <v>26000</v>
-      </c>
-      <c r="I14" s="1">
-        <v>26000</v>
-      </c>
-      <c r="J14" s="1">
-        <v>26000</v>
-      </c>
-      <c r="K14" s="1">
-        <v>150</v>
-      </c>
-      <c r="L14" s="3">
+        <v>260</v>
+      </c>
+      <c r="C14" s="3">
         <v>2280</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>14000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>14000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>14000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>140</v>
-      </c>
-      <c r="H15" s="1">
-        <v>28000</v>
-      </c>
-      <c r="I15" s="1">
-        <v>28000</v>
-      </c>
-      <c r="J15" s="1">
-        <v>28000</v>
-      </c>
-      <c r="K15" s="1">
-        <v>160</v>
-      </c>
-      <c r="L15" s="3">
+        <v>280</v>
+      </c>
+      <c r="C15" s="3">
         <v>2520</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>15000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>15000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>150</v>
-      </c>
-      <c r="H16" s="1">
-        <v>30000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>30000</v>
-      </c>
-      <c r="J16" s="1">
-        <v>30000</v>
-      </c>
-      <c r="K16" s="1">
-        <v>170</v>
-      </c>
-      <c r="L16" s="3">
+        <v>300</v>
+      </c>
+      <c r="C16" s="3">
         <v>2760</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>16000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>16000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>16000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>160</v>
-      </c>
-      <c r="H17" s="1">
-        <v>32000</v>
-      </c>
-      <c r="I17" s="1">
-        <v>32000</v>
-      </c>
-      <c r="J17" s="1">
-        <v>32000</v>
-      </c>
-      <c r="K17" s="1">
-        <v>180</v>
-      </c>
-      <c r="L17" s="3">
+        <v>340</v>
+      </c>
+      <c r="C17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>17000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>17000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>17000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>170</v>
-      </c>
-      <c r="H18" s="1">
-        <v>34000</v>
-      </c>
-      <c r="I18" s="1">
-        <v>34000</v>
-      </c>
-      <c r="J18" s="1">
-        <v>34000</v>
-      </c>
-      <c r="K18" s="1">
-        <v>190</v>
-      </c>
-      <c r="L18" s="3">
+        <v>380</v>
+      </c>
+      <c r="C18" s="3">
         <v>3240</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1">
-        <v>18000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>18000</v>
-      </c>
-      <c r="F19" s="1">
-        <v>18000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>180</v>
-      </c>
-      <c r="H19" s="1">
-        <v>36000</v>
-      </c>
-      <c r="I19" s="1">
-        <v>36000</v>
-      </c>
-      <c r="J19" s="1">
-        <v>36000</v>
-      </c>
-      <c r="K19" s="1">
-        <v>200</v>
-      </c>
-      <c r="L19" s="3">
+        <v>420</v>
+      </c>
+      <c r="C19" s="3">
         <v>3480</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>19000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>19000</v>
-      </c>
-      <c r="F20" s="1">
-        <v>19000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>190</v>
-      </c>
-      <c r="H20" s="1">
-        <v>38000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>38000</v>
-      </c>
-      <c r="J20" s="1">
-        <v>38000</v>
-      </c>
-      <c r="K20" s="1">
-        <v>210</v>
-      </c>
-      <c r="L20" s="3">
+        <v>460</v>
+      </c>
+      <c r="C20" s="3">
         <v>3720</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F21" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>200</v>
-      </c>
-      <c r="H21" s="1">
-        <v>40000</v>
-      </c>
-      <c r="I21" s="1">
-        <v>40000</v>
-      </c>
-      <c r="J21" s="1">
-        <v>40000</v>
-      </c>
-      <c r="K21" s="1">
-        <v>220</v>
-      </c>
-      <c r="L21" s="3">
+        <v>500</v>
+      </c>
+      <c r="C21" s="3">
         <v>3960</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>21000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>21000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>21000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>210</v>
-      </c>
-      <c r="H22" s="1">
-        <v>42000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>42000</v>
-      </c>
-      <c r="J22" s="1">
-        <v>42000</v>
-      </c>
-      <c r="K22" s="1">
-        <v>230</v>
-      </c>
-      <c r="L22" s="3">
+        <v>540</v>
+      </c>
+      <c r="C22" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>22000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>22000</v>
-      </c>
-      <c r="F23" s="1">
-        <v>22000</v>
-      </c>
-      <c r="G23" s="1">
-        <v>220</v>
-      </c>
-      <c r="H23" s="1">
-        <v>44000</v>
-      </c>
-      <c r="I23" s="1">
-        <v>44000</v>
-      </c>
-      <c r="J23" s="1">
-        <v>44000</v>
-      </c>
-      <c r="K23" s="1">
-        <v>240</v>
-      </c>
-      <c r="L23" s="3">
+        <v>580</v>
+      </c>
+      <c r="C23" s="3">
         <v>4440</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>23000</v>
-      </c>
-      <c r="E24" s="1">
-        <v>23000</v>
-      </c>
-      <c r="F24" s="1">
-        <v>23000</v>
-      </c>
-      <c r="G24" s="1">
-        <v>230</v>
-      </c>
-      <c r="H24" s="1">
-        <v>46000</v>
-      </c>
-      <c r="I24" s="1">
-        <v>46000</v>
-      </c>
-      <c r="J24" s="1">
-        <v>46000</v>
-      </c>
-      <c r="K24" s="1">
-        <v>250</v>
-      </c>
-      <c r="L24" s="3">
+        <v>620</v>
+      </c>
+      <c r="C24" s="3">
         <v>4680</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>24000</v>
-      </c>
-      <c r="E25" s="1">
-        <v>24000</v>
-      </c>
-      <c r="F25" s="1">
-        <v>24000</v>
-      </c>
-      <c r="G25" s="1">
-        <v>240</v>
-      </c>
-      <c r="H25" s="1">
-        <v>48000</v>
-      </c>
-      <c r="I25" s="1">
-        <v>48000</v>
-      </c>
-      <c r="J25" s="1">
-        <v>48000</v>
-      </c>
-      <c r="K25" s="1">
-        <v>260</v>
-      </c>
-      <c r="L25" s="3">
+        <v>660</v>
+      </c>
+      <c r="C25" s="3">
         <v>4920</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>25000</v>
-      </c>
-      <c r="E26" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F26" s="1">
-        <v>25000</v>
-      </c>
-      <c r="G26" s="1">
-        <v>250</v>
-      </c>
-      <c r="H26" s="1">
-        <v>50000</v>
-      </c>
-      <c r="I26" s="1">
-        <v>50000</v>
-      </c>
-      <c r="J26" s="1">
-        <v>50000</v>
-      </c>
-      <c r="K26" s="1">
-        <v>270</v>
-      </c>
-      <c r="L26" s="3">
+        <v>700</v>
+      </c>
+      <c r="C26" s="3">
         <v>5160</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="20" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>26000</v>
-      </c>
-      <c r="E27" s="1">
-        <v>26000</v>
-      </c>
-      <c r="F27" s="1">
-        <v>26000</v>
-      </c>
-      <c r="G27" s="1">
-        <v>260</v>
-      </c>
-      <c r="H27" s="1">
-        <v>52000</v>
-      </c>
-      <c r="I27" s="1">
-        <v>52000</v>
-      </c>
-      <c r="J27" s="1">
-        <v>52000</v>
-      </c>
-      <c r="K27" s="1">
-        <v>280</v>
-      </c>
-      <c r="L27" s="3">
+        <v>740</v>
+      </c>
+      <c r="C27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20" customHeight="1">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>27000</v>
-      </c>
-      <c r="E28" s="1">
-        <v>27000</v>
-      </c>
-      <c r="F28" s="1">
-        <v>27000</v>
-      </c>
-      <c r="G28" s="1">
-        <v>270</v>
-      </c>
-      <c r="H28" s="1">
-        <v>54000</v>
-      </c>
-      <c r="I28" s="1">
-        <v>54000</v>
-      </c>
-      <c r="J28" s="1">
-        <v>54000</v>
-      </c>
-      <c r="K28" s="1">
-        <v>290</v>
-      </c>
-      <c r="L28" s="3">
+        <v>780</v>
+      </c>
+      <c r="C28" s="3">
         <v>5640</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="20" customHeight="1">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>28000</v>
-      </c>
-      <c r="E29" s="1">
-        <v>28000</v>
-      </c>
-      <c r="F29" s="1">
-        <v>28000</v>
-      </c>
-      <c r="G29" s="1">
-        <v>280</v>
-      </c>
-      <c r="H29" s="1">
-        <v>56000</v>
-      </c>
-      <c r="I29" s="1">
-        <v>56000</v>
-      </c>
-      <c r="J29" s="1">
-        <v>56000</v>
-      </c>
-      <c r="K29" s="1">
-        <v>300</v>
-      </c>
-      <c r="L29" s="3">
+        <v>820</v>
+      </c>
+      <c r="C29" s="3">
         <v>5880</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>29000</v>
-      </c>
-      <c r="E30" s="1">
-        <v>29000</v>
-      </c>
-      <c r="F30" s="1">
-        <v>29000</v>
-      </c>
-      <c r="G30" s="1">
-        <v>290</v>
-      </c>
-      <c r="H30" s="1">
-        <v>58000</v>
-      </c>
-      <c r="I30" s="1">
-        <v>58000</v>
-      </c>
-      <c r="J30" s="1">
-        <v>58000</v>
-      </c>
-      <c r="K30" s="1">
-        <v>310</v>
-      </c>
-      <c r="L30" s="3">
+        <v>860</v>
+      </c>
+      <c r="C30" s="3">
         <v>6120</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="20" customHeight="1">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E31" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F31" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G31" s="1">
-        <v>300</v>
-      </c>
-      <c r="H31" s="1">
-        <v>60000</v>
-      </c>
-      <c r="I31" s="1">
-        <v>60000</v>
-      </c>
-      <c r="J31" s="1">
-        <v>60000</v>
-      </c>
-      <c r="K31" s="1">
-        <v>320</v>
-      </c>
-      <c r="L31" s="3">
+        <v>900</v>
+      </c>
+      <c r="C31" s="3">
         <v>6360</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1">
-        <v>31000</v>
-      </c>
-      <c r="E32" s="1">
-        <v>31000</v>
-      </c>
-      <c r="F32" s="1">
-        <v>31000</v>
-      </c>
-      <c r="G32" s="1">
-        <v>310</v>
-      </c>
-      <c r="H32" s="1">
-        <v>62000</v>
-      </c>
-      <c r="I32" s="1">
-        <v>62000</v>
-      </c>
-      <c r="J32" s="1">
-        <v>62000</v>
-      </c>
-      <c r="K32" s="1">
-        <v>330</v>
-      </c>
-      <c r="L32" s="3">
+        <v>940</v>
+      </c>
+      <c r="C32" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="20" customHeight="1">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>32000</v>
-      </c>
-      <c r="E33" s="1">
-        <v>32000</v>
-      </c>
-      <c r="F33" s="1">
-        <v>32000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>320</v>
-      </c>
-      <c r="H33" s="1">
-        <v>64000</v>
-      </c>
-      <c r="I33" s="1">
-        <v>64000</v>
-      </c>
-      <c r="J33" s="1">
-        <v>64000</v>
-      </c>
-      <c r="K33" s="1">
-        <v>340</v>
-      </c>
-      <c r="L33" s="3">
+        <v>980</v>
+      </c>
+      <c r="C33" s="3">
         <v>6840</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="20" customHeight="1">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>33000</v>
-      </c>
-      <c r="E34" s="1">
-        <v>33000</v>
-      </c>
-      <c r="F34" s="1">
-        <v>33000</v>
-      </c>
-      <c r="G34" s="1">
-        <v>330</v>
-      </c>
-      <c r="H34" s="1">
-        <v>66000</v>
-      </c>
-      <c r="I34" s="1">
-        <v>66000</v>
-      </c>
-      <c r="J34" s="1">
-        <v>66000</v>
-      </c>
-      <c r="K34" s="1">
-        <v>350</v>
-      </c>
-      <c r="L34" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C34" s="3">
         <v>7080</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="20" customHeight="1">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1">
-        <v>34000</v>
-      </c>
-      <c r="E35" s="1">
-        <v>34000</v>
-      </c>
-      <c r="F35" s="1">
-        <v>34000</v>
-      </c>
-      <c r="G35" s="1">
-        <v>340</v>
-      </c>
-      <c r="H35" s="1">
-        <v>68000</v>
-      </c>
-      <c r="I35" s="1">
-        <v>68000</v>
-      </c>
-      <c r="J35" s="1">
-        <v>68000</v>
-      </c>
-      <c r="K35" s="1">
-        <v>360</v>
-      </c>
-      <c r="L35" s="3">
+        <v>1060</v>
+      </c>
+      <c r="C35" s="3">
         <v>7320</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="20" customHeight="1">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E36" s="1">
-        <v>35000</v>
-      </c>
-      <c r="F36" s="1">
-        <v>35000</v>
-      </c>
-      <c r="G36" s="1">
-        <v>350</v>
-      </c>
-      <c r="H36" s="1">
-        <v>70000</v>
-      </c>
-      <c r="I36" s="1">
-        <v>70000</v>
-      </c>
-      <c r="J36" s="1">
-        <v>70000</v>
-      </c>
-      <c r="K36" s="1">
-        <v>370</v>
-      </c>
-      <c r="L36" s="3">
+        <v>1100</v>
+      </c>
+      <c r="C36" s="3">
         <v>7560</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="20" customHeight="1">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
-        <v>36000</v>
-      </c>
-      <c r="E37" s="1">
-        <v>36000</v>
-      </c>
-      <c r="F37" s="1">
-        <v>36000</v>
-      </c>
-      <c r="G37" s="1">
-        <v>360</v>
-      </c>
-      <c r="H37" s="1">
-        <v>72000</v>
-      </c>
-      <c r="I37" s="1">
-        <v>72000</v>
-      </c>
-      <c r="J37" s="1">
-        <v>72000</v>
-      </c>
-      <c r="K37" s="1">
-        <v>380</v>
-      </c>
-      <c r="L37" s="3">
+        <v>1140</v>
+      </c>
+      <c r="C37" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20" customHeight="1">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1">
-        <v>37000</v>
-      </c>
-      <c r="E38" s="1">
-        <v>37000</v>
-      </c>
-      <c r="F38" s="1">
-        <v>37000</v>
-      </c>
-      <c r="G38" s="1">
-        <v>370</v>
-      </c>
-      <c r="H38" s="1">
-        <v>74000</v>
-      </c>
-      <c r="I38" s="1">
-        <v>74000</v>
-      </c>
-      <c r="J38" s="1">
-        <v>74000</v>
-      </c>
-      <c r="K38" s="1">
-        <v>390</v>
-      </c>
-      <c r="L38" s="3">
+        <v>1180</v>
+      </c>
+      <c r="C38" s="3">
         <v>8040</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="20" customHeight="1">
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>38000</v>
-      </c>
-      <c r="E39" s="1">
-        <v>38000</v>
-      </c>
-      <c r="F39" s="1">
-        <v>38000</v>
-      </c>
-      <c r="G39" s="1">
-        <v>380</v>
-      </c>
-      <c r="H39" s="1">
-        <v>76000</v>
-      </c>
-      <c r="I39" s="1">
-        <v>76000</v>
-      </c>
-      <c r="J39" s="1">
-        <v>76000</v>
-      </c>
-      <c r="K39" s="1">
-        <v>400</v>
-      </c>
-      <c r="L39" s="3">
+        <v>1220</v>
+      </c>
+      <c r="C39" s="3">
         <v>8280</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="20" customHeight="1">
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>39</v>
-      </c>
-      <c r="C40" s="1">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1">
-        <v>39000</v>
-      </c>
-      <c r="E40" s="1">
-        <v>39000</v>
-      </c>
-      <c r="F40" s="1">
-        <v>39000</v>
-      </c>
-      <c r="G40" s="1">
-        <v>390</v>
-      </c>
-      <c r="H40" s="1">
-        <v>78000</v>
-      </c>
-      <c r="I40" s="1">
-        <v>78000</v>
-      </c>
-      <c r="J40" s="1">
-        <v>78000</v>
-      </c>
-      <c r="K40" s="1">
-        <v>410</v>
-      </c>
-      <c r="L40" s="3">
+        <v>1260</v>
+      </c>
+      <c r="C40" s="3">
         <v>8520</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="20" customHeight="1">
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E41" s="1">
-        <v>40000</v>
-      </c>
-      <c r="F41" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G41" s="1">
-        <v>400</v>
-      </c>
-      <c r="H41" s="1">
-        <v>80000</v>
-      </c>
-      <c r="I41" s="1">
-        <v>80000</v>
-      </c>
-      <c r="J41" s="1">
-        <v>80000</v>
-      </c>
-      <c r="K41" s="1">
-        <v>420</v>
-      </c>
-      <c r="L41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C41" s="3">
         <v>8760</v>
       </c>
     </row>
@@ -14472,10 +14841,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14483,824 +14852,455 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+        <v>3600</v>
+      </c>
+      <c r="C2" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+        <v>6000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1">
-        <v>80</v>
-      </c>
-      <c r="F4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+        <v>12000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>160</v>
-      </c>
-      <c r="C5" s="1">
-        <v>160</v>
-      </c>
-      <c r="D5" s="1">
-        <v>160</v>
-      </c>
-      <c r="E5" s="1">
-        <v>160</v>
-      </c>
-      <c r="F5" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+        <v>18000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>320</v>
-      </c>
-      <c r="C6" s="1">
-        <v>320</v>
-      </c>
-      <c r="D6" s="1">
-        <v>320</v>
-      </c>
-      <c r="E6" s="1">
-        <v>320</v>
-      </c>
-      <c r="F6" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+        <v>24000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>640</v>
-      </c>
-      <c r="C7" s="1">
-        <v>640</v>
-      </c>
-      <c r="D7" s="1">
-        <v>640</v>
-      </c>
-      <c r="E7" s="1">
-        <v>640</v>
-      </c>
-      <c r="F7" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+        <v>30000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>960</v>
-      </c>
-      <c r="C8" s="1">
-        <v>960</v>
-      </c>
-      <c r="D8" s="1">
-        <v>960</v>
-      </c>
-      <c r="E8" s="1">
-        <v>960</v>
-      </c>
-      <c r="F8" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+        <v>36000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1280</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1280</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1280</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1280</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+        <v>42000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1600</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1600</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+        <v>48000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+        <v>54000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2400</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2400</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+        <v>66000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>3600</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3600</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+        <v>72000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>4200</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4200</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4200</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+        <v>78000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>4800</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4800</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4800</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+        <v>84000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5600</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5600</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5600</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+        <v>90000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>6400</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6400</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6400</v>
-      </c>
-      <c r="E18" s="1">
-        <v>6400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+        <v>96000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>7200</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7200</v>
-      </c>
-      <c r="D19" s="1">
-        <v>7200</v>
-      </c>
-      <c r="E19" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+        <v>102000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+        <v>108000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>9999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>9999</v>
-      </c>
-      <c r="D21" s="1">
-        <v>9999</v>
-      </c>
-      <c r="E21" s="1">
-        <v>9999</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+        <v>114000</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>11998</v>
-      </c>
-      <c r="C22" s="1">
-        <v>11998</v>
-      </c>
-      <c r="D22" s="1">
-        <v>11998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>11998</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+        <v>120000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>13997</v>
-      </c>
-      <c r="C23" s="1">
-        <v>13997</v>
-      </c>
-      <c r="D23" s="1">
-        <v>13997</v>
-      </c>
-      <c r="E23" s="1">
-        <v>13997</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+        <v>126000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>15996</v>
-      </c>
-      <c r="C24" s="1">
-        <v>15996</v>
-      </c>
-      <c r="D24" s="1">
-        <v>15996</v>
-      </c>
-      <c r="E24" s="1">
-        <v>15996</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
+        <v>132000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>17995</v>
-      </c>
-      <c r="C25" s="1">
-        <v>17995</v>
-      </c>
-      <c r="D25" s="1">
-        <v>17995</v>
-      </c>
-      <c r="E25" s="1">
-        <v>17995</v>
-      </c>
-      <c r="F25" s="3">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+        <v>138000</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>19994</v>
-      </c>
-      <c r="C26" s="1">
-        <v>19994</v>
-      </c>
-      <c r="D26" s="1">
-        <v>19994</v>
-      </c>
-      <c r="E26" s="1">
-        <v>19994</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
+        <v>144000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>21993</v>
-      </c>
-      <c r="C27" s="1">
-        <v>21993</v>
-      </c>
-      <c r="D27" s="1">
-        <v>21993</v>
-      </c>
-      <c r="E27" s="1">
-        <v>21993</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
+        <v>150000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>23992</v>
-      </c>
-      <c r="C28" s="1">
-        <v>23992</v>
-      </c>
-      <c r="D28" s="1">
-        <v>23992</v>
-      </c>
-      <c r="E28" s="1">
-        <v>23992</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
+        <v>156000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>25991</v>
-      </c>
-      <c r="C29" s="1">
-        <v>25991</v>
-      </c>
-      <c r="D29" s="1">
-        <v>25991</v>
-      </c>
-      <c r="E29" s="1">
-        <v>25991</v>
-      </c>
-      <c r="F29" s="3">
-        <v>5880</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
+        <v>162000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>27990</v>
-      </c>
-      <c r="C30" s="1">
-        <v>27990</v>
-      </c>
-      <c r="D30" s="1">
-        <v>27990</v>
-      </c>
-      <c r="E30" s="1">
-        <v>27990</v>
-      </c>
-      <c r="F30" s="3">
-        <v>6120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
+        <v>168000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>29989</v>
-      </c>
-      <c r="C31" s="1">
-        <v>29989</v>
-      </c>
-      <c r="D31" s="1">
-        <v>29989</v>
-      </c>
-      <c r="E31" s="1">
-        <v>29989</v>
-      </c>
-      <c r="F31" s="3">
-        <v>6360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
+        <v>174000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>31988</v>
-      </c>
-      <c r="C32" s="1">
-        <v>31988</v>
-      </c>
-      <c r="D32" s="1">
-        <v>31988</v>
-      </c>
-      <c r="E32" s="1">
-        <v>31988</v>
-      </c>
-      <c r="F32" s="3">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+        <v>180000</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>33987</v>
-      </c>
-      <c r="C33" s="1">
-        <v>33987</v>
-      </c>
-      <c r="D33" s="1">
-        <v>33987</v>
-      </c>
-      <c r="E33" s="1">
-        <v>33987</v>
-      </c>
-      <c r="F33" s="3">
-        <v>6840</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+        <v>186000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>35986</v>
-      </c>
-      <c r="C34" s="1">
-        <v>35986</v>
-      </c>
-      <c r="D34" s="1">
-        <v>35986</v>
-      </c>
-      <c r="E34" s="1">
-        <v>35986</v>
-      </c>
-      <c r="F34" s="3">
-        <v>7080</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+        <v>192000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>37985</v>
-      </c>
-      <c r="C35" s="1">
-        <v>37985</v>
-      </c>
-      <c r="D35" s="1">
-        <v>37985</v>
-      </c>
-      <c r="E35" s="1">
-        <v>37985</v>
-      </c>
-      <c r="F35" s="3">
-        <v>7320</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+        <v>198000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>39984</v>
-      </c>
-      <c r="C36" s="1">
-        <v>39984</v>
-      </c>
-      <c r="D36" s="1">
-        <v>39984</v>
-      </c>
-      <c r="E36" s="1">
-        <v>39984</v>
-      </c>
-      <c r="F36" s="3">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
+        <v>204000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>41983</v>
-      </c>
-      <c r="C37" s="1">
-        <v>41983</v>
-      </c>
-      <c r="D37" s="1">
-        <v>41983</v>
-      </c>
-      <c r="E37" s="1">
-        <v>41983</v>
-      </c>
-      <c r="F37" s="3">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+        <v>210000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>43982</v>
-      </c>
-      <c r="C38" s="1">
-        <v>43982</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43982</v>
-      </c>
-      <c r="E38" s="1">
-        <v>43982</v>
-      </c>
-      <c r="F38" s="3">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
+        <v>216000</v>
+      </c>
+      <c r="C38" s="3">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>45981</v>
-      </c>
-      <c r="C39" s="1">
-        <v>45981</v>
-      </c>
-      <c r="D39" s="1">
-        <v>45981</v>
-      </c>
-      <c r="E39" s="1">
-        <v>45981</v>
-      </c>
-      <c r="F39" s="3">
-        <v>8280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+        <v>222000</v>
+      </c>
+      <c r="C39" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>47980</v>
-      </c>
-      <c r="C40" s="1">
-        <v>47980</v>
-      </c>
-      <c r="D40" s="1">
-        <v>47980</v>
-      </c>
-      <c r="E40" s="1">
-        <v>47980</v>
-      </c>
-      <c r="F40" s="3">
-        <v>8520</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+        <v>228000</v>
+      </c>
+      <c r="C40" s="3">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>49979</v>
-      </c>
-      <c r="C41" s="1">
-        <v>49979</v>
-      </c>
-      <c r="D41" s="1">
-        <v>49979</v>
-      </c>
-      <c r="E41" s="1">
-        <v>49979</v>
-      </c>
-      <c r="F41" s="3">
-        <v>8760</v>
+        <v>234000</v>
+      </c>
+      <c r="C41" s="3">
+        <v>9480</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="2600" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="2060" yWindow="2600" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -317,18 +317,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horsArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horsArcher,catapult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horsArcher,catapult,balista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -355,6 +343,22 @@
   </si>
   <si>
     <t>INT_protection</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult,ballista</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="568">
+  <cellStyleXfs count="570">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -557,6 +561,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1140,7 +1146,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="568">
+  <cellStyles count="570">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1427,6 +1433,7 @@
     <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1706,6 +1713,7 @@
     <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4088,16 +4096,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6981,7 +6989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6992,16 +7000,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7591,16 +7599,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8190,16 +8198,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8789,16 +8797,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -14647,8 +14655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14818,7 +14826,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3">
         <v>562</v>
@@ -14832,7 +14840,7 @@
         <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3">
         <v>750</v>
@@ -14846,7 +14854,7 @@
         <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3">
         <v>1125</v>
@@ -14860,7 +14868,7 @@
         <v>260</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3">
         <v>1500</v>
@@ -14874,7 +14882,7 @@
         <v>280</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3">
         <v>2250</v>
@@ -14888,7 +14896,7 @@
         <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3">
         <v>3000</v>
@@ -14902,7 +14910,7 @@
         <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3">
         <v>3750</v>
@@ -14916,7 +14924,7 @@
         <v>340</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3">
         <v>4500</v>
@@ -14930,7 +14938,7 @@
         <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D20" s="3">
         <v>5250</v>
@@ -14944,7 +14952,7 @@
         <v>380</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3">
         <v>6000</v>
@@ -14958,7 +14966,7 @@
         <v>400</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3">
         <v>6750</v>
@@ -14972,7 +14980,7 @@
         <v>420</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3">
         <v>10125</v>
@@ -14986,7 +14994,7 @@
         <v>440</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3">
         <v>13500</v>
@@ -15000,7 +15008,7 @@
         <v>460</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D25" s="3">
         <v>16875</v>
@@ -15014,7 +15022,7 @@
         <v>480</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D26" s="3">
         <v>22500</v>
@@ -15028,7 +15036,7 @@
         <v>500</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3">
         <v>33750</v>
@@ -15042,7 +15050,7 @@
         <v>520</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D28" s="3">
         <v>45000</v>
@@ -15056,7 +15064,7 @@
         <v>540</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3">
         <v>60000</v>
@@ -15070,7 +15078,7 @@
         <v>560</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D30" s="3">
         <v>75000</v>
@@ -15084,7 +15092,7 @@
         <v>580</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D31" s="3">
         <v>90000</v>
@@ -15098,7 +15106,7 @@
         <v>600</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D32" s="3">
         <v>105000</v>
@@ -15112,7 +15120,7 @@
         <v>640</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D33" s="3">
         <v>120000</v>
@@ -15126,7 +15134,7 @@
         <v>680</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3">
         <v>135000</v>
@@ -15140,7 +15148,7 @@
         <v>720</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D35" s="3">
         <v>150000</v>
@@ -15154,7 +15162,7 @@
         <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D36" s="3">
         <v>165000</v>
@@ -15168,7 +15176,7 @@
         <v>800</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D37" s="3">
         <v>187500</v>
@@ -15182,7 +15190,7 @@
         <v>840</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D38" s="3">
         <v>210000</v>
@@ -15196,7 +15204,7 @@
         <v>880</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D39" s="3">
         <v>232500</v>
@@ -15210,7 +15218,7 @@
         <v>920</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D40" s="3">
         <v>255000</v>
@@ -15224,7 +15232,7 @@
         <v>1000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D41" s="1">
         <v>337500</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="2600" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="6"/>
+    <workbookView xWindow="6560" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -156,14 +156,6 @@
   </si>
   <si>
     <t>INT_wallRecovery</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_poduction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_poductionType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -329,21 +321,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_protection</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
   </si>
   <si>
-    <t>INT_protection</t>
-  </si>
-  <si>
     <t>INT_power</t>
-  </si>
-  <si>
-    <t>INT_protection</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher</t>
@@ -359,6 +340,18 @@
   </si>
   <si>
     <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult,ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_protection</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_production</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productionType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="570">
+  <cellStyleXfs count="572">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -561,6 +554,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1146,7 +1141,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="570">
+  <cellStyles count="572">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1434,6 +1429,7 @@
     <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1714,6 +1710,7 @@
     <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2182,10 +2179,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2778,19 +2775,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -3626,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4096,16 +4093,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4684,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4698,37 +4695,37 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -6281,16 +6278,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6990,7 +6987,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7000,16 +6997,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7589,7 +7586,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7599,16 +7596,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8188,7 +8185,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8198,16 +8195,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8787,7 +8784,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8797,16 +8794,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9402,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -9874,13 +9871,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -10356,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -10832,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -11308,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -11784,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -12257,13 +12254,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -12856,19 +12853,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -13701,22 +13698,22 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -14655,7 +14652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -14669,13 +14666,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -14686,7 +14683,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3">
         <v>37</v>
@@ -14700,7 +14697,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -14714,7 +14711,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3">
         <v>112</v>
@@ -14728,7 +14725,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3">
         <v>150</v>
@@ -14742,7 +14739,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3">
         <v>187</v>
@@ -14756,7 +14753,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3">
         <v>225</v>
@@ -14770,7 +14767,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3">
         <v>262</v>
@@ -14784,7 +14781,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3">
         <v>300</v>
@@ -14798,7 +14795,7 @@
         <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3">
         <v>337</v>
@@ -14812,7 +14809,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3">
         <v>375</v>
@@ -14826,7 +14823,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3">
         <v>562</v>
@@ -14840,7 +14837,7 @@
         <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3">
         <v>750</v>
@@ -14854,7 +14851,7 @@
         <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3">
         <v>1125</v>
@@ -14868,7 +14865,7 @@
         <v>260</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3">
         <v>1500</v>
@@ -14882,7 +14879,7 @@
         <v>280</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3">
         <v>2250</v>
@@ -14896,7 +14893,7 @@
         <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3">
         <v>3000</v>
@@ -14910,7 +14907,7 @@
         <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3">
         <v>3750</v>
@@ -14924,7 +14921,7 @@
         <v>340</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3">
         <v>4500</v>
@@ -14938,7 +14935,7 @@
         <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3">
         <v>5250</v>
@@ -14952,7 +14949,7 @@
         <v>380</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3">
         <v>6000</v>
@@ -14966,7 +14963,7 @@
         <v>400</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3">
         <v>6750</v>
@@ -14980,7 +14977,7 @@
         <v>420</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3">
         <v>10125</v>
@@ -14994,7 +14991,7 @@
         <v>440</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3">
         <v>13500</v>
@@ -15008,7 +15005,7 @@
         <v>460</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3">
         <v>16875</v>
@@ -15022,7 +15019,7 @@
         <v>480</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3">
         <v>22500</v>
@@ -15036,7 +15033,7 @@
         <v>500</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3">
         <v>33750</v>
@@ -15050,7 +15047,7 @@
         <v>520</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D28" s="3">
         <v>45000</v>
@@ -15064,7 +15061,7 @@
         <v>540</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3">
         <v>60000</v>
@@ -15078,7 +15075,7 @@
         <v>560</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30" s="3">
         <v>75000</v>
@@ -15092,7 +15089,7 @@
         <v>580</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3">
         <v>90000</v>
@@ -15106,7 +15103,7 @@
         <v>600</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3">
         <v>105000</v>
@@ -15120,7 +15117,7 @@
         <v>640</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3">
         <v>120000</v>
@@ -15134,7 +15131,7 @@
         <v>680</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D34" s="3">
         <v>135000</v>
@@ -15148,7 +15145,7 @@
         <v>720</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3">
         <v>150000</v>
@@ -15162,7 +15159,7 @@
         <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D36" s="3">
         <v>165000</v>
@@ -15176,7 +15173,7 @@
         <v>800</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D37" s="3">
         <v>187500</v>
@@ -15190,7 +15187,7 @@
         <v>840</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D38" s="3">
         <v>210000</v>
@@ -15204,7 +15201,7 @@
         <v>880</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D39" s="3">
         <v>232500</v>
@@ -15218,7 +15215,7 @@
         <v>920</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D40" s="3">
         <v>255000</v>
@@ -15232,7 +15229,7 @@
         <v>1000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D41" s="1">
         <v>337500</v>
@@ -15268,10 +15265,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -15747,7 +15744,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-25080" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -539,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="572">
+  <cellStyleXfs count="574">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -554,6 +554,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1141,7 +1143,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="572">
+  <cellStyles count="574">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1430,6 +1432,7 @@
     <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1711,6 +1714,7 @@
     <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4681,7 +4685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -12240,8 +12244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12268,10 +12272,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>496</v>
-      </c>
-      <c r="C2" s="5">
         <v>124</v>
+      </c>
+      <c r="C2" s="6">
+        <v>31</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
@@ -12282,10 +12286,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>833</v>
+        <v>229</v>
       </c>
       <c r="C3" s="6">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6">
         <v>80</v>
@@ -12296,10 +12300,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1065</v>
+        <v>306</v>
       </c>
       <c r="C4" s="6">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6">
         <v>120</v>
@@ -12310,10 +12314,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1224</v>
+        <v>367</v>
       </c>
       <c r="C5" s="6">
-        <v>306</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6">
         <v>160</v>
@@ -12324,10 +12328,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1333</v>
+        <v>417</v>
       </c>
       <c r="C6" s="6">
-        <v>333</v>
+        <v>104</v>
       </c>
       <c r="D6" s="6">
         <v>200</v>
@@ -12338,10 +12342,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1406</v>
+        <v>457</v>
       </c>
       <c r="C7" s="6">
-        <v>352</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6">
         <v>240</v>
@@ -12352,10 +12356,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1453</v>
+        <v>490</v>
       </c>
       <c r="C8" s="6">
-        <v>363</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6">
         <v>280</v>
@@ -12366,10 +12370,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1481</v>
+        <v>519</v>
       </c>
       <c r="C9" s="6">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="D9" s="6">
         <v>320</v>
@@ -12380,10 +12384,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>1496</v>
+        <v>542</v>
       </c>
       <c r="C10" s="6">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="D10" s="6">
         <v>360</v>
@@ -12394,10 +12398,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="C11" s="6">
-        <v>375</v>
+        <v>141</v>
       </c>
       <c r="D11" s="6">
         <v>400</v>
@@ -12408,10 +12412,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>2721</v>
+        <v>1054</v>
       </c>
       <c r="C12" s="6">
-        <v>680</v>
+        <v>264</v>
       </c>
       <c r="D12" s="6">
         <v>600</v>
@@ -12422,10 +12426,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>2975</v>
+        <v>1190</v>
       </c>
       <c r="C13" s="6">
-        <v>744</v>
+        <v>298</v>
       </c>
       <c r="D13" s="6">
         <v>800</v>
@@ -12436,10 +12440,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>3176</v>
+        <v>1310</v>
       </c>
       <c r="C14" s="6">
-        <v>794</v>
+        <v>328</v>
       </c>
       <c r="D14" s="6">
         <v>1200</v>
@@ -12450,10 +12454,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>3333</v>
+        <v>1417</v>
       </c>
       <c r="C15" s="6">
-        <v>833</v>
+        <v>354</v>
       </c>
       <c r="D15" s="6">
         <v>1600</v>
@@ -12464,10 +12468,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>3456</v>
+        <v>1512</v>
       </c>
       <c r="C16" s="6">
-        <v>864</v>
+        <v>378</v>
       </c>
       <c r="D16" s="6">
         <v>2400</v>
@@ -12478,10 +12482,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>3550</v>
+        <v>1598</v>
       </c>
       <c r="C17" s="6">
-        <v>888</v>
+        <v>399</v>
       </c>
       <c r="D17" s="6">
         <v>3200</v>
@@ -12492,10 +12496,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>3621</v>
+        <v>1675</v>
       </c>
       <c r="C18" s="6">
-        <v>905</v>
+        <v>419</v>
       </c>
       <c r="D18" s="6">
         <v>4000</v>
@@ -12506,10 +12510,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>3673</v>
+        <v>1745</v>
       </c>
       <c r="C19" s="6">
-        <v>918</v>
+        <v>436</v>
       </c>
       <c r="D19" s="6">
         <v>4800</v>
@@ -12520,10 +12524,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>3710</v>
+        <v>1809</v>
       </c>
       <c r="C20" s="6">
-        <v>927</v>
+        <v>452</v>
       </c>
       <c r="D20" s="6">
         <v>5600</v>
@@ -12534,10 +12538,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>3733</v>
+        <v>1867</v>
       </c>
       <c r="C21" s="6">
-        <v>933</v>
+        <v>467</v>
       </c>
       <c r="D21" s="6">
         <v>6400</v>
@@ -12548,10 +12552,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>6993</v>
+        <v>3846</v>
       </c>
       <c r="C22" s="6">
-        <v>1748</v>
+        <v>961</v>
       </c>
       <c r="D22" s="6">
         <v>7200</v>
@@ -12562,10 +12566,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="C23" s="6">
-        <v>1875</v>
+        <v>1125</v>
       </c>
       <c r="D23" s="6">
         <v>10800</v>
@@ -12576,10 +12580,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>7934</v>
+        <v>5157</v>
       </c>
       <c r="C24" s="6">
-        <v>1983</v>
+        <v>1289</v>
       </c>
       <c r="D24" s="6">
         <v>14400</v>
@@ -12590,10 +12594,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>8304</v>
+        <v>5813</v>
       </c>
       <c r="C25" s="6">
-        <v>2076</v>
+        <v>1453</v>
       </c>
       <c r="D25" s="6">
         <v>18000</v>
@@ -12604,10 +12608,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>8620</v>
+        <v>6465</v>
       </c>
       <c r="C26" s="6">
-        <v>2155</v>
+        <v>1616</v>
       </c>
       <c r="D26" s="6">
         <v>24000</v>
@@ -12618,10 +12622,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>8889</v>
+        <v>7111</v>
       </c>
       <c r="C27" s="6">
-        <v>2222</v>
+        <v>1778</v>
       </c>
       <c r="D27" s="6">
         <v>36000</v>
@@ -12632,10 +12636,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>9116</v>
+        <v>7749</v>
       </c>
       <c r="C28" s="6">
-        <v>2279</v>
+        <v>1937</v>
       </c>
       <c r="D28" s="6">
         <v>48000</v>
@@ -12646,10 +12650,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>9307</v>
+        <v>8377</v>
       </c>
       <c r="C29" s="6">
-        <v>2327</v>
+        <v>2094</v>
       </c>
       <c r="D29" s="6">
         <v>64000</v>
@@ -12660,10 +12664,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>9467</v>
+        <v>8994</v>
       </c>
       <c r="C30" s="6">
-        <v>2367</v>
+        <v>2249</v>
       </c>
       <c r="D30" s="6">
         <v>80000</v>
@@ -12688,10 +12692,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>18275</v>
+        <v>15077</v>
       </c>
       <c r="C32" s="6">
-        <v>4569</v>
+        <v>3769</v>
       </c>
       <c r="D32" s="6">
         <v>112000</v>
@@ -12702,10 +12706,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>19592</v>
+        <v>16980</v>
       </c>
       <c r="C33" s="6">
-        <v>4898</v>
+        <v>4245</v>
       </c>
       <c r="D33" s="6">
         <v>128000</v>
@@ -12716,10 +12720,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>20768</v>
+        <v>18899</v>
       </c>
       <c r="C34" s="6">
-        <v>5192</v>
+        <v>4725</v>
       </c>
       <c r="D34" s="6">
         <v>144000</v>
@@ -12730,10 +12734,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>21818</v>
+        <v>20826</v>
       </c>
       <c r="C35" s="6">
-        <v>5455</v>
+        <v>5207</v>
       </c>
       <c r="D35" s="6">
         <v>160000</v>
@@ -12758,10 +12762,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>23592</v>
+        <v>24681</v>
       </c>
       <c r="C37" s="6">
-        <v>5898</v>
+        <v>6170</v>
       </c>
       <c r="D37" s="6">
         <v>200000</v>
@@ -12772,10 +12776,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>24337</v>
+        <v>26597</v>
       </c>
       <c r="C38" s="6">
-        <v>6084</v>
+        <v>6649</v>
       </c>
       <c r="D38" s="6">
         <v>224000</v>
@@ -12786,10 +12790,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>25000</v>
+        <v>28500</v>
       </c>
       <c r="C39" s="6">
-        <v>6250</v>
+        <v>7125</v>
       </c>
       <c r="D39" s="6">
         <v>248000</v>
@@ -12800,10 +12804,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>25589</v>
+        <v>30387</v>
       </c>
       <c r="C40" s="6">
-        <v>6397</v>
+        <v>7597</v>
       </c>
       <c r="D40" s="6">
         <v>272000</v>
@@ -12813,11 +12817,11 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>26112</v>
-      </c>
-      <c r="C41" s="6">
-        <v>6528</v>
+      <c r="B41" s="1">
+        <v>32256</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8064</v>
       </c>
       <c r="D41" s="6">
         <v>360000</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25080" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="883" activeTab="3"/>
+    <workbookView xWindow="-24340" yWindow="0" windowWidth="26340" windowHeight="14720" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -539,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="574">
+  <cellStyleXfs count="580">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -554,6 +554,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1143,7 +1149,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="574">
+  <cellStyles count="580">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1433,6 +1439,9 @@
     <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1715,6 +1724,9 @@
     <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -9862,14 +9874,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -9888,7 +9900,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>40</v>
       </c>
       <c r="C2" s="6">
@@ -9988,7 +10000,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" s="6">
         <v>600</v>
@@ -9999,7 +10011,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6">
         <v>900</v>
@@ -10010,7 +10022,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6">
         <v>1200</v>
@@ -10021,7 +10033,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C14" s="6">
         <v>1800</v>
@@ -10032,7 +10044,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C15" s="6">
         <v>2400</v>
@@ -10043,7 +10055,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C16" s="6">
         <v>3600</v>
@@ -10054,7 +10066,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C17" s="6">
         <v>4800</v>
@@ -10065,7 +10077,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C18" s="6">
         <v>6000</v>
@@ -10076,7 +10088,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C19" s="6">
         <v>7200</v>
@@ -10087,7 +10099,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C20" s="6">
         <v>8400</v>
@@ -10098,7 +10110,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C21" s="6">
         <v>9600</v>
@@ -10109,7 +10121,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="C22" s="6">
         <v>10800</v>
@@ -10120,7 +10132,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="C23" s="6">
         <v>16200</v>
@@ -10131,7 +10143,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="C24" s="6">
         <v>21600</v>
@@ -10142,7 +10154,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="C25" s="6">
         <v>27000</v>
@@ -10153,7 +10165,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>724</v>
+        <v>660</v>
       </c>
       <c r="C26" s="6">
         <v>36000</v>
@@ -10164,7 +10176,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>788</v>
+        <v>710</v>
       </c>
       <c r="C27" s="6">
         <v>54000</v>
@@ -10175,7 +10187,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>852</v>
+        <v>770</v>
       </c>
       <c r="C28" s="6">
         <v>72000</v>
@@ -10186,7 +10198,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>916</v>
+        <v>830</v>
       </c>
       <c r="C29" s="6">
         <v>96000</v>
@@ -10197,7 +10209,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>980</v>
+        <v>890</v>
       </c>
       <c r="C30" s="6">
         <v>120000</v>
@@ -10208,7 +10220,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>1044</v>
+        <v>940</v>
       </c>
       <c r="C31" s="6">
         <v>144000</v>
@@ -10219,7 +10231,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>2068</v>
+        <v>1410</v>
       </c>
       <c r="C32" s="6">
         <v>168000</v>
@@ -10230,7 +10242,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>2324</v>
+        <v>1520</v>
       </c>
       <c r="C33" s="6">
         <v>192000</v>
@@ -10241,7 +10253,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>2580</v>
+        <v>1640</v>
       </c>
       <c r="C34" s="6">
         <v>216000</v>
@@ -10252,7 +10264,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>2836</v>
+        <v>1750</v>
       </c>
       <c r="C35" s="6">
         <v>240000</v>
@@ -10263,7 +10275,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <v>3092</v>
+        <v>1870</v>
       </c>
       <c r="C36" s="6">
         <v>264000</v>
@@ -10274,7 +10286,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>3348</v>
+        <v>1980</v>
       </c>
       <c r="C37" s="6">
         <v>300000</v>
@@ -10285,7 +10297,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>3604</v>
+        <v>2100</v>
       </c>
       <c r="C38" s="6">
         <v>336000</v>
@@ -10296,7 +10308,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>3860</v>
+        <v>2210</v>
       </c>
       <c r="C39" s="6">
         <v>372000</v>
@@ -10306,8 +10318,8 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
-        <v>4200</v>
+      <c r="B40" s="3">
+        <v>2330</v>
       </c>
       <c r="C40" s="6">
         <v>408000</v>
@@ -10318,7 +10330,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6">
-        <v>5000</v>
+        <v>2440</v>
       </c>
       <c r="C41" s="6">
         <v>540000</v>
@@ -11768,7 +11780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C41"/>
     </sheetView>
   </sheetViews>
@@ -12244,7 +12256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="2020" windowWidth="33160" windowHeight="16460" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="-24920" yWindow="0" windowWidth="33160" windowHeight="11860" tabRatio="883" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -12879,7 +12879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -14692,8 +14692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14748,7 +14748,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -14762,7 +14762,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -14776,7 +14776,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -14790,7 +14790,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -14804,7 +14804,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>34</v>
@@ -14818,7 +14818,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
@@ -14832,7 +14832,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
@@ -14846,7 +14846,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -14860,7 +14860,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
@@ -14874,7 +14874,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
@@ -14888,7 +14888,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
@@ -14902,7 +14902,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
@@ -14916,7 +14916,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
@@ -14930,7 +14930,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
@@ -14944,7 +14944,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>320</v>
+        <v>750</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -14958,7 +14958,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
@@ -14972,7 +14972,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>360</v>
+        <v>850</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
@@ -14986,7 +14986,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>380</v>
+        <v>900</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
@@ -15000,7 +15000,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -15014,7 +15014,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
@@ -15028,7 +15028,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>440</v>
+        <v>1100</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>44</v>
@@ -15042,7 +15042,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>44</v>
@@ -15056,7 +15056,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>480</v>
+        <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
@@ -15070,7 +15070,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>44</v>
@@ -15084,7 +15084,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>520</v>
+        <v>1500</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -15098,7 +15098,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>540</v>
+        <v>1600</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
@@ -15112,7 +15112,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>560</v>
+        <v>1700</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>44</v>
@@ -15126,7 +15126,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>580</v>
+        <v>1800</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>44</v>
@@ -15140,7 +15140,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
@@ -15154,7 +15154,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>640</v>
+        <v>2000</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>44</v>
@@ -15168,7 +15168,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>680</v>
+        <v>2100</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>44</v>
@@ -15182,7 +15182,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>720</v>
+        <v>2200</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>44</v>
@@ -15196,7 +15196,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>760</v>
+        <v>2300</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
@@ -15210,7 +15210,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -15224,7 +15224,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>840</v>
+        <v>2500</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>44</v>
@@ -15238,7 +15238,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>880</v>
+        <v>2600</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>44</v>
@@ -15252,7 +15252,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>920</v>
+        <v>2800</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>44</v>
@@ -15266,7 +15266,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>44</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24920" yWindow="0" windowWidth="33160" windowHeight="11860" tabRatio="883" activeTab="6"/>
+    <workbookView xWindow="3840" yWindow="3780" windowWidth="23440" windowHeight="11860" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="588">
+  <cellStyleXfs count="594">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1165,7 +1171,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="588">
+  <cellStyles count="594">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1462,6 +1468,9 @@
     <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1751,6 +1760,9 @@
     <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2801,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2844,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>32</v>
@@ -2857,14 +2869,14 @@
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
         <v>65</v>
@@ -2877,14 +2889,14 @@
       <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>40</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3">
         <v>97</v>
@@ -2897,14 +2909,14 @@
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>60</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>60</v>
       </c>
       <c r="E5" s="1">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3">
         <v>130</v>
@@ -2917,14 +2929,14 @@
       <c r="B6" s="1">
         <v>80</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>80</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>80</v>
       </c>
       <c r="E6" s="1">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3">
         <v>162</v>
@@ -2937,14 +2949,14 @@
       <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>100</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3">
         <v>195</v>
@@ -2957,14 +2969,14 @@
       <c r="B8" s="1">
         <v>120</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>120</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>120</v>
       </c>
       <c r="E8" s="1">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F8" s="3">
         <v>227</v>
@@ -2977,14 +2989,14 @@
       <c r="B9" s="1">
         <v>140</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>140</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>140</v>
       </c>
       <c r="E9" s="1">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="F9" s="3">
         <v>260</v>
@@ -2997,14 +3009,14 @@
       <c r="B10" s="1">
         <v>160</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>160</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>160</v>
       </c>
       <c r="E10" s="1">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F10" s="3">
         <v>292</v>
@@ -3017,14 +3029,14 @@
       <c r="B11" s="1">
         <v>180</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>180</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>180</v>
       </c>
       <c r="E11" s="1">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="F11" s="3">
         <v>325</v>
@@ -3037,14 +3049,14 @@
       <c r="B12" s="1">
         <v>200</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>200</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>200</v>
       </c>
       <c r="E12" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>487</v>
@@ -3057,14 +3069,14 @@
       <c r="B13" s="1">
         <v>220</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>220</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>220</v>
       </c>
       <c r="E13" s="1">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="F13" s="3">
         <v>650</v>
@@ -3077,14 +3089,14 @@
       <c r="B14" s="1">
         <v>240</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>240</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>240</v>
       </c>
       <c r="E14" s="1">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="F14" s="3">
         <v>975</v>
@@ -3097,14 +3109,14 @@
       <c r="B15" s="1">
         <v>260</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>260</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>260</v>
       </c>
       <c r="E15" s="1">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="F15" s="3">
         <v>1300</v>
@@ -3117,14 +3129,14 @@
       <c r="B16" s="1">
         <v>280</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>280</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>280</v>
       </c>
       <c r="E16" s="1">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="F16" s="3">
         <v>1950</v>
@@ -3137,14 +3149,14 @@
       <c r="B17" s="1">
         <v>300</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>300</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>300</v>
       </c>
       <c r="E17" s="1">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>2600</v>
@@ -3157,14 +3169,14 @@
       <c r="B18" s="1">
         <v>320</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>320</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>320</v>
       </c>
       <c r="E18" s="1">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="F18" s="3">
         <v>3250</v>
@@ -3177,14 +3189,14 @@
       <c r="B19" s="1">
         <v>340</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>340</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>340</v>
       </c>
       <c r="E19" s="1">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="F19" s="3">
         <v>3900</v>
@@ -3197,14 +3209,14 @@
       <c r="B20" s="1">
         <v>360</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>360</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>360</v>
       </c>
       <c r="E20" s="1">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="F20" s="3">
         <v>4550</v>
@@ -3217,14 +3229,14 @@
       <c r="B21" s="1">
         <v>380</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>380</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>380</v>
       </c>
       <c r="E21" s="1">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="F21" s="3">
         <v>5200</v>
@@ -3237,14 +3249,14 @@
       <c r="B22" s="1">
         <v>400</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>400</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>400</v>
       </c>
       <c r="E22" s="1">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>5850</v>
@@ -3257,14 +3269,14 @@
       <c r="B23" s="1">
         <v>420</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>420</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>420</v>
       </c>
       <c r="E23" s="1">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="F23" s="3">
         <v>8775</v>
@@ -3277,14 +3289,14 @@
       <c r="B24" s="1">
         <v>440</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>440</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>440</v>
       </c>
       <c r="E24" s="1">
-        <v>88</v>
+        <v>440</v>
       </c>
       <c r="F24" s="3">
         <v>11700</v>
@@ -3297,14 +3309,14 @@
       <c r="B25" s="1">
         <v>460</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>460</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>460</v>
       </c>
       <c r="E25" s="1">
-        <v>92</v>
+        <v>460</v>
       </c>
       <c r="F25" s="3">
         <v>14625</v>
@@ -3317,14 +3329,14 @@
       <c r="B26" s="1">
         <v>480</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>480</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>480</v>
       </c>
       <c r="E26" s="1">
-        <v>96</v>
+        <v>480</v>
       </c>
       <c r="F26" s="3">
         <v>19500</v>
@@ -3337,14 +3349,14 @@
       <c r="B27" s="1">
         <v>500</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>500</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>500</v>
       </c>
       <c r="E27" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F27" s="3">
         <v>29250</v>
@@ -3357,14 +3369,14 @@
       <c r="B28" s="1">
         <v>550</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>550</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>550</v>
       </c>
       <c r="E28" s="1">
-        <v>110</v>
+        <v>550</v>
       </c>
       <c r="F28" s="3">
         <v>39000</v>
@@ -3377,14 +3389,14 @@
       <c r="B29" s="1">
         <v>600</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>600</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>600</v>
       </c>
       <c r="E29" s="1">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="F29" s="3">
         <v>52000</v>
@@ -3397,14 +3409,14 @@
       <c r="B30" s="1">
         <v>700</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>700</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>700</v>
       </c>
       <c r="E30" s="1">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="F30" s="3">
         <v>65000</v>
@@ -3417,14 +3429,14 @@
       <c r="B31" s="1">
         <v>800</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>800</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>800</v>
       </c>
       <c r="E31" s="1">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="F31" s="3">
         <v>78000</v>
@@ -3437,14 +3449,14 @@
       <c r="B32" s="1">
         <v>900</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>900</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>900</v>
       </c>
       <c r="E32" s="1">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="F32" s="3">
         <v>91000</v>
@@ -3457,14 +3469,14 @@
       <c r="B33" s="1">
         <v>1000</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>1000</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>1000</v>
       </c>
       <c r="E33" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="3">
         <v>104000</v>
@@ -3477,14 +3489,14 @@
       <c r="B34" s="1">
         <v>1200</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>1200</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>1200</v>
       </c>
       <c r="E34" s="1">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="F34" s="3">
         <v>117000</v>
@@ -3495,16 +3507,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1500</v>
+        <v>1400</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1400</v>
       </c>
       <c r="E35" s="1">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="F35" s="3">
         <v>130000</v>
@@ -3515,16 +3527,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2000</v>
+        <v>1600</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1600</v>
       </c>
       <c r="E36" s="1">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="F36" s="3">
         <v>143000</v>
@@ -3535,16 +3547,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2500</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2500</v>
+        <v>1800</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1800</v>
       </c>
       <c r="E37" s="1">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="F37" s="3">
         <v>162500</v>
@@ -3555,16 +3567,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3000</v>
+        <v>2000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2000</v>
       </c>
       <c r="E38" s="1">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="3">
         <v>182000</v>
@@ -3575,16 +3587,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>3500</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3500</v>
+        <v>2200</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2200</v>
       </c>
       <c r="E39" s="1">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="F39" s="3">
         <v>201500</v>
@@ -3595,16 +3607,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>4000</v>
+        <v>2500</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2500</v>
       </c>
       <c r="E40" s="1">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="F40" s="3">
         <v>221000</v>
@@ -3615,16 +3627,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C41" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D41" s="3">
-        <v>5000</v>
+        <v>3000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3000</v>
       </c>
       <c r="E41" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F41" s="1">
         <v>292500</v>
@@ -3647,7 +3659,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4123,7 +4135,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4722,7 +4734,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6304,7 +6316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E41"/>
     </sheetView>
   </sheetViews>
@@ -7026,7 +7038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -8224,7 +8236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -9898,7 +9910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -14692,7 +14704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883"/>
+    <workbookView xWindow="1320" yWindow="1280" windowWidth="33980" windowHeight="15220" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>FLOAT_efficiency</t>
   </si>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_productBmWood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -326,10 +322,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_power</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_production</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -350,11 +342,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>INT_dragonCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_dragonMaterials</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_dragonCount</t>
+    <t>INT_power</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="698">
+  <cellStyleXfs count="716">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -557,6 +553,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1270,7 +1284,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="698">
+  <cellStyles count="716">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1622,6 +1636,15 @@
     <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1966,6 +1989,15 @@
     <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2417,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -3016,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3492,7 +3524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -4095,7 +4127,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4105,40 +4137,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -4222,31 +4254,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>11880</v>
+        <v>15840</v>
       </c>
       <c r="E4" s="1">
-        <v>11880</v>
+        <v>15840</v>
       </c>
       <c r="F4" s="1">
-        <v>11880</v>
+        <v>15840</v>
       </c>
       <c r="G4" s="1">
         <v>480</v>
       </c>
       <c r="H4" s="1">
-        <v>23760</v>
+        <v>31680</v>
       </c>
       <c r="I4" s="1">
-        <v>23760</v>
+        <v>31680</v>
       </c>
       <c r="J4" s="1">
-        <v>23760</v>
+        <v>31680</v>
       </c>
       <c r="K4" s="1">
         <v>960</v>
@@ -4260,31 +4292,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>15760</v>
+        <v>23640</v>
       </c>
       <c r="E5" s="1">
-        <v>15760</v>
+        <v>23640</v>
       </c>
       <c r="F5" s="1">
-        <v>15760</v>
+        <v>23640</v>
       </c>
       <c r="G5" s="1">
         <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>31520</v>
+        <v>47280</v>
       </c>
       <c r="I5" s="1">
-        <v>31520</v>
+        <v>47280</v>
       </c>
       <c r="J5" s="1">
-        <v>31520</v>
+        <v>47280</v>
       </c>
       <c r="K5" s="1">
         <v>1280</v>
@@ -4298,31 +4330,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>19600</v>
+        <v>31360</v>
       </c>
       <c r="E6" s="1">
-        <v>19600</v>
+        <v>31360</v>
       </c>
       <c r="F6" s="1">
-        <v>19600</v>
+        <v>31360</v>
       </c>
       <c r="G6" s="1">
         <v>800</v>
       </c>
       <c r="H6" s="1">
-        <v>39200</v>
+        <v>62720</v>
       </c>
       <c r="I6" s="1">
-        <v>39200</v>
+        <v>62720</v>
       </c>
       <c r="J6" s="1">
-        <v>39200</v>
+        <v>62720</v>
       </c>
       <c r="K6" s="1">
         <v>1600</v>
@@ -4336,31 +4368,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>23400</v>
+        <v>39000</v>
       </c>
       <c r="E7" s="1">
-        <v>23400</v>
+        <v>39000</v>
       </c>
       <c r="F7" s="1">
-        <v>23400</v>
+        <v>39000</v>
       </c>
       <c r="G7" s="1">
         <v>960</v>
       </c>
       <c r="H7" s="1">
-        <v>46800</v>
+        <v>78000</v>
       </c>
       <c r="I7" s="1">
-        <v>46800</v>
+        <v>78000</v>
       </c>
       <c r="J7" s="1">
-        <v>46800</v>
+        <v>78000</v>
       </c>
       <c r="K7" s="1">
         <v>1920</v>
@@ -4374,31 +4406,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>27160</v>
+        <v>46560</v>
       </c>
       <c r="E8" s="1">
-        <v>27160</v>
+        <v>46560</v>
       </c>
       <c r="F8" s="1">
-        <v>27160</v>
+        <v>46560</v>
       </c>
       <c r="G8" s="1">
         <v>1120</v>
       </c>
       <c r="H8" s="1">
-        <v>54320</v>
+        <v>93120</v>
       </c>
       <c r="I8" s="1">
-        <v>54320</v>
+        <v>93120</v>
       </c>
       <c r="J8" s="1">
-        <v>54320</v>
+        <v>93120</v>
       </c>
       <c r="K8" s="1">
         <v>2240</v>
@@ -4412,31 +4444,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>30880</v>
+        <v>57900</v>
       </c>
       <c r="E9" s="1">
-        <v>30880</v>
+        <v>57900</v>
       </c>
       <c r="F9" s="1">
-        <v>30880</v>
+        <v>57900</v>
       </c>
       <c r="G9" s="1">
         <v>1280</v>
       </c>
       <c r="H9" s="1">
-        <v>61760</v>
+        <v>115800</v>
       </c>
       <c r="I9" s="1">
-        <v>61760</v>
+        <v>115800</v>
       </c>
       <c r="J9" s="1">
-        <v>61760</v>
+        <v>115800</v>
       </c>
       <c r="K9" s="1">
         <v>2560</v>
@@ -4450,31 +4482,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>34560</v>
+        <v>76800</v>
       </c>
       <c r="E10" s="1">
-        <v>34560</v>
+        <v>76800</v>
       </c>
       <c r="F10" s="1">
-        <v>34560</v>
+        <v>76800</v>
       </c>
       <c r="G10" s="1">
         <v>1440</v>
       </c>
       <c r="H10" s="1">
-        <v>69120</v>
+        <v>153600</v>
       </c>
       <c r="I10" s="1">
-        <v>69120</v>
+        <v>153600</v>
       </c>
       <c r="J10" s="1">
-        <v>69120</v>
+        <v>153600</v>
       </c>
       <c r="K10" s="1">
         <v>2880</v>
@@ -4488,31 +4520,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>38200</v>
+        <v>95500</v>
       </c>
       <c r="E11" s="1">
-        <v>38200</v>
+        <v>95500</v>
       </c>
       <c r="F11" s="1">
-        <v>38200</v>
+        <v>95500</v>
       </c>
       <c r="G11" s="1">
         <v>1600</v>
       </c>
       <c r="H11" s="1">
-        <v>76400</v>
+        <v>191000</v>
       </c>
       <c r="I11" s="1">
-        <v>76400</v>
+        <v>191000</v>
       </c>
       <c r="J11" s="1">
-        <v>76400</v>
+        <v>191000</v>
       </c>
       <c r="K11" s="1">
         <v>3200</v>
@@ -4526,31 +4558,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>41800</v>
+        <v>114000</v>
       </c>
       <c r="E12" s="1">
-        <v>41800</v>
+        <v>114000</v>
       </c>
       <c r="F12" s="1">
-        <v>41800</v>
+        <v>114000</v>
       </c>
       <c r="G12" s="1">
         <v>1760</v>
       </c>
       <c r="H12" s="1">
-        <v>83600</v>
+        <v>228000</v>
       </c>
       <c r="I12" s="1">
-        <v>83600</v>
+        <v>228000</v>
       </c>
       <c r="J12" s="1">
-        <v>83600</v>
+        <v>228000</v>
       </c>
       <c r="K12" s="1">
         <v>3520</v>
@@ -4564,31 +4596,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>45360</v>
+        <v>132300</v>
       </c>
       <c r="E13" s="1">
-        <v>45360</v>
+        <v>132300</v>
       </c>
       <c r="F13" s="1">
-        <v>45360</v>
+        <v>132300</v>
       </c>
       <c r="G13" s="1">
         <v>1920</v>
       </c>
       <c r="H13" s="1">
-        <v>90720</v>
+        <v>264600</v>
       </c>
       <c r="I13" s="1">
-        <v>90720</v>
+        <v>264600</v>
       </c>
       <c r="J13" s="1">
-        <v>90720</v>
+        <v>264600</v>
       </c>
       <c r="K13" s="1">
         <v>3840</v>
@@ -4602,31 +4634,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>48880</v>
+        <v>150400</v>
       </c>
       <c r="E14" s="1">
-        <v>48880</v>
+        <v>150400</v>
       </c>
       <c r="F14" s="1">
-        <v>48880</v>
+        <v>150400</v>
       </c>
       <c r="G14" s="1">
         <v>2080</v>
       </c>
       <c r="H14" s="1">
-        <v>97760</v>
+        <v>300800</v>
       </c>
       <c r="I14" s="1">
-        <v>97760</v>
+        <v>300800</v>
       </c>
       <c r="J14" s="1">
-        <v>97760</v>
+        <v>300800</v>
       </c>
       <c r="K14" s="1">
         <v>4160</v>
@@ -4640,31 +4672,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>52360</v>
+        <v>168300</v>
       </c>
       <c r="E15" s="1">
-        <v>52360</v>
+        <v>168300</v>
       </c>
       <c r="F15" s="1">
-        <v>52360</v>
+        <v>168300</v>
       </c>
       <c r="G15" s="1">
         <v>2240</v>
       </c>
       <c r="H15" s="1">
-        <v>104720</v>
+        <v>336600</v>
       </c>
       <c r="I15" s="1">
-        <v>104720</v>
+        <v>336600</v>
       </c>
       <c r="J15" s="1">
-        <v>104720</v>
+        <v>336600</v>
       </c>
       <c r="K15" s="1">
         <v>4480</v>
@@ -4678,31 +4710,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>55800</v>
+        <v>186000</v>
       </c>
       <c r="E16" s="1">
-        <v>55800</v>
+        <v>186000</v>
       </c>
       <c r="F16" s="1">
-        <v>55800</v>
+        <v>186000</v>
       </c>
       <c r="G16" s="1">
         <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>111600</v>
+        <v>372000</v>
       </c>
       <c r="I16" s="1">
-        <v>111600</v>
+        <v>372000</v>
       </c>
       <c r="J16" s="1">
-        <v>111600</v>
+        <v>372000</v>
       </c>
       <c r="K16" s="1">
         <v>4800</v>
@@ -4716,31 +4748,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>59200</v>
+        <v>203500</v>
       </c>
       <c r="E17" s="1">
-        <v>59200</v>
+        <v>203500</v>
       </c>
       <c r="F17" s="1">
-        <v>59200</v>
+        <v>203500</v>
       </c>
       <c r="G17" s="1">
         <v>2560</v>
       </c>
       <c r="H17" s="1">
-        <v>118400</v>
+        <v>407000</v>
       </c>
       <c r="I17" s="1">
-        <v>118400</v>
+        <v>407000</v>
       </c>
       <c r="J17" s="1">
-        <v>118400</v>
+        <v>407000</v>
       </c>
       <c r="K17" s="1">
         <v>5120</v>
@@ -4754,31 +4786,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>66240</v>
+        <v>220800</v>
       </c>
       <c r="E18" s="1">
-        <v>66240</v>
+        <v>220800</v>
       </c>
       <c r="F18" s="1">
-        <v>66240</v>
+        <v>220800</v>
       </c>
       <c r="G18" s="1">
         <v>2880</v>
       </c>
       <c r="H18" s="1">
-        <v>132480</v>
+        <v>441600</v>
       </c>
       <c r="I18" s="1">
-        <v>132480</v>
+        <v>441600</v>
       </c>
       <c r="J18" s="1">
-        <v>132480</v>
+        <v>441600</v>
       </c>
       <c r="K18" s="1">
         <v>5760</v>
@@ -4792,31 +4824,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>73200</v>
+        <v>237900</v>
       </c>
       <c r="E19" s="1">
-        <v>73200</v>
+        <v>237900</v>
       </c>
       <c r="F19" s="1">
-        <v>73200</v>
+        <v>237900</v>
       </c>
       <c r="G19" s="1">
         <v>3200</v>
       </c>
       <c r="H19" s="1">
-        <v>146400</v>
+        <v>475800</v>
       </c>
       <c r="I19" s="1">
-        <v>146400</v>
+        <v>475800</v>
       </c>
       <c r="J19" s="1">
-        <v>146400</v>
+        <v>475800</v>
       </c>
       <c r="K19" s="1">
         <v>6400</v>
@@ -4830,31 +4862,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>80080</v>
+        <v>254800</v>
       </c>
       <c r="E20" s="1">
-        <v>80080</v>
+        <v>254800</v>
       </c>
       <c r="F20" s="1">
-        <v>80080</v>
+        <v>254800</v>
       </c>
       <c r="G20" s="1">
         <v>3520</v>
       </c>
       <c r="H20" s="1">
-        <v>160160</v>
+        <v>509600</v>
       </c>
       <c r="I20" s="1">
-        <v>160160</v>
+        <v>509600</v>
       </c>
       <c r="J20" s="1">
-        <v>160160</v>
+        <v>509600</v>
       </c>
       <c r="K20" s="1">
         <v>7040</v>
@@ -4868,31 +4900,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>86880</v>
+        <v>271500</v>
       </c>
       <c r="E21" s="1">
-        <v>86880</v>
+        <v>271500</v>
       </c>
       <c r="F21" s="1">
-        <v>86880</v>
+        <v>271500</v>
       </c>
       <c r="G21" s="1">
         <v>3840</v>
       </c>
       <c r="H21" s="1">
-        <v>173760</v>
+        <v>543000</v>
       </c>
       <c r="I21" s="1">
-        <v>173760</v>
+        <v>543000</v>
       </c>
       <c r="J21" s="1">
-        <v>173760</v>
+        <v>543000</v>
       </c>
       <c r="K21" s="1">
         <v>7680</v>
@@ -4906,31 +4938,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>93600</v>
+        <v>288000</v>
       </c>
       <c r="E22" s="1">
-        <v>93600</v>
+        <v>288000</v>
       </c>
       <c r="F22" s="1">
-        <v>93600</v>
+        <v>288000</v>
       </c>
       <c r="G22" s="1">
         <v>4160</v>
       </c>
       <c r="H22" s="1">
-        <v>187200</v>
+        <v>576000</v>
       </c>
       <c r="I22" s="1">
-        <v>187200</v>
+        <v>576000</v>
       </c>
       <c r="J22" s="1">
-        <v>187200</v>
+        <v>576000</v>
       </c>
       <c r="K22" s="1">
         <v>8320</v>
@@ -4944,31 +4976,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>100240</v>
+        <v>304300</v>
       </c>
       <c r="E23" s="1">
-        <v>100240</v>
+        <v>304300</v>
       </c>
       <c r="F23" s="1">
-        <v>100240</v>
+        <v>304300</v>
       </c>
       <c r="G23" s="1">
         <v>4480</v>
       </c>
       <c r="H23" s="1">
-        <v>200480</v>
+        <v>608600</v>
       </c>
       <c r="I23" s="1">
-        <v>200480</v>
+        <v>608600</v>
       </c>
       <c r="J23" s="1">
-        <v>200480</v>
+        <v>608600</v>
       </c>
       <c r="K23" s="1">
         <v>8960</v>
@@ -4982,31 +5014,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>106800</v>
+        <v>320400</v>
       </c>
       <c r="E24" s="1">
-        <v>106800</v>
+        <v>320400</v>
       </c>
       <c r="F24" s="1">
-        <v>106800</v>
+        <v>320400</v>
       </c>
       <c r="G24" s="1">
         <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>213600</v>
+        <v>640800</v>
       </c>
       <c r="I24" s="1">
-        <v>213600</v>
+        <v>640800</v>
       </c>
       <c r="J24" s="1">
-        <v>213600</v>
+        <v>640800</v>
       </c>
       <c r="K24" s="1">
         <v>9600</v>
@@ -5020,31 +5052,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>113280</v>
+        <v>336300</v>
       </c>
       <c r="E25" s="1">
-        <v>113280</v>
+        <v>336300</v>
       </c>
       <c r="F25" s="1">
-        <v>113280</v>
+        <v>336300</v>
       </c>
       <c r="G25" s="1">
         <v>5120</v>
       </c>
       <c r="H25" s="1">
-        <v>226560</v>
+        <v>672600</v>
       </c>
       <c r="I25" s="1">
-        <v>226560</v>
+        <v>672600</v>
       </c>
       <c r="J25" s="1">
-        <v>226560</v>
+        <v>672600</v>
       </c>
       <c r="K25" s="1">
         <v>10240</v>
@@ -5058,31 +5090,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>119680</v>
+        <v>352000</v>
       </c>
       <c r="E26" s="1">
-        <v>119680</v>
+        <v>352000</v>
       </c>
       <c r="F26" s="1">
-        <v>119680</v>
+        <v>352000</v>
       </c>
       <c r="G26" s="1">
         <v>5440</v>
       </c>
       <c r="H26" s="1">
-        <v>239360</v>
+        <v>704000</v>
       </c>
       <c r="I26" s="1">
-        <v>239360</v>
+        <v>704000</v>
       </c>
       <c r="J26" s="1">
-        <v>239360</v>
+        <v>704000</v>
       </c>
       <c r="K26" s="1">
         <v>10880</v>
@@ -5096,31 +5128,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>126000</v>
+        <v>385000</v>
       </c>
       <c r="E27" s="1">
-        <v>126000</v>
+        <v>385000</v>
       </c>
       <c r="F27" s="1">
-        <v>126000</v>
+        <v>385000</v>
       </c>
       <c r="G27" s="1">
         <v>5760</v>
       </c>
       <c r="H27" s="1">
-        <v>252000</v>
+        <v>770000</v>
       </c>
       <c r="I27" s="1">
-        <v>252000</v>
+        <v>770000</v>
       </c>
       <c r="J27" s="1">
-        <v>252000</v>
+        <v>770000</v>
       </c>
       <c r="K27" s="1">
         <v>11520</v>
@@ -5134,31 +5166,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>132240</v>
+        <v>417600</v>
       </c>
       <c r="E28" s="1">
-        <v>132240</v>
+        <v>417600</v>
       </c>
       <c r="F28" s="1">
-        <v>132240</v>
+        <v>417600</v>
       </c>
       <c r="G28" s="1">
         <v>6080</v>
       </c>
       <c r="H28" s="1">
-        <v>264480</v>
+        <v>835200</v>
       </c>
       <c r="I28" s="1">
-        <v>264480</v>
+        <v>835200</v>
       </c>
       <c r="J28" s="1">
-        <v>264480</v>
+        <v>835200</v>
       </c>
       <c r="K28" s="1">
         <v>12160</v>
@@ -5172,31 +5204,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>138400</v>
+        <v>449800</v>
       </c>
       <c r="E29" s="1">
-        <v>138400</v>
+        <v>449800</v>
       </c>
       <c r="F29" s="1">
-        <v>138400</v>
+        <v>449800</v>
       </c>
       <c r="G29" s="1">
         <v>6400</v>
       </c>
       <c r="H29" s="1">
-        <v>276800</v>
+        <v>899600</v>
       </c>
       <c r="I29" s="1">
-        <v>276800</v>
+        <v>899600</v>
       </c>
       <c r="J29" s="1">
-        <v>276800</v>
+        <v>899600</v>
       </c>
       <c r="K29" s="1">
         <v>12800</v>
@@ -5210,31 +5242,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>154800</v>
+        <v>481600</v>
       </c>
       <c r="E30" s="1">
-        <v>154800</v>
+        <v>481600</v>
       </c>
       <c r="F30" s="1">
-        <v>154800</v>
+        <v>481600</v>
       </c>
       <c r="G30" s="1">
         <v>7200</v>
       </c>
       <c r="H30" s="1">
-        <v>309600</v>
+        <v>963200</v>
       </c>
       <c r="I30" s="1">
-        <v>309600</v>
+        <v>963200</v>
       </c>
       <c r="J30" s="1">
-        <v>309600</v>
+        <v>963200</v>
       </c>
       <c r="K30" s="1">
         <v>14400</v>
@@ -5248,31 +5280,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>171000</v>
+        <v>513000</v>
       </c>
       <c r="E31" s="1">
-        <v>171000</v>
+        <v>513000</v>
       </c>
       <c r="F31" s="1">
-        <v>171000</v>
+        <v>513000</v>
       </c>
       <c r="G31" s="1">
         <v>8000</v>
       </c>
       <c r="H31" s="1">
-        <v>342000</v>
+        <v>1026000</v>
       </c>
       <c r="I31" s="1">
-        <v>342000</v>
+        <v>1026000</v>
       </c>
       <c r="J31" s="1">
-        <v>342000</v>
+        <v>1026000</v>
       </c>
       <c r="K31" s="1">
         <v>16000</v>
@@ -5286,31 +5318,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>187000</v>
+        <v>544000</v>
       </c>
       <c r="E32" s="1">
-        <v>187000</v>
+        <v>544000</v>
       </c>
       <c r="F32" s="1">
-        <v>187000</v>
+        <v>544000</v>
       </c>
       <c r="G32" s="1">
         <v>8800</v>
       </c>
       <c r="H32" s="1">
-        <v>374000</v>
+        <v>1088000</v>
       </c>
       <c r="I32" s="1">
-        <v>374000</v>
+        <v>1088000</v>
       </c>
       <c r="J32" s="1">
-        <v>374000</v>
+        <v>1088000</v>
       </c>
       <c r="K32" s="1">
         <v>17600</v>
@@ -5324,31 +5356,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>202800</v>
+        <v>574600</v>
       </c>
       <c r="E33" s="1">
-        <v>202800</v>
+        <v>574600</v>
       </c>
       <c r="F33" s="1">
-        <v>202800</v>
+        <v>574600</v>
       </c>
       <c r="G33" s="1">
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>405600</v>
+        <v>1149200</v>
       </c>
       <c r="I33" s="1">
-        <v>405600</v>
+        <v>1149200</v>
       </c>
       <c r="J33" s="1">
-        <v>405600</v>
+        <v>1149200</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
@@ -5362,31 +5394,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>218400</v>
+        <v>604800</v>
       </c>
       <c r="E34" s="1">
-        <v>218400</v>
+        <v>604800</v>
       </c>
       <c r="F34" s="1">
-        <v>218400</v>
+        <v>604800</v>
       </c>
       <c r="G34" s="1">
         <v>10400</v>
       </c>
       <c r="H34" s="1">
-        <v>436800</v>
+        <v>1209600</v>
       </c>
       <c r="I34" s="1">
-        <v>436800</v>
+        <v>1209600</v>
       </c>
       <c r="J34" s="1">
-        <v>436800</v>
+        <v>1209600</v>
       </c>
       <c r="K34" s="1">
         <v>20800</v>
@@ -5400,31 +5432,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>233800</v>
+        <v>634600</v>
       </c>
       <c r="E35" s="1">
-        <v>233800</v>
+        <v>634600</v>
       </c>
       <c r="F35" s="1">
-        <v>233800</v>
+        <v>634600</v>
       </c>
       <c r="G35" s="1">
         <v>11200</v>
       </c>
       <c r="H35" s="1">
-        <v>467600</v>
+        <v>1269200</v>
       </c>
       <c r="I35" s="1">
-        <v>467600</v>
+        <v>1269200</v>
       </c>
       <c r="J35" s="1">
-        <v>467600</v>
+        <v>1269200</v>
       </c>
       <c r="K35" s="1">
         <v>22400</v>
@@ -5438,31 +5470,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>249000</v>
+        <v>664000</v>
       </c>
       <c r="E36" s="1">
-        <v>249000</v>
+        <v>664000</v>
       </c>
       <c r="F36" s="1">
-        <v>249000</v>
+        <v>664000</v>
       </c>
       <c r="G36" s="1">
         <v>12000</v>
       </c>
       <c r="H36" s="1">
-        <v>498000</v>
+        <v>1328000</v>
       </c>
       <c r="I36" s="1">
-        <v>498000</v>
+        <v>1328000</v>
       </c>
       <c r="J36" s="1">
-        <v>498000</v>
+        <v>1328000</v>
       </c>
       <c r="K36" s="1">
         <v>24000</v>
@@ -5476,31 +5508,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>264000</v>
+        <v>693000</v>
       </c>
       <c r="E37" s="1">
-        <v>264000</v>
+        <v>693000</v>
       </c>
       <c r="F37" s="1">
-        <v>264000</v>
+        <v>693000</v>
       </c>
       <c r="G37" s="1">
         <v>12800</v>
       </c>
       <c r="H37" s="1">
-        <v>528000</v>
+        <v>1386000</v>
       </c>
       <c r="I37" s="1">
-        <v>528000</v>
+        <v>1386000</v>
       </c>
       <c r="J37" s="1">
-        <v>528000</v>
+        <v>1386000</v>
       </c>
       <c r="K37" s="1">
         <v>25600</v>
@@ -5514,31 +5546,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>278800</v>
+        <v>721600</v>
       </c>
       <c r="E38" s="1">
-        <v>278800</v>
+        <v>721600</v>
       </c>
       <c r="F38" s="1">
-        <v>278800</v>
+        <v>721600</v>
       </c>
       <c r="G38" s="1">
         <v>13600</v>
       </c>
       <c r="H38" s="1">
-        <v>557600</v>
+        <v>1443200</v>
       </c>
       <c r="I38" s="1">
-        <v>557600</v>
+        <v>1443200</v>
       </c>
       <c r="J38" s="1">
-        <v>557600</v>
+        <v>1443200</v>
       </c>
       <c r="K38" s="1">
         <v>27200</v>
@@ -5552,31 +5584,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>293400</v>
+        <v>749800</v>
       </c>
       <c r="E39" s="1">
-        <v>293400</v>
+        <v>749800</v>
       </c>
       <c r="F39" s="1">
-        <v>293400</v>
+        <v>749800</v>
       </c>
       <c r="G39" s="1">
         <v>14400</v>
       </c>
       <c r="H39" s="1">
-        <v>586800</v>
+        <v>1499600</v>
       </c>
       <c r="I39" s="1">
-        <v>586800</v>
+        <v>1499600</v>
       </c>
       <c r="J39" s="1">
-        <v>586800</v>
+        <v>1499600</v>
       </c>
       <c r="K39" s="1">
         <v>28800</v>
@@ -5590,31 +5622,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>307800</v>
+        <v>777600</v>
       </c>
       <c r="E40" s="1">
-        <v>307800</v>
+        <v>777600</v>
       </c>
       <c r="F40" s="1">
-        <v>307800</v>
+        <v>777600</v>
       </c>
       <c r="G40" s="1">
         <v>15200</v>
       </c>
       <c r="H40" s="1">
-        <v>615600</v>
+        <v>1555200</v>
       </c>
       <c r="I40" s="1">
-        <v>615600</v>
+        <v>1555200</v>
       </c>
       <c r="J40" s="1">
-        <v>615600</v>
+        <v>1555200</v>
       </c>
       <c r="K40" s="1">
         <v>30400</v>
@@ -5628,31 +5660,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="E41" s="1">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="F41" s="1">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="G41" s="1">
         <v>16000</v>
       </c>
       <c r="H41" s="1">
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="I41" s="1">
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="J41" s="1">
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="K41" s="1">
         <v>32000</v>
@@ -5677,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5714,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -5728,10 +5760,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="6">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
         <v>40</v>
-      </c>
-      <c r="D3" s="6">
-        <v>20</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -5745,10 +5777,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="6">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6">
         <v>60</v>
-      </c>
-      <c r="D4" s="6">
-        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -5762,10 +5794,10 @@
         <v>35</v>
       </c>
       <c r="C5" s="6">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6">
         <v>80</v>
-      </c>
-      <c r="D5" s="6">
-        <v>40</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -5779,10 +5811,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="6">
+        <v>200</v>
+      </c>
+      <c r="D6" s="6">
         <v>100</v>
-      </c>
-      <c r="D6" s="6">
-        <v>50</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -5796,10 +5828,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="6">
+        <v>250</v>
+      </c>
+      <c r="D7" s="6">
         <v>120</v>
-      </c>
-      <c r="D7" s="6">
-        <v>60</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -5813,10 +5845,10 @@
         <v>80</v>
       </c>
       <c r="C8" s="6">
+        <v>300</v>
+      </c>
+      <c r="D8" s="6">
         <v>140</v>
-      </c>
-      <c r="D8" s="6">
-        <v>70</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -5830,10 +5862,10 @@
         <v>150</v>
       </c>
       <c r="C9" s="6">
+        <v>400</v>
+      </c>
+      <c r="D9" s="6">
         <v>160</v>
-      </c>
-      <c r="D9" s="6">
-        <v>80</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -5847,10 +5879,10 @@
         <v>320</v>
       </c>
       <c r="C10" s="6">
+        <v>600</v>
+      </c>
+      <c r="D10" s="6">
         <v>180</v>
-      </c>
-      <c r="D10" s="6">
-        <v>90</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -5864,10 +5896,10 @@
         <v>480</v>
       </c>
       <c r="C11" s="6">
+        <v>800</v>
+      </c>
+      <c r="D11" s="6">
         <v>200</v>
-      </c>
-      <c r="D11" s="6">
-        <v>100</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -5881,10 +5913,10 @@
         <v>660</v>
       </c>
       <c r="C12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="6">
         <v>240</v>
-      </c>
-      <c r="D12" s="6">
-        <v>120</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -5898,10 +5930,10 @@
         <v>840</v>
       </c>
       <c r="C13" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="6">
         <v>280</v>
-      </c>
-      <c r="D13" s="6">
-        <v>140</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -5915,10 +5947,10 @@
         <v>1110</v>
       </c>
       <c r="C14" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="6">
         <v>320</v>
-      </c>
-      <c r="D14" s="6">
-        <v>160</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
@@ -5932,10 +5964,10 @@
         <v>2240</v>
       </c>
       <c r="C15" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="6">
         <v>360</v>
-      </c>
-      <c r="D15" s="6">
-        <v>180</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
@@ -5949,10 +5981,10 @@
         <v>3510</v>
       </c>
       <c r="C16" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="6">
         <v>400</v>
-      </c>
-      <c r="D16" s="6">
-        <v>200</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
@@ -5966,10 +5998,10 @@
         <v>4850</v>
       </c>
       <c r="C17" s="6">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="D17" s="6">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -5983,10 +6015,10 @@
         <v>7090</v>
       </c>
       <c r="C18" s="6">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="D18" s="6">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
@@ -6000,10 +6032,10 @@
         <v>8730</v>
       </c>
       <c r="C19" s="6">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="D19" s="6">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -6017,10 +6049,10 @@
         <v>10670</v>
       </c>
       <c r="C20" s="6">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="D20" s="6">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
@@ -6034,10 +6066,10 @@
         <v>12510</v>
       </c>
       <c r="C21" s="6">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="6">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
@@ -6051,10 +6083,10 @@
         <v>17000</v>
       </c>
       <c r="C22" s="6">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="D22" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="6">
         <v>3</v>
@@ -6068,10 +6100,10 @@
         <v>19490</v>
       </c>
       <c r="C23" s="6">
-        <v>2400</v>
+        <v>8000</v>
       </c>
       <c r="D23" s="6">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
@@ -6085,10 +6117,10 @@
         <v>22490</v>
       </c>
       <c r="C24" s="6">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D24" s="6">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -6102,10 +6134,10 @@
         <v>25310</v>
       </c>
       <c r="C25" s="6">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="D25" s="6">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E25" s="6">
         <v>3</v>
@@ -6119,10 +6151,10 @@
         <v>34580</v>
       </c>
       <c r="C26" s="6">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="D26" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="6">
         <v>3</v>
@@ -6136,10 +6168,10 @@
         <v>38600</v>
       </c>
       <c r="C27" s="6">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="D27" s="6">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E27" s="6">
         <v>3</v>
@@ -6153,10 +6185,10 @@
         <v>43430</v>
       </c>
       <c r="C28" s="6">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="D28" s="6">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E28" s="6">
         <v>3</v>
@@ -6170,10 +6202,10 @@
         <v>47990</v>
       </c>
       <c r="C29" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D29" s="6">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E29" s="6">
         <v>3</v>
@@ -6187,10 +6219,10 @@
         <v>68300</v>
       </c>
       <c r="C30" s="6">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="D30" s="6">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -6204,10 +6236,10 @@
         <v>78840</v>
       </c>
       <c r="C31" s="6">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="D31" s="6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -6221,10 +6253,10 @@
         <v>91060</v>
       </c>
       <c r="C32" s="6">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="D32" s="6">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
@@ -6238,10 +6270,10 @@
         <v>103320</v>
       </c>
       <c r="C33" s="6">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="D33" s="6">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E33" s="6">
         <v>4</v>
@@ -6255,10 +6287,10 @@
         <v>141420</v>
       </c>
       <c r="C34" s="6">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D34" s="6">
-        <v>2600</v>
+        <v>5200</v>
       </c>
       <c r="E34" s="6">
         <v>4</v>
@@ -6272,10 +6304,10 @@
         <v>158910</v>
       </c>
       <c r="C35" s="6">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="D35" s="6">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="6">
         <v>4</v>
@@ -6289,10 +6321,10 @@
         <v>179000</v>
       </c>
       <c r="C36" s="6">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="D36" s="6">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E36" s="6">
         <v>4</v>
@@ -6306,10 +6338,10 @@
         <v>199230</v>
       </c>
       <c r="C37" s="6">
-        <v>32000</v>
+        <v>64000</v>
       </c>
       <c r="D37" s="6">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E37" s="6">
         <v>4</v>
@@ -6323,10 +6355,10 @@
         <v>267930</v>
       </c>
       <c r="C38" s="6">
-        <v>40000</v>
+        <v>72000</v>
       </c>
       <c r="D38" s="6">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="E38" s="6">
         <v>4</v>
@@ -6340,10 +6372,10 @@
         <v>296390</v>
       </c>
       <c r="C39" s="6">
-        <v>48000</v>
+        <v>80000</v>
       </c>
       <c r="D39" s="6">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
@@ -6357,10 +6389,10 @@
         <v>328590</v>
       </c>
       <c r="C40" s="6">
-        <v>56000</v>
+        <v>88000</v>
       </c>
       <c r="D40" s="6">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E40" s="6">
         <v>4</v>
@@ -6374,10 +6406,10 @@
         <v>361430</v>
       </c>
       <c r="C41" s="6">
-        <v>72000</v>
+        <v>96000</v>
       </c>
       <c r="D41" s="6">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -9750,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -9769,7 +9801,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -15269,7 +15301,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15279,22 +15311,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -15302,16 +15334,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
@@ -15322,16 +15354,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -15342,16 +15374,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -15362,16 +15394,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -15382,16 +15414,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -15402,16 +15434,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -15422,16 +15454,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -15442,16 +15474,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="C9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="D9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="E9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="F9" s="3">
         <v>160</v>
@@ -15462,16 +15494,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="D10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="F10" s="3">
         <v>350</v>
@@ -15482,16 +15514,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="C11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="D11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F11" s="3">
         <v>520</v>
@@ -15502,16 +15534,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>730</v>
@@ -15522,16 +15554,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="D13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="E13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="F13" s="3">
         <v>920</v>
@@ -15542,16 +15574,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="C14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="E14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="F14" s="3">
         <v>1220</v>
@@ -15562,16 +15594,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="C15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="D15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="E15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="F15" s="3">
         <v>2470</v>
@@ -15582,16 +15614,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="C16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="D16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="E16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="F16" s="3">
         <v>3860</v>
@@ -15602,16 +15634,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>5340</v>
@@ -15622,16 +15654,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="C18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="D18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="E18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="F18" s="3">
         <v>7800</v>
@@ -15642,16 +15674,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="C19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="D19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="E19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="F19" s="3">
         <v>9610</v>
@@ -15662,16 +15694,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="C20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="D20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="E20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="F20" s="3">
         <v>11730</v>
@@ -15682,16 +15714,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="C21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="D21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="E21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="F21" s="3">
         <v>13770</v>
@@ -15702,16 +15734,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="C22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="D22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
@@ -15722,16 +15754,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="C23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="D23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="E23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="F23" s="3">
         <v>21440</v>
@@ -15742,16 +15774,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="C24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="D24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="E24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="F24" s="3">
         <v>24740</v>
@@ -15762,16 +15794,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="C25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="D25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="E25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="F25" s="3">
         <v>27850</v>
@@ -15782,16 +15814,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="C26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="D26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="E26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="F26" s="3">
         <v>38030</v>
@@ -15802,16 +15834,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="3">
         <v>42460</v>
@@ -15822,16 +15854,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="C28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="D28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="E28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="F28" s="3">
         <v>47770</v>
@@ -15842,16 +15874,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="C29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="3">
         <v>52780</v>
@@ -15862,16 +15894,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="C30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="D30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="F30" s="3">
         <v>75130</v>
@@ -15882,16 +15914,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="C31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="F31" s="3">
         <v>86730</v>
@@ -15902,16 +15934,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="C32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="D32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="3">
         <v>100170</v>
@@ -15922,16 +15954,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F33" s="3">
         <v>113650</v>
@@ -15942,16 +15974,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="C34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="D34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F34" s="3">
         <v>155560</v>
@@ -15962,16 +15994,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="C35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="F35" s="3">
         <v>174800</v>
@@ -15982,16 +16014,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="C36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="D36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="F36" s="3">
         <v>196900</v>
@@ -16002,16 +16034,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="C37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="D37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F37" s="3">
         <v>219150</v>
@@ -16022,16 +16054,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="C38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F38" s="3">
         <v>294720</v>
@@ -16042,16 +16074,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="C39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="D39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="E39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="F39" s="3">
         <v>326020</v>
@@ -16062,16 +16094,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F40" s="1">
         <v>361440</v>
@@ -16082,16 +16114,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="C41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="D41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="F41" s="1">
         <v>397570</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="580" windowWidth="36000" windowHeight="20560" tabRatio="883"/>
+    <workbookView xWindow="920" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -538,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="718">
+  <cellStyleXfs count="728">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -553,6 +553,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1286,7 +1296,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="718">
+  <cellStyles count="728">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1648,6 +1658,11 @@
     <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2002,6 +2017,11 @@
     <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2453,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -12783,8 +12803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12823,16 +12843,16 @@
         <v>25</v>
       </c>
       <c r="C2" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5">
         <v>44</v>
@@ -12846,16 +12866,16 @@
         <v>30</v>
       </c>
       <c r="C3" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" s="6">
         <v>48</v>
@@ -12869,16 +12889,16 @@
         <v>35</v>
       </c>
       <c r="C4" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6">
         <v>52</v>
@@ -12892,16 +12912,16 @@
         <v>40</v>
       </c>
       <c r="C5" s="6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6">
         <v>56</v>
@@ -12915,16 +12935,16 @@
         <v>50</v>
       </c>
       <c r="C6" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="6">
         <v>60</v>
@@ -12938,16 +12958,16 @@
         <v>60</v>
       </c>
       <c r="C7" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6">
         <v>64</v>
@@ -12961,16 +12981,16 @@
         <v>80</v>
       </c>
       <c r="C8" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G8" s="6">
         <v>68</v>
@@ -12984,16 +13004,16 @@
         <v>130</v>
       </c>
       <c r="C9" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G9" s="6">
         <v>72</v>
@@ -13007,16 +13027,16 @@
         <v>270</v>
       </c>
       <c r="C10" s="6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E10" s="6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G10" s="6">
         <v>76</v>
@@ -13030,16 +13050,16 @@
         <v>400</v>
       </c>
       <c r="C11" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6">
         <v>80</v>
@@ -13053,16 +13073,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G12" s="6">
         <v>84</v>
@@ -13076,16 +13096,16 @@
         <v>690</v>
       </c>
       <c r="C13" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F13" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6">
         <v>88</v>
@@ -13099,16 +13119,16 @@
         <v>900</v>
       </c>
       <c r="C14" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6">
         <v>92</v>
@@ -13122,16 +13142,16 @@
         <v>1810</v>
       </c>
       <c r="C15" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F15" s="6">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G15" s="6">
         <v>96</v>
@@ -13145,16 +13165,16 @@
         <v>2820</v>
       </c>
       <c r="C16" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F16" s="6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G16" s="6">
         <v>100</v>
@@ -13168,16 +13188,16 @@
         <v>3900</v>
       </c>
       <c r="C17" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F17" s="6">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G17" s="6">
         <v>104</v>
@@ -13191,16 +13211,16 @@
         <v>5690</v>
       </c>
       <c r="C18" s="6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D18" s="6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E18" s="6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F18" s="6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G18" s="6">
         <v>108</v>
@@ -13214,16 +13234,16 @@
         <v>7000</v>
       </c>
       <c r="C19" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E19" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F19" s="6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G19" s="6">
         <v>112</v>
@@ -13237,16 +13257,16 @@
         <v>8550</v>
       </c>
       <c r="C20" s="6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F20" s="6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G20" s="6">
         <v>116</v>
@@ -13260,16 +13280,16 @@
         <v>10030</v>
       </c>
       <c r="C21" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D21" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E21" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F21" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G21" s="6">
         <v>120</v>
@@ -13283,16 +13303,16 @@
         <v>13620</v>
       </c>
       <c r="C22" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D22" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F22" s="6">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G22" s="6">
         <v>124</v>
@@ -13306,16 +13326,16 @@
         <v>15610</v>
       </c>
       <c r="C23" s="6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D23" s="6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F23" s="6">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G23" s="6">
         <v>128</v>
@@ -13329,16 +13349,16 @@
         <v>18010</v>
       </c>
       <c r="C24" s="6">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E24" s="6">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F24" s="6">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G24" s="6">
         <v>132</v>
@@ -13352,16 +13372,16 @@
         <v>20270</v>
       </c>
       <c r="C25" s="6">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E25" s="6">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F25" s="6">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G25" s="6">
         <v>136</v>
@@ -13375,16 +13395,16 @@
         <v>27680</v>
       </c>
       <c r="C26" s="6">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D26" s="6">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E26" s="6">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F26" s="6">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G26" s="6">
         <v>140</v>
@@ -13398,16 +13418,16 @@
         <v>30900</v>
       </c>
       <c r="C27" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D27" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F27" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G27" s="6">
         <v>144</v>
@@ -13421,16 +13441,16 @@
         <v>34760</v>
       </c>
       <c r="C28" s="6">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D28" s="6">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E28" s="6">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F28" s="6">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G28" s="6">
         <v>148</v>
@@ -13444,16 +13464,16 @@
         <v>38410</v>
       </c>
       <c r="C29" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E29" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F29" s="6">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G29" s="6">
         <v>152</v>
@@ -13467,16 +13487,16 @@
         <v>54660</v>
       </c>
       <c r="C30" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D30" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E30" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F30" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G30" s="6">
         <v>156</v>
@@ -13490,16 +13510,16 @@
         <v>63090</v>
       </c>
       <c r="C31" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D31" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E31" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F31" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G31" s="6">
         <v>160</v>
@@ -13513,16 +13533,16 @@
         <v>72870</v>
       </c>
       <c r="C32" s="6">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D32" s="6">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E32" s="6">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F32" s="6">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G32" s="6">
         <v>164</v>
@@ -13536,16 +13556,16 @@
         <v>82670</v>
       </c>
       <c r="C33" s="6">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D33" s="6">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E33" s="6">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F33" s="6">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G33" s="6">
         <v>168</v>
@@ -13559,16 +13579,16 @@
         <v>113160</v>
       </c>
       <c r="C34" s="6">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E34" s="6">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F34" s="6">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G34" s="6">
         <v>172</v>
@@ -13582,16 +13602,16 @@
         <v>127150</v>
       </c>
       <c r="C35" s="6">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D35" s="6">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E35" s="6">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F35" s="6">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="G35" s="6">
         <v>176</v>
@@ -13605,16 +13625,16 @@
         <v>143220</v>
       </c>
       <c r="C36" s="6">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D36" s="6">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E36" s="6">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F36" s="6">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G36" s="6">
         <v>180</v>
@@ -13628,16 +13648,16 @@
         <v>159400</v>
       </c>
       <c r="C37" s="6">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D37" s="6">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E37" s="6">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F37" s="6">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G37" s="6">
         <v>184</v>
@@ -13651,16 +13671,16 @@
         <v>214360</v>
       </c>
       <c r="C38" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D38" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E38" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F38" s="6">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G38" s="6">
         <v>188</v>
@@ -13674,16 +13694,16 @@
         <v>237130</v>
       </c>
       <c r="C39" s="6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D39" s="6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E39" s="6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F39" s="6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G39" s="6">
         <v>192</v>
@@ -13697,16 +13717,16 @@
         <v>262890</v>
       </c>
       <c r="C40" s="6">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D40" s="6">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E40" s="6">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F40" s="6">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G40" s="6">
         <v>196</v>
@@ -13720,16 +13740,16 @@
         <v>289160</v>
       </c>
       <c r="C41" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D41" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E41" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F41" s="6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G41" s="6">
         <v>200</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>FLOAT_efficiency</t>
   </si>
@@ -229,29 +229,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman</t>
-  </si>
-  <si>
-    <t>STR_unlockedSoldiers</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -268,22 +245,6 @@
   </si>
   <si>
     <t>INT_power</t>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult,ballista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FLOAT_protection</t>
@@ -2473,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3559,16 +3520,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4164,34 +4125,34 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>5</v>
@@ -6466,16 +6427,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7065,16 +7026,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7664,16 +7625,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8266,16 +8227,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9825,7 +9786,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -11359,7 +11320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -12803,8 +12764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13769,20 +13730,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -13790,569 +13749,446 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>250</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>300</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>350</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>400</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3">
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>450</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3">
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>500</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3">
         <v>1120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>550</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3">
         <v>1470</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>600</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="3">
         <v>2940</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>650</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="3">
         <v>4580</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>700</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3">
         <v>6340</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>750</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="3">
         <v>9250</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>800</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="3">
         <v>11380</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>850</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>900</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>950</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3">
         <v>22130</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>1000</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="3">
         <v>25360</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>1100</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="3">
         <v>29270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>1200</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="3">
         <v>32940</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>1300</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3">
         <v>44980</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>1400</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="3">
         <v>50210</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>1500</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="3">
         <v>56480</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>1600</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="3">
         <v>62410</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>1700</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="3">
         <v>88820</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>1800</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="3">
         <v>102520</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>1900</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="3">
         <v>118410</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>2000</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="3">
         <v>134340</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>2100</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="3">
         <v>183880</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>2200</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="3">
         <v>206610</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>2300</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="3">
         <v>232730</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>2400</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="3">
         <v>259030</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>2500</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="3">
         <v>348330</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>2600</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="3">
         <v>385330</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>2800</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="1">
         <v>427190</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>3000</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="1">
         <v>469890</v>
       </c>
     </row>
@@ -15338,19 +15174,19 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="5"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -499,7 +499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="728">
+  <cellStyleXfs count="752">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -514,6 +514,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1257,7 +1281,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="728">
+  <cellStyles count="752">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1624,6 +1648,18 @@
     <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1983,6 +2019,18 @@
     <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2434,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4109,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:L41"/>
+      <selection activeCell="J2" sqref="J2:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4181,13 +4229,13 @@
         <v>160</v>
       </c>
       <c r="H2" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="I2" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J2" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="K2" s="1">
         <v>320</v>
@@ -4219,13 +4267,13 @@
         <v>320</v>
       </c>
       <c r="H3" s="1">
-        <v>15920</v>
+        <v>7960</v>
       </c>
       <c r="I3" s="1">
-        <v>15920</v>
+        <v>7960</v>
       </c>
       <c r="J3" s="1">
-        <v>15920</v>
+        <v>7960</v>
       </c>
       <c r="K3" s="1">
         <v>640</v>
@@ -4257,13 +4305,13 @@
         <v>480</v>
       </c>
       <c r="H4" s="1">
-        <v>31680</v>
+        <v>15840</v>
       </c>
       <c r="I4" s="1">
-        <v>31680</v>
+        <v>15840</v>
       </c>
       <c r="J4" s="1">
-        <v>31680</v>
+        <v>15840</v>
       </c>
       <c r="K4" s="1">
         <v>960</v>
@@ -4295,13 +4343,13 @@
         <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>47280</v>
+        <v>23640</v>
       </c>
       <c r="I5" s="1">
-        <v>47280</v>
+        <v>23640</v>
       </c>
       <c r="J5" s="1">
-        <v>47280</v>
+        <v>23640</v>
       </c>
       <c r="K5" s="1">
         <v>1280</v>
@@ -4333,13 +4381,13 @@
         <v>800</v>
       </c>
       <c r="H6" s="1">
-        <v>62720</v>
+        <v>31360</v>
       </c>
       <c r="I6" s="1">
-        <v>62720</v>
+        <v>31360</v>
       </c>
       <c r="J6" s="1">
-        <v>62720</v>
+        <v>31360</v>
       </c>
       <c r="K6" s="1">
         <v>1600</v>
@@ -4371,13 +4419,13 @@
         <v>960</v>
       </c>
       <c r="H7" s="1">
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="I7" s="1">
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="J7" s="1">
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="K7" s="1">
         <v>1920</v>
@@ -4409,13 +4457,13 @@
         <v>1120</v>
       </c>
       <c r="H8" s="1">
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="I8" s="1">
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="J8" s="1">
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="K8" s="1">
         <v>2240</v>
@@ -4447,13 +4495,13 @@
         <v>1280</v>
       </c>
       <c r="H9" s="1">
-        <v>115800</v>
+        <v>57900</v>
       </c>
       <c r="I9" s="1">
-        <v>115800</v>
+        <v>57900</v>
       </c>
       <c r="J9" s="1">
-        <v>115800</v>
+        <v>57900</v>
       </c>
       <c r="K9" s="1">
         <v>2560</v>
@@ -4485,13 +4533,13 @@
         <v>1440</v>
       </c>
       <c r="H10" s="1">
-        <v>153600</v>
+        <v>76800</v>
       </c>
       <c r="I10" s="1">
-        <v>153600</v>
+        <v>76800</v>
       </c>
       <c r="J10" s="1">
-        <v>153600</v>
+        <v>76800</v>
       </c>
       <c r="K10" s="1">
         <v>2880</v>
@@ -4523,13 +4571,13 @@
         <v>1600</v>
       </c>
       <c r="H11" s="1">
-        <v>191000</v>
+        <v>95500</v>
       </c>
       <c r="I11" s="1">
-        <v>191000</v>
+        <v>95500</v>
       </c>
       <c r="J11" s="1">
-        <v>191000</v>
+        <v>95500</v>
       </c>
       <c r="K11" s="1">
         <v>3200</v>
@@ -4561,13 +4609,13 @@
         <v>1760</v>
       </c>
       <c r="H12" s="1">
-        <v>228000</v>
+        <v>114000</v>
       </c>
       <c r="I12" s="1">
-        <v>228000</v>
+        <v>114000</v>
       </c>
       <c r="J12" s="1">
-        <v>228000</v>
+        <v>114000</v>
       </c>
       <c r="K12" s="1">
         <v>3520</v>
@@ -4599,13 +4647,13 @@
         <v>1920</v>
       </c>
       <c r="H13" s="1">
-        <v>264600</v>
+        <v>132300</v>
       </c>
       <c r="I13" s="1">
-        <v>264600</v>
+        <v>132300</v>
       </c>
       <c r="J13" s="1">
-        <v>264600</v>
+        <v>132300</v>
       </c>
       <c r="K13" s="1">
         <v>3840</v>
@@ -4637,13 +4685,13 @@
         <v>2080</v>
       </c>
       <c r="H14" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="I14" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="J14" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="K14" s="1">
         <v>4160</v>
@@ -4675,13 +4723,13 @@
         <v>2240</v>
       </c>
       <c r="H15" s="1">
-        <v>336600</v>
+        <v>168300</v>
       </c>
       <c r="I15" s="1">
-        <v>336600</v>
+        <v>168300</v>
       </c>
       <c r="J15" s="1">
-        <v>336600</v>
+        <v>168300</v>
       </c>
       <c r="K15" s="1">
         <v>4480</v>
@@ -4713,13 +4761,13 @@
         <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>372000</v>
+        <v>186000</v>
       </c>
       <c r="I16" s="1">
-        <v>372000</v>
+        <v>186000</v>
       </c>
       <c r="J16" s="1">
-        <v>372000</v>
+        <v>186000</v>
       </c>
       <c r="K16" s="1">
         <v>4800</v>
@@ -4751,13 +4799,13 @@
         <v>2560</v>
       </c>
       <c r="H17" s="1">
-        <v>407000</v>
+        <v>203500</v>
       </c>
       <c r="I17" s="1">
-        <v>407000</v>
+        <v>203500</v>
       </c>
       <c r="J17" s="1">
-        <v>407000</v>
+        <v>203500</v>
       </c>
       <c r="K17" s="1">
         <v>5120</v>
@@ -4789,13 +4837,13 @@
         <v>2880</v>
       </c>
       <c r="H18" s="1">
-        <v>441600</v>
+        <v>220800</v>
       </c>
       <c r="I18" s="1">
-        <v>441600</v>
+        <v>220800</v>
       </c>
       <c r="J18" s="1">
-        <v>441600</v>
+        <v>220800</v>
       </c>
       <c r="K18" s="1">
         <v>5760</v>
@@ -4827,13 +4875,13 @@
         <v>3200</v>
       </c>
       <c r="H19" s="1">
-        <v>475800</v>
+        <v>237900</v>
       </c>
       <c r="I19" s="1">
-        <v>475800</v>
+        <v>237900</v>
       </c>
       <c r="J19" s="1">
-        <v>475800</v>
+        <v>237900</v>
       </c>
       <c r="K19" s="1">
         <v>6400</v>
@@ -4865,13 +4913,13 @@
         <v>3520</v>
       </c>
       <c r="H20" s="1">
-        <v>509600</v>
+        <v>254800</v>
       </c>
       <c r="I20" s="1">
-        <v>509600</v>
+        <v>254800</v>
       </c>
       <c r="J20" s="1">
-        <v>509600</v>
+        <v>254800</v>
       </c>
       <c r="K20" s="1">
         <v>7040</v>
@@ -4903,13 +4951,13 @@
         <v>3840</v>
       </c>
       <c r="H21" s="1">
-        <v>543000</v>
+        <v>271500</v>
       </c>
       <c r="I21" s="1">
-        <v>543000</v>
+        <v>271500</v>
       </c>
       <c r="J21" s="1">
-        <v>543000</v>
+        <v>271500</v>
       </c>
       <c r="K21" s="1">
         <v>7680</v>
@@ -4941,13 +4989,13 @@
         <v>4160</v>
       </c>
       <c r="H22" s="1">
-        <v>576000</v>
+        <v>288000</v>
       </c>
       <c r="I22" s="1">
-        <v>576000</v>
+        <v>288000</v>
       </c>
       <c r="J22" s="1">
-        <v>576000</v>
+        <v>288000</v>
       </c>
       <c r="K22" s="1">
         <v>8320</v>
@@ -4979,13 +5027,13 @@
         <v>4480</v>
       </c>
       <c r="H23" s="1">
-        <v>608600</v>
+        <v>304300</v>
       </c>
       <c r="I23" s="1">
-        <v>608600</v>
+        <v>304300</v>
       </c>
       <c r="J23" s="1">
-        <v>608600</v>
+        <v>304300</v>
       </c>
       <c r="K23" s="1">
         <v>8960</v>
@@ -5017,13 +5065,13 @@
         <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>640800</v>
+        <v>320400</v>
       </c>
       <c r="I24" s="1">
-        <v>640800</v>
+        <v>320400</v>
       </c>
       <c r="J24" s="1">
-        <v>640800</v>
+        <v>320400</v>
       </c>
       <c r="K24" s="1">
         <v>9600</v>
@@ -5055,13 +5103,13 @@
         <v>5120</v>
       </c>
       <c r="H25" s="1">
-        <v>672600</v>
+        <v>336300</v>
       </c>
       <c r="I25" s="1">
-        <v>672600</v>
+        <v>336300</v>
       </c>
       <c r="J25" s="1">
-        <v>672600</v>
+        <v>336300</v>
       </c>
       <c r="K25" s="1">
         <v>10240</v>
@@ -5093,13 +5141,13 @@
         <v>5440</v>
       </c>
       <c r="H26" s="1">
-        <v>704000</v>
+        <v>352000</v>
       </c>
       <c r="I26" s="1">
-        <v>704000</v>
+        <v>352000</v>
       </c>
       <c r="J26" s="1">
-        <v>704000</v>
+        <v>352000</v>
       </c>
       <c r="K26" s="1">
         <v>10880</v>
@@ -5131,13 +5179,13 @@
         <v>5760</v>
       </c>
       <c r="H27" s="1">
-        <v>770000</v>
+        <v>385000</v>
       </c>
       <c r="I27" s="1">
-        <v>770000</v>
+        <v>385000</v>
       </c>
       <c r="J27" s="1">
-        <v>770000</v>
+        <v>385000</v>
       </c>
       <c r="K27" s="1">
         <v>11520</v>
@@ -5169,13 +5217,13 @@
         <v>6080</v>
       </c>
       <c r="H28" s="1">
-        <v>835200</v>
+        <v>417600</v>
       </c>
       <c r="I28" s="1">
-        <v>835200</v>
+        <v>417600</v>
       </c>
       <c r="J28" s="1">
-        <v>835200</v>
+        <v>417600</v>
       </c>
       <c r="K28" s="1">
         <v>12160</v>
@@ -5207,13 +5255,13 @@
         <v>6400</v>
       </c>
       <c r="H29" s="1">
-        <v>899600</v>
+        <v>449800</v>
       </c>
       <c r="I29" s="1">
-        <v>899600</v>
+        <v>449800</v>
       </c>
       <c r="J29" s="1">
-        <v>899600</v>
+        <v>449800</v>
       </c>
       <c r="K29" s="1">
         <v>12800</v>
@@ -5245,13 +5293,13 @@
         <v>7200</v>
       </c>
       <c r="H30" s="1">
-        <v>963200</v>
+        <v>481600</v>
       </c>
       <c r="I30" s="1">
-        <v>963200</v>
+        <v>481600</v>
       </c>
       <c r="J30" s="1">
-        <v>963200</v>
+        <v>481600</v>
       </c>
       <c r="K30" s="1">
         <v>14400</v>
@@ -5283,13 +5331,13 @@
         <v>8000</v>
       </c>
       <c r="H31" s="1">
-        <v>1026000</v>
+        <v>513000</v>
       </c>
       <c r="I31" s="1">
-        <v>1026000</v>
+        <v>513000</v>
       </c>
       <c r="J31" s="1">
-        <v>1026000</v>
+        <v>513000</v>
       </c>
       <c r="K31" s="1">
         <v>16000</v>
@@ -5321,13 +5369,13 @@
         <v>8800</v>
       </c>
       <c r="H32" s="1">
-        <v>1088000</v>
+        <v>544000</v>
       </c>
       <c r="I32" s="1">
-        <v>1088000</v>
+        <v>544000</v>
       </c>
       <c r="J32" s="1">
-        <v>1088000</v>
+        <v>544000</v>
       </c>
       <c r="K32" s="1">
         <v>17600</v>
@@ -5359,13 +5407,13 @@
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>1149200</v>
+        <v>574600</v>
       </c>
       <c r="I33" s="1">
-        <v>1149200</v>
+        <v>574600</v>
       </c>
       <c r="J33" s="1">
-        <v>1149200</v>
+        <v>574600</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
@@ -5397,13 +5445,13 @@
         <v>10400</v>
       </c>
       <c r="H34" s="1">
-        <v>1209600</v>
+        <v>604800</v>
       </c>
       <c r="I34" s="1">
-        <v>1209600</v>
+        <v>604800</v>
       </c>
       <c r="J34" s="1">
-        <v>1209600</v>
+        <v>604800</v>
       </c>
       <c r="K34" s="1">
         <v>20800</v>
@@ -5435,13 +5483,13 @@
         <v>11200</v>
       </c>
       <c r="H35" s="1">
-        <v>1269200</v>
+        <v>634600</v>
       </c>
       <c r="I35" s="1">
-        <v>1269200</v>
+        <v>634600</v>
       </c>
       <c r="J35" s="1">
-        <v>1269200</v>
+        <v>634600</v>
       </c>
       <c r="K35" s="1">
         <v>22400</v>
@@ -5473,13 +5521,13 @@
         <v>12000</v>
       </c>
       <c r="H36" s="1">
-        <v>1328000</v>
+        <v>664000</v>
       </c>
       <c r="I36" s="1">
-        <v>1328000</v>
+        <v>664000</v>
       </c>
       <c r="J36" s="1">
-        <v>1328000</v>
+        <v>664000</v>
       </c>
       <c r="K36" s="1">
         <v>24000</v>
@@ -5511,13 +5559,13 @@
         <v>12800</v>
       </c>
       <c r="H37" s="1">
-        <v>1386000</v>
+        <v>693000</v>
       </c>
       <c r="I37" s="1">
-        <v>1386000</v>
+        <v>693000</v>
       </c>
       <c r="J37" s="1">
-        <v>1386000</v>
+        <v>693000</v>
       </c>
       <c r="K37" s="1">
         <v>25600</v>
@@ -5549,13 +5597,13 @@
         <v>13600</v>
       </c>
       <c r="H38" s="1">
-        <v>1443200</v>
+        <v>721600</v>
       </c>
       <c r="I38" s="1">
-        <v>1443200</v>
+        <v>721600</v>
       </c>
       <c r="J38" s="1">
-        <v>1443200</v>
+        <v>721600</v>
       </c>
       <c r="K38" s="1">
         <v>27200</v>
@@ -5587,13 +5635,13 @@
         <v>14400</v>
       </c>
       <c r="H39" s="1">
-        <v>1499600</v>
+        <v>749800</v>
       </c>
       <c r="I39" s="1">
-        <v>1499600</v>
+        <v>749800</v>
       </c>
       <c r="J39" s="1">
-        <v>1499600</v>
+        <v>749800</v>
       </c>
       <c r="K39" s="1">
         <v>28800</v>
@@ -5625,13 +5673,13 @@
         <v>15200</v>
       </c>
       <c r="H40" s="1">
-        <v>1555200</v>
+        <v>777600</v>
       </c>
       <c r="I40" s="1">
-        <v>1555200</v>
+        <v>777600</v>
       </c>
       <c r="J40" s="1">
-        <v>1555200</v>
+        <v>777600</v>
       </c>
       <c r="K40" s="1">
         <v>30400</v>
@@ -5663,13 +5711,13 @@
         <v>16000</v>
       </c>
       <c r="H41" s="1">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="I41" s="1">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="J41" s="1">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="K41" s="1">
         <v>32000</v>
@@ -5677,6 +5725,30 @@
       <c r="L41" s="1">
         <v>404820</v>
       </c>
+    </row>
+    <row r="90" spans="6:6" ht="20" customHeight="1">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6" ht="20" customHeight="1">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="6:6" ht="20" customHeight="1">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="6:6" ht="20" customHeight="1">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="6:6" ht="20" customHeight="1">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="6:6" ht="20" customHeight="1">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="6:6" ht="20" customHeight="1">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="6:6" ht="20" customHeight="1">
+      <c r="F97" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6416,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B44"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6446,8 +6518,8 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.01</v>
+      <c r="C2" s="6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="3">
         <v>40</v>
@@ -6460,8 +6532,8 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
+      <c r="C3" s="6">
+        <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <v>45</v>
@@ -6474,8 +6546,8 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
         <v>50</v>
@@ -6488,8 +6560,8 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.04</v>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -6502,8 +6574,8 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.05</v>
+      <c r="C6" s="6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="3">
         <v>70</v>
@@ -6516,8 +6588,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.06</v>
+      <c r="C7" s="6">
+        <v>0.03</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -6530,8 +6602,8 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -6544,8 +6616,8 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.08</v>
+      <c r="C9" s="6">
+        <v>0.04</v>
       </c>
       <c r="D9" s="3">
         <v>160</v>
@@ -6558,8 +6630,8 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
+      <c r="C10" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="3">
         <v>310</v>
@@ -6572,8 +6644,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
+      <c r="C11" s="6">
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
         <v>450</v>
@@ -6586,8 +6658,8 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.11</v>
+      <c r="C12" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="3">
         <v>610</v>
@@ -6600,8 +6672,8 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
+      <c r="C13" s="6">
+        <v>0.06</v>
       </c>
       <c r="D13" s="3">
         <v>770</v>
@@ -6614,8 +6686,8 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.13</v>
+      <c r="C14" s="6">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="3">
         <v>1010</v>
@@ -6628,8 +6700,8 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="3">
         <v>2010</v>
@@ -6642,8 +6714,8 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.15</v>
+      <c r="C16" s="6">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="3">
         <v>3120</v>
@@ -6656,8 +6728,8 @@
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
+      <c r="C17" s="6">
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>4300</v>
@@ -6670,8 +6742,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.17</v>
+      <c r="C18" s="6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="3">
         <v>6270</v>
@@ -6684,8 +6756,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.18</v>
+      <c r="C19" s="6">
+        <v>0.09</v>
       </c>
       <c r="D19" s="3">
         <v>7720</v>
@@ -6698,8 +6770,8 @@
       <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.19</v>
+      <c r="C20" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <v>9420</v>
@@ -6712,8 +6784,8 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
+      <c r="C21" s="6">
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>11040</v>
@@ -6726,8 +6798,8 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.21</v>
+      <c r="C22" s="6">
+        <v>0.105</v>
       </c>
       <c r="D22" s="3">
         <v>14990</v>
@@ -6740,8 +6812,8 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.22</v>
+      <c r="C23" s="6">
+        <v>0.11</v>
       </c>
       <c r="D23" s="3">
         <v>17180</v>
@@ -6754,8 +6826,8 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.23</v>
+      <c r="C24" s="6">
+        <v>0.115</v>
       </c>
       <c r="D24" s="3">
         <v>19830</v>
@@ -6768,8 +6840,8 @@
       <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.24</v>
+      <c r="C25" s="6">
+        <v>0.12</v>
       </c>
       <c r="D25" s="3">
         <v>22310</v>
@@ -6782,8 +6854,8 @@
       <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.25</v>
+      <c r="C26" s="6">
+        <v>0.125</v>
       </c>
       <c r="D26" s="3">
         <v>30460</v>
@@ -6796,8 +6868,8 @@
       <c r="B27" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.26</v>
+      <c r="C27" s="6">
+        <v>0.13</v>
       </c>
       <c r="D27" s="3">
         <v>34000</v>
@@ -6810,8 +6882,8 @@
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.27</v>
+      <c r="C28" s="6">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>38250</v>
@@ -6824,8 +6896,8 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.28000000000000003</v>
+      <c r="C29" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="3">
         <v>42260</v>
@@ -6838,8 +6910,8 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.28999999999999998</v>
+      <c r="C30" s="6">
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="3">
         <v>60130</v>
@@ -6852,8 +6924,8 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.3</v>
+      <c r="C31" s="6">
+        <v>0.15</v>
       </c>
       <c r="D31" s="3">
         <v>69410</v>
@@ -6866,8 +6938,8 @@
       <c r="B32" s="6">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.31</v>
+      <c r="C32" s="6">
+        <v>0.155</v>
       </c>
       <c r="D32" s="3">
         <v>80170</v>
@@ -6880,8 +6952,8 @@
       <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.32</v>
+      <c r="C33" s="6">
+        <v>0.16</v>
       </c>
       <c r="D33" s="3">
         <v>90950</v>
@@ -6894,8 +6966,8 @@
       <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.33</v>
+      <c r="C34" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>124480</v>
@@ -6908,8 +6980,8 @@
       <c r="B35" s="6">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.34</v>
+      <c r="C35" s="6">
+        <v>0.17</v>
       </c>
       <c r="D35" s="3">
         <v>139870</v>
@@ -6922,8 +6994,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.35</v>
+      <c r="C36" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="3">
         <v>157550</v>
@@ -6936,8 +7008,8 @@
       <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.36</v>
+      <c r="C37" s="6">
+        <v>0.18</v>
       </c>
       <c r="D37" s="3">
         <v>175350</v>
@@ -6950,8 +7022,8 @@
       <c r="B38" s="6">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.37</v>
+      <c r="C38" s="6">
+        <v>0.185</v>
       </c>
       <c r="D38" s="3">
         <v>235810</v>
@@ -6964,8 +7036,8 @@
       <c r="B39" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.38</v>
+      <c r="C39" s="6">
+        <v>0.19</v>
       </c>
       <c r="D39" s="3">
         <v>260850</v>
@@ -6978,8 +7050,8 @@
       <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.39</v>
+      <c r="C40" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="1">
         <v>289190</v>
@@ -6992,8 +7064,8 @@
       <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
+      <c r="C41" s="6">
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
         <v>318090</v>
@@ -7015,8 +7087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7046,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
@@ -7060,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D3" s="6">
         <v>45</v>
@@ -7074,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="6">
         <v>50</v>
@@ -7088,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="6">
         <v>60</v>
@@ -7102,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="6">
         <v>70</v>
@@ -7116,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D7" s="6">
         <v>80</v>
@@ -7130,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="6">
         <v>100</v>
@@ -7144,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D9" s="6">
         <v>170</v>
@@ -7158,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6">
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="6">
         <v>320</v>
@@ -7172,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D11" s="6">
         <v>470</v>
@@ -7186,7 +7258,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>0.11</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="6">
         <v>640</v>
@@ -7200,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="6">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="D13" s="6">
         <v>800</v>
@@ -7214,7 +7286,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="6">
-        <v>0.13</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="6">
         <v>1050</v>
@@ -7228,7 +7300,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="6">
         <v>2100</v>
@@ -7242,7 +7314,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="6">
-        <v>0.15</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="6">
         <v>3260</v>
@@ -7256,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="6">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="D17" s="6">
         <v>4500</v>
@@ -7270,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>0.17</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="6">
         <v>6560</v>
@@ -7284,7 +7356,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="D19" s="6">
         <v>8070</v>
@@ -7298,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="6">
-        <v>0.19</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="6">
         <v>9850</v>
@@ -7312,7 +7384,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D21" s="6">
         <v>11540</v>
@@ -7326,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="6">
-        <v>0.21</v>
+        <v>0.105</v>
       </c>
       <c r="D22" s="6">
         <v>15670</v>
@@ -7340,7 +7412,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="6">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="D23" s="6">
         <v>17960</v>
@@ -7354,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6">
-        <v>0.23</v>
+        <v>0.115</v>
       </c>
       <c r="D24" s="6">
         <v>20720</v>
@@ -7368,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="6">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="D25" s="6">
         <v>23320</v>
@@ -7382,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="6">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="D26" s="6">
         <v>31840</v>
@@ -7396,7 +7468,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="6">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="D27" s="6">
         <v>35540</v>
@@ -7410,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="6">
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="6">
         <v>39980</v>
@@ -7424,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="6">
         <v>44180</v>
@@ -7438,7 +7510,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="6">
         <v>62870</v>
@@ -7452,7 +7524,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="6">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D31" s="6">
         <v>72570</v>
@@ -7466,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="6">
-        <v>0.31</v>
+        <v>0.155</v>
       </c>
       <c r="D32" s="6">
         <v>83810</v>
@@ -7480,7 +7552,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="6">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="D33" s="6">
         <v>95090</v>
@@ -7494,7 +7566,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="6">
-        <v>0.33</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="6">
         <v>130140</v>
@@ -7508,7 +7580,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="6">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="D35" s="6">
         <v>146230</v>
@@ -7522,7 +7594,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="6">
-        <v>0.35</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="6">
         <v>164710</v>
@@ -7536,7 +7608,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="6">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="D37" s="6">
         <v>183320</v>
@@ -7550,7 +7622,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="6">
-        <v>0.37</v>
+        <v>0.185</v>
       </c>
       <c r="D38" s="6">
         <v>246520</v>
@@ -7564,7 +7636,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="6">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="D39" s="6">
         <v>272710</v>
@@ -7578,7 +7650,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="6">
-        <v>0.39</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="6">
         <v>302330</v>
@@ -7592,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
         <v>332550</v>
@@ -7614,8 +7686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7644,8 +7716,8 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.01</v>
+      <c r="C2" s="6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="3">
         <v>45</v>
@@ -7658,8 +7730,8 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
+      <c r="C3" s="6">
+        <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
@@ -7672,8 +7744,8 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
         <v>55</v>
@@ -7686,8 +7758,8 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.04</v>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -7700,8 +7772,8 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.05</v>
+      <c r="C6" s="6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="3">
         <v>70</v>
@@ -7714,8 +7786,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.06</v>
+      <c r="C7" s="6">
+        <v>0.03</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -7728,8 +7800,8 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -7742,8 +7814,8 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.08</v>
+      <c r="C9" s="6">
+        <v>0.04</v>
       </c>
       <c r="D9" s="3">
         <v>170</v>
@@ -7756,8 +7828,8 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
+      <c r="C10" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="3">
         <v>330</v>
@@ -7770,8 +7842,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
+      <c r="C11" s="6">
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
         <v>490</v>
@@ -7784,8 +7856,8 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.11</v>
+      <c r="C12" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="3">
         <v>660</v>
@@ -7798,8 +7870,8 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
+      <c r="C13" s="6">
+        <v>0.06</v>
       </c>
       <c r="D13" s="3">
         <v>830</v>
@@ -7812,8 +7884,8 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.13</v>
+      <c r="C14" s="6">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="3">
         <v>1090</v>
@@ -7826,8 +7898,8 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="3">
         <v>2190</v>
@@ -7840,8 +7912,8 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.15</v>
+      <c r="C16" s="6">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="3">
         <v>3400</v>
@@ -7854,8 +7926,8 @@
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
+      <c r="C17" s="6">
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>4690</v>
@@ -7868,8 +7940,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.17</v>
+      <c r="C18" s="6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="3">
         <v>6840</v>
@@ -7882,8 +7954,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.18</v>
+      <c r="C19" s="6">
+        <v>0.09</v>
       </c>
       <c r="D19" s="3">
         <v>8410</v>
@@ -7896,8 +7968,8 @@
       <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.19</v>
+      <c r="C20" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <v>10270</v>
@@ -7910,8 +7982,8 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
+      <c r="C21" s="6">
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>12040</v>
@@ -7924,8 +7996,8 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.21</v>
+      <c r="C22" s="6">
+        <v>0.105</v>
       </c>
       <c r="D22" s="3">
         <v>16350</v>
@@ -7938,8 +8010,8 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.22</v>
+      <c r="C23" s="6">
+        <v>0.11</v>
       </c>
       <c r="D23" s="3">
         <v>18740</v>
@@ -7952,8 +8024,8 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.23</v>
+      <c r="C24" s="6">
+        <v>0.115</v>
       </c>
       <c r="D24" s="3">
         <v>21620</v>
@@ -7966,8 +8038,8 @@
       <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.24</v>
+      <c r="C25" s="6">
+        <v>0.12</v>
       </c>
       <c r="D25" s="3">
         <v>24330</v>
@@ -7980,8 +8052,8 @@
       <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.25</v>
+      <c r="C26" s="6">
+        <v>0.125</v>
       </c>
       <c r="D26" s="3">
         <v>33230</v>
@@ -7994,8 +8066,8 @@
       <c r="B27" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.26</v>
+      <c r="C27" s="6">
+        <v>0.13</v>
       </c>
       <c r="D27" s="3">
         <v>37090</v>
@@ -8008,8 +8080,8 @@
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.27</v>
+      <c r="C28" s="6">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>41720</v>
@@ -8022,8 +8094,8 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.28000000000000003</v>
+      <c r="C29" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="3">
         <v>46100</v>
@@ -8036,8 +8108,8 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.28999999999999998</v>
+      <c r="C30" s="6">
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="3">
         <v>65600</v>
@@ -8050,8 +8122,8 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.3</v>
+      <c r="C31" s="6">
+        <v>0.15</v>
       </c>
       <c r="D31" s="3">
         <v>75720</v>
@@ -8064,8 +8136,8 @@
       <c r="B32" s="6">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.31</v>
+      <c r="C32" s="6">
+        <v>0.155</v>
       </c>
       <c r="D32" s="3">
         <v>87450</v>
@@ -8078,8 +8150,8 @@
       <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.32</v>
+      <c r="C33" s="6">
+        <v>0.16</v>
       </c>
       <c r="D33" s="3">
         <v>99220</v>
@@ -8092,8 +8164,8 @@
       <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.33</v>
+      <c r="C34" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>135800</v>
@@ -8106,8 +8178,8 @@
       <c r="B35" s="6">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.34</v>
+      <c r="C35" s="6">
+        <v>0.17</v>
       </c>
       <c r="D35" s="3">
         <v>152590</v>
@@ -8120,8 +8192,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.35</v>
+      <c r="C36" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="3">
         <v>171870</v>
@@ -8134,8 +8206,8 @@
       <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.36</v>
+      <c r="C37" s="6">
+        <v>0.18</v>
       </c>
       <c r="D37" s="3">
         <v>191290</v>
@@ -8148,8 +8220,8 @@
       <c r="B38" s="6">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.37</v>
+      <c r="C38" s="6">
+        <v>0.185</v>
       </c>
       <c r="D38" s="3">
         <v>257240</v>
@@ -8162,8 +8234,8 @@
       <c r="B39" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.38</v>
+      <c r="C39" s="6">
+        <v>0.19</v>
       </c>
       <c r="D39" s="3">
         <v>284560</v>
@@ -8176,8 +8248,8 @@
       <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.39</v>
+      <c r="C40" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="3">
         <v>315470</v>
@@ -8190,8 +8262,8 @@
       <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
+      <c r="C41" s="6">
+        <v>0.2</v>
       </c>
       <c r="D41" s="3">
         <v>347000</v>
@@ -8216,8 +8288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8246,8 +8318,8 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.01</v>
+      <c r="C2" s="6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="3">
         <v>40</v>
@@ -8260,8 +8332,8 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
+      <c r="C3" s="6">
+        <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <v>45</v>
@@ -8274,8 +8346,8 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
         <v>50</v>
@@ -8288,8 +8360,8 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.04</v>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -8302,8 +8374,8 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.05</v>
+      <c r="C6" s="6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="3">
         <v>70</v>
@@ -8316,8 +8388,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.06</v>
+      <c r="C7" s="6">
+        <v>0.03</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -8330,8 +8402,8 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -8344,8 +8416,8 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.08</v>
+      <c r="C9" s="6">
+        <v>0.04</v>
       </c>
       <c r="D9" s="3">
         <v>160</v>
@@ -8358,8 +8430,8 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
+      <c r="C10" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="3">
         <v>300</v>
@@ -8372,8 +8444,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
+      <c r="C11" s="6">
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
         <v>430</v>
@@ -8386,8 +8458,8 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.11</v>
+      <c r="C12" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="3">
         <v>590</v>
@@ -8400,8 +8472,8 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
+      <c r="C13" s="6">
+        <v>0.06</v>
       </c>
       <c r="D13" s="3">
         <v>740</v>
@@ -8414,8 +8486,8 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.13</v>
+      <c r="C14" s="6">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="3">
         <v>960</v>
@@ -8428,8 +8500,8 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="3">
         <v>1920</v>
@@ -8442,8 +8514,8 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.15</v>
+      <c r="C16" s="6">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="3">
         <v>2980</v>
@@ -8456,8 +8528,8 @@
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
+      <c r="C17" s="6">
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>4110</v>
@@ -8470,8 +8542,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.17</v>
+      <c r="C18" s="6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="3">
         <v>5990</v>
@@ -8484,8 +8556,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.18</v>
+      <c r="C19" s="6">
+        <v>0.09</v>
       </c>
       <c r="D19" s="3">
         <v>7370</v>
@@ -8498,8 +8570,8 @@
       <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.19</v>
+      <c r="C20" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <v>8990</v>
@@ -8512,8 +8584,8 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
+      <c r="C21" s="6">
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>10540</v>
@@ -8526,8 +8598,8 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.21</v>
+      <c r="C22" s="6">
+        <v>0.105</v>
       </c>
       <c r="D22" s="3">
         <v>14310</v>
@@ -8540,8 +8612,8 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.22</v>
+      <c r="C23" s="6">
+        <v>0.11</v>
       </c>
       <c r="D23" s="3">
         <v>16400</v>
@@ -8554,8 +8626,8 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.23</v>
+      <c r="C24" s="6">
+        <v>0.115</v>
       </c>
       <c r="D24" s="3">
         <v>18930</v>
@@ -8568,8 +8640,8 @@
       <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.24</v>
+      <c r="C25" s="6">
+        <v>0.12</v>
       </c>
       <c r="D25" s="3">
         <v>21300</v>
@@ -8582,8 +8654,8 @@
       <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.25</v>
+      <c r="C26" s="6">
+        <v>0.125</v>
       </c>
       <c r="D26" s="3">
         <v>29080</v>
@@ -8596,8 +8668,8 @@
       <c r="B27" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.26</v>
+      <c r="C27" s="6">
+        <v>0.13</v>
       </c>
       <c r="D27" s="3">
         <v>32460</v>
@@ -8610,8 +8682,8 @@
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.27</v>
+      <c r="C28" s="6">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>36510</v>
@@ -8624,8 +8696,8 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.28000000000000003</v>
+      <c r="C29" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="3">
         <v>40340</v>
@@ -8638,8 +8710,8 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.28999999999999998</v>
+      <c r="C30" s="6">
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="3">
         <v>57400</v>
@@ -8652,8 +8724,8 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.3</v>
+      <c r="C31" s="6">
+        <v>0.15</v>
       </c>
       <c r="D31" s="3">
         <v>66260</v>
@@ -8666,8 +8738,8 @@
       <c r="B32" s="6">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.31</v>
+      <c r="C32" s="6">
+        <v>0.155</v>
       </c>
       <c r="D32" s="3">
         <v>76530</v>
@@ -8680,8 +8752,8 @@
       <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.32</v>
+      <c r="C33" s="6">
+        <v>0.16</v>
       </c>
       <c r="D33" s="3">
         <v>86820</v>
@@ -8694,8 +8766,8 @@
       <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.33</v>
+      <c r="C34" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>118830</v>
@@ -8708,8 +8780,8 @@
       <c r="B35" s="6">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.34</v>
+      <c r="C35" s="6">
+        <v>0.17</v>
       </c>
       <c r="D35" s="3">
         <v>133520</v>
@@ -8722,8 +8794,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.35</v>
+      <c r="C36" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="3">
         <v>150390</v>
@@ -8736,8 +8808,8 @@
       <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.36</v>
+      <c r="C37" s="6">
+        <v>0.18</v>
       </c>
       <c r="D37" s="3">
         <v>167390</v>
@@ -8750,8 +8822,8 @@
       <c r="B38" s="6">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.37</v>
+      <c r="C38" s="6">
+        <v>0.185</v>
       </c>
       <c r="D38" s="3">
         <v>225090</v>
@@ -8764,8 +8836,8 @@
       <c r="B39" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.38</v>
+      <c r="C39" s="6">
+        <v>0.19</v>
       </c>
       <c r="D39" s="3">
         <v>249000</v>
@@ -8778,8 +8850,8 @@
       <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.39</v>
+      <c r="C40" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="1">
         <v>276040</v>
@@ -8792,8 +8864,8 @@
       <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
+      <c r="C41" s="6">
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
         <v>303630</v>
@@ -11320,7 +11392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -12765,7 +12837,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12804,16 +12876,16 @@
         <v>25</v>
       </c>
       <c r="C2" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5">
         <v>44</v>
@@ -12827,16 +12899,16 @@
         <v>30</v>
       </c>
       <c r="C3" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6">
         <v>48</v>
@@ -12850,16 +12922,16 @@
         <v>35</v>
       </c>
       <c r="C4" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6">
         <v>52</v>
@@ -12873,16 +12945,16 @@
         <v>40</v>
       </c>
       <c r="C5" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6">
         <v>56</v>
@@ -12896,16 +12968,16 @@
         <v>50</v>
       </c>
       <c r="C6" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G6" s="6">
         <v>60</v>
@@ -12919,16 +12991,16 @@
         <v>60</v>
       </c>
       <c r="C7" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6">
         <v>64</v>
@@ -12942,16 +13014,16 @@
         <v>80</v>
       </c>
       <c r="C8" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G8" s="6">
         <v>68</v>
@@ -12965,16 +13037,16 @@
         <v>130</v>
       </c>
       <c r="C9" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G9" s="6">
         <v>72</v>
@@ -12988,16 +13060,16 @@
         <v>270</v>
       </c>
       <c r="C10" s="6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E10" s="6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F10" s="6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G10" s="6">
         <v>76</v>
@@ -13011,16 +13083,16 @@
         <v>400</v>
       </c>
       <c r="C11" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6">
         <v>80</v>
@@ -13034,16 +13106,16 @@
         <v>550</v>
       </c>
       <c r="C12" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F12" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G12" s="6">
         <v>84</v>
@@ -13057,16 +13129,16 @@
         <v>690</v>
       </c>
       <c r="C13" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F13" s="6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G13" s="6">
         <v>88</v>
@@ -13080,16 +13152,16 @@
         <v>900</v>
       </c>
       <c r="C14" s="6">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G14" s="6">
         <v>92</v>
@@ -13103,16 +13175,16 @@
         <v>1810</v>
       </c>
       <c r="C15" s="6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F15" s="6">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G15" s="6">
         <v>96</v>
@@ -13126,16 +13198,16 @@
         <v>2820</v>
       </c>
       <c r="C16" s="6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F16" s="6">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G16" s="6">
         <v>100</v>
@@ -13149,16 +13221,16 @@
         <v>3900</v>
       </c>
       <c r="C17" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F17" s="6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G17" s="6">
         <v>104</v>
@@ -13172,16 +13244,16 @@
         <v>5690</v>
       </c>
       <c r="C18" s="6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D18" s="6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E18" s="6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F18" s="6">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G18" s="6">
         <v>108</v>
@@ -13195,16 +13267,16 @@
         <v>7000</v>
       </c>
       <c r="C19" s="6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D19" s="6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E19" s="6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F19" s="6">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6">
         <v>112</v>
@@ -13218,16 +13290,16 @@
         <v>8550</v>
       </c>
       <c r="C20" s="6">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E20" s="6">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F20" s="6">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G20" s="6">
         <v>116</v>
@@ -13241,16 +13313,16 @@
         <v>10030</v>
       </c>
       <c r="C21" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D21" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F21" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G21" s="6">
         <v>120</v>
@@ -13264,16 +13336,16 @@
         <v>13620</v>
       </c>
       <c r="C22" s="6">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D22" s="6">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E22" s="6">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F22" s="6">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G22" s="6">
         <v>124</v>
@@ -13287,16 +13359,16 @@
         <v>15610</v>
       </c>
       <c r="C23" s="6">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23" s="6">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E23" s="6">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F23" s="6">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G23" s="6">
         <v>128</v>
@@ -13310,16 +13382,16 @@
         <v>18010</v>
       </c>
       <c r="C24" s="6">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E24" s="6">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F24" s="6">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G24" s="6">
         <v>132</v>
@@ -13333,16 +13405,16 @@
         <v>20270</v>
       </c>
       <c r="C25" s="6">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E25" s="6">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F25" s="6">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G25" s="6">
         <v>136</v>
@@ -13356,16 +13428,16 @@
         <v>27680</v>
       </c>
       <c r="C26" s="6">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E26" s="6">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F26" s="6">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G26" s="6">
         <v>140</v>
@@ -13379,16 +13451,16 @@
         <v>30900</v>
       </c>
       <c r="C27" s="6">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D27" s="6">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E27" s="6">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F27" s="6">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G27" s="6">
         <v>144</v>
@@ -13402,16 +13474,16 @@
         <v>34760</v>
       </c>
       <c r="C28" s="6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D28" s="6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E28" s="6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F28" s="6">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G28" s="6">
         <v>148</v>
@@ -13425,16 +13497,16 @@
         <v>38410</v>
       </c>
       <c r="C29" s="6">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D29" s="6">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F29" s="6">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G29" s="6">
         <v>152</v>
@@ -13448,16 +13520,16 @@
         <v>54660</v>
       </c>
       <c r="C30" s="6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D30" s="6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E30" s="6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F30" s="6">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G30" s="6">
         <v>156</v>
@@ -13471,16 +13543,16 @@
         <v>63090</v>
       </c>
       <c r="C31" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D31" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E31" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F31" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G31" s="6">
         <v>160</v>
@@ -13494,16 +13566,16 @@
         <v>72870</v>
       </c>
       <c r="C32" s="6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D32" s="6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E32" s="6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F32" s="6">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G32" s="6">
         <v>164</v>
@@ -13517,16 +13589,16 @@
         <v>82670</v>
       </c>
       <c r="C33" s="6">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D33" s="6">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E33" s="6">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F33" s="6">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G33" s="6">
         <v>168</v>
@@ -13540,16 +13612,16 @@
         <v>113160</v>
       </c>
       <c r="C34" s="6">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D34" s="6">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F34" s="6">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G34" s="6">
         <v>172</v>
@@ -13563,16 +13635,16 @@
         <v>127150</v>
       </c>
       <c r="C35" s="6">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D35" s="6">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E35" s="6">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F35" s="6">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G35" s="6">
         <v>176</v>
@@ -13586,16 +13658,16 @@
         <v>143220</v>
       </c>
       <c r="C36" s="6">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D36" s="6">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E36" s="6">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F36" s="6">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G36" s="6">
         <v>180</v>
@@ -13609,16 +13681,16 @@
         <v>159400</v>
       </c>
       <c r="C37" s="6">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D37" s="6">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E37" s="6">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F37" s="6">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G37" s="6">
         <v>184</v>
@@ -13632,16 +13704,16 @@
         <v>214360</v>
       </c>
       <c r="C38" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D38" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E38" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F38" s="6">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G38" s="6">
         <v>188</v>
@@ -13655,16 +13727,16 @@
         <v>237130</v>
       </c>
       <c r="C39" s="6">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D39" s="6">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E39" s="6">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F39" s="6">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G39" s="6">
         <v>192</v>
@@ -13678,16 +13750,16 @@
         <v>262890</v>
       </c>
       <c r="C40" s="6">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D40" s="6">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E40" s="6">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F40" s="6">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G40" s="6">
         <v>196</v>
@@ -13701,16 +13773,16 @@
         <v>289160</v>
       </c>
       <c r="C41" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D41" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E41" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F41" s="6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G41" s="6">
         <v>200</v>
@@ -13733,7 +13805,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13823,7 +13895,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C8" s="3">
         <v>130</v>
@@ -13834,7 +13906,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C9" s="3">
         <v>220</v>
@@ -13845,7 +13917,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C10" s="3">
         <v>440</v>
@@ -13856,7 +13928,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C11" s="3">
         <v>650</v>
@@ -13867,7 +13939,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="C12" s="3">
         <v>890</v>
@@ -13878,7 +13950,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="C13" s="3">
         <v>1120</v>
@@ -13889,7 +13961,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="C14" s="3">
         <v>1470</v>
@@ -13900,7 +13972,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C15" s="3">
         <v>2940</v>
@@ -13911,7 +13983,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="C16" s="3">
         <v>4580</v>
@@ -13922,7 +13994,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="3">
         <v>6340</v>
@@ -13933,7 +14005,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="C18" s="3">
         <v>9250</v>
@@ -13944,7 +14016,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="C19" s="3">
         <v>11380</v>
@@ -13955,7 +14027,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>850</v>
+        <v>1500</v>
       </c>
       <c r="C20" s="3">
         <v>13900</v>
@@ -13966,7 +14038,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="C21" s="3">
         <v>16300</v>
@@ -13977,7 +14049,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>950</v>
+        <v>1700</v>
       </c>
       <c r="C22" s="3">
         <v>22130</v>
@@ -13988,7 +14060,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="C23" s="3">
         <v>25360</v>
@@ -13999,7 +14071,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="C24" s="3">
         <v>29270</v>
@@ -14010,7 +14082,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="C25" s="3">
         <v>32940</v>
@@ -14021,7 +14093,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="C26" s="3">
         <v>44980</v>
@@ -14032,7 +14104,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="C27" s="3">
         <v>50210</v>
@@ -14043,7 +14115,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="C28" s="3">
         <v>56480</v>
@@ -14054,7 +14126,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="C29" s="3">
         <v>62410</v>
@@ -14065,7 +14137,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="C30" s="3">
         <v>88820</v>
@@ -14076,7 +14148,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="C31" s="3">
         <v>102520</v>
@@ -14087,7 +14159,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1900</v>
+        <v>3400</v>
       </c>
       <c r="C32" s="3">
         <v>118410</v>
@@ -14098,7 +14170,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="C33" s="3">
         <v>134340</v>
@@ -14109,7 +14181,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>2100</v>
+        <v>3800</v>
       </c>
       <c r="C34" s="3">
         <v>183880</v>
@@ -14120,7 +14192,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="C35" s="3">
         <v>206610</v>
@@ -14131,7 +14203,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2300</v>
+        <v>4250</v>
       </c>
       <c r="C36" s="3">
         <v>232730</v>
@@ -14142,7 +14214,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>2400</v>
+        <v>4500</v>
       </c>
       <c r="C37" s="3">
         <v>259030</v>
@@ -14153,7 +14225,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>2500</v>
+        <v>4750</v>
       </c>
       <c r="C38" s="3">
         <v>348330</v>
@@ -14164,7 +14236,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>2600</v>
+        <v>5000</v>
       </c>
       <c r="C39" s="3">
         <v>385330</v>
@@ -14175,7 +14247,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="C40" s="1">
         <v>427190</v>
@@ -14186,7 +14258,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="C41" s="1">
         <v>469890</v>
@@ -15161,7 +15233,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:F41"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15194,16 +15266,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
@@ -15214,16 +15286,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -15234,16 +15306,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="E4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -15254,16 +15326,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="D5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -15274,16 +15346,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="D6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -15294,16 +15366,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -15314,16 +15386,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="C8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="E8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -15334,16 +15406,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="C9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="D9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="E9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="F9" s="3">
         <v>160</v>
@@ -15354,16 +15426,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="C10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="D10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="E10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="F10" s="3">
         <v>350</v>
@@ -15374,16 +15446,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="C11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="D11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="E11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="F11" s="3">
         <v>520</v>
@@ -15394,16 +15466,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="C12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="D12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F12" s="3">
         <v>730</v>
@@ -15414,16 +15486,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="C13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="D13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="E13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="F13" s="3">
         <v>920</v>
@@ -15434,16 +15506,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="C14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="D14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="E14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="3">
         <v>1220</v>
@@ -15454,16 +15526,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="C15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="D15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="E15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="F15" s="3">
         <v>2470</v>
@@ -15474,16 +15546,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="C16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="D16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="E16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="F16" s="3">
         <v>3860</v>
@@ -15494,16 +15566,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="C17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F17" s="3">
         <v>5340</v>
@@ -15514,16 +15586,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="C18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="D18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="E18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="F18" s="3">
         <v>7800</v>
@@ -15534,16 +15606,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="C19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="D19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="E19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="F19" s="3">
         <v>9610</v>
@@ -15554,16 +15626,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="C20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="D20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="E20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="F20" s="3">
         <v>11730</v>
@@ -15574,16 +15646,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="C21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="D21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="E21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="F21" s="3">
         <v>13770</v>
@@ -15594,16 +15666,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="C22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
@@ -15614,16 +15686,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="C23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="D23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="E23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="F23" s="3">
         <v>21440</v>
@@ -15634,16 +15706,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="C24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="D24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="E24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="F24" s="3">
         <v>24740</v>
@@ -15654,16 +15726,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="C25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="D25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="E25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="F25" s="3">
         <v>27850</v>
@@ -15674,16 +15746,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="C26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="D26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="E26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="F26" s="3">
         <v>38030</v>
@@ -15694,16 +15766,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F27" s="3">
         <v>42460</v>
@@ -15714,16 +15786,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="C28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="D28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="E28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="F28" s="3">
         <v>47770</v>
@@ -15734,16 +15806,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="C29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="D29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F29" s="3">
         <v>52780</v>
@@ -15754,16 +15826,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="C30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="E30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="F30" s="3">
         <v>75130</v>
@@ -15774,16 +15846,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="C31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="D31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="F31" s="3">
         <v>86730</v>
@@ -15794,16 +15866,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="C32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="D32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F32" s="3">
         <v>100170</v>
@@ -15814,16 +15886,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="C33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F33" s="3">
         <v>113650</v>
@@ -15834,16 +15906,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="C34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="D34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="E34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="F34" s="3">
         <v>155560</v>
@@ -15854,16 +15926,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="C35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="D35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="E35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="F35" s="3">
         <v>174800</v>
@@ -15874,16 +15946,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="C36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="D36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="E36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="F36" s="3">
         <v>196900</v>
@@ -15894,16 +15966,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="C37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="D37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="E37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="F37" s="3">
         <v>219150</v>
@@ -15914,16 +15986,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="C38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="D38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="E38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="F38" s="3">
         <v>294720</v>
@@ -15934,16 +16006,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="C39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="D39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="E39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="F39" s="3">
         <v>326020</v>
@@ -15954,16 +16026,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F40" s="1">
         <v>361440</v>
@@ -15974,16 +16046,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="C41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="D41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="E41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="F41" s="1">
         <v>397570</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="5"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -499,7 +499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="752">
+  <cellStyleXfs count="758">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -514,6 +514,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1281,7 +1287,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="752">
+  <cellStyles count="758">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1660,6 +1666,9 @@
     <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2031,6 +2040,9 @@
     <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -11392,8 +11404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11423,7 +11435,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="6">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
         <v>30</v>
@@ -11437,7 +11449,7 @@
         <v>229</v>
       </c>
       <c r="C3" s="6">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6">
         <v>40</v>
@@ -11451,7 +11463,7 @@
         <v>306</v>
       </c>
       <c r="C4" s="6">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6">
         <v>50</v>
@@ -11465,7 +11477,7 @@
         <v>367</v>
       </c>
       <c r="C5" s="6">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6">
         <v>60</v>
@@ -11479,7 +11491,7 @@
         <v>417</v>
       </c>
       <c r="C6" s="6">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6">
         <v>70</v>
@@ -11493,7 +11505,7 @@
         <v>457</v>
       </c>
       <c r="C7" s="6">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6">
         <v>90</v>
@@ -11507,7 +11519,7 @@
         <v>490</v>
       </c>
       <c r="C8" s="6">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6">
         <v>130</v>
@@ -11521,7 +11533,7 @@
         <v>519</v>
       </c>
       <c r="C9" s="6">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6">
         <v>240</v>
@@ -11535,7 +11547,7 @@
         <v>542</v>
       </c>
       <c r="C10" s="6">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6">
         <v>520</v>
@@ -11549,7 +11561,7 @@
         <v>562</v>
       </c>
       <c r="C11" s="6">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6">
         <v>770</v>
@@ -11563,7 +11575,7 @@
         <v>1054</v>
       </c>
       <c r="C12" s="6">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6">
         <v>1070</v>
@@ -11577,7 +11589,7 @@
         <v>1190</v>
       </c>
       <c r="C13" s="6">
-        <v>298</v>
+        <v>59</v>
       </c>
       <c r="D13" s="6">
         <v>1350</v>
@@ -11591,7 +11603,7 @@
         <v>1310</v>
       </c>
       <c r="C14" s="6">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="D14" s="6">
         <v>1780</v>
@@ -11605,7 +11617,7 @@
         <v>1417</v>
       </c>
       <c r="C15" s="6">
-        <v>354</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6">
         <v>3600</v>
@@ -11619,7 +11631,7 @@
         <v>1512</v>
       </c>
       <c r="C16" s="6">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="D16" s="6">
         <v>5620</v>
@@ -11633,7 +11645,7 @@
         <v>1598</v>
       </c>
       <c r="C17" s="6">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="D17" s="6">
         <v>7770</v>
@@ -11647,7 +11659,7 @@
         <v>1675</v>
       </c>
       <c r="C18" s="6">
-        <v>419</v>
+        <v>83</v>
       </c>
       <c r="D18" s="6">
         <v>11360</v>
@@ -11661,7 +11673,7 @@
         <v>1745</v>
       </c>
       <c r="C19" s="6">
-        <v>436</v>
+        <v>87</v>
       </c>
       <c r="D19" s="6">
         <v>13980</v>
@@ -11675,7 +11687,7 @@
         <v>1809</v>
       </c>
       <c r="C20" s="6">
-        <v>452</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6">
         <v>17080</v>
@@ -11689,7 +11701,7 @@
         <v>1867</v>
       </c>
       <c r="C21" s="6">
-        <v>467</v>
+        <v>93</v>
       </c>
       <c r="D21" s="6">
         <v>20030</v>
@@ -11703,7 +11715,7 @@
         <v>3846</v>
       </c>
       <c r="C22" s="6">
-        <v>961</v>
+        <v>192</v>
       </c>
       <c r="D22" s="6">
         <v>27210</v>
@@ -11717,7 +11729,7 @@
         <v>4500</v>
       </c>
       <c r="C23" s="6">
-        <v>1125</v>
+        <v>225</v>
       </c>
       <c r="D23" s="6">
         <v>31190</v>
@@ -11731,7 +11743,7 @@
         <v>5157</v>
       </c>
       <c r="C24" s="6">
-        <v>1289</v>
+        <v>257</v>
       </c>
       <c r="D24" s="6">
         <v>36000</v>
@@ -11745,7 +11757,7 @@
         <v>5813</v>
       </c>
       <c r="C25" s="6">
-        <v>1453</v>
+        <v>290</v>
       </c>
       <c r="D25" s="6">
         <v>40510</v>
@@ -11759,7 +11771,7 @@
         <v>6465</v>
       </c>
       <c r="C26" s="6">
-        <v>1616</v>
+        <v>323</v>
       </c>
       <c r="D26" s="6">
         <v>55330</v>
@@ -11773,7 +11785,7 @@
         <v>7111</v>
       </c>
       <c r="C27" s="6">
-        <v>1778</v>
+        <v>355</v>
       </c>
       <c r="D27" s="6">
         <v>61770</v>
@@ -11787,7 +11799,7 @@
         <v>7749</v>
       </c>
       <c r="C28" s="6">
-        <v>1937</v>
+        <v>387</v>
       </c>
       <c r="D28" s="6">
         <v>69490</v>
@@ -11801,7 +11813,7 @@
         <v>8377</v>
       </c>
       <c r="C29" s="6">
-        <v>2094</v>
+        <v>418</v>
       </c>
       <c r="D29" s="6">
         <v>76790</v>
@@ -11815,7 +11827,7 @@
         <v>8994</v>
       </c>
       <c r="C30" s="6">
-        <v>2249</v>
+        <v>449</v>
       </c>
       <c r="D30" s="6">
         <v>109290</v>
@@ -11829,7 +11841,7 @@
         <v>9600</v>
       </c>
       <c r="C31" s="6">
-        <v>2400</v>
+        <v>480</v>
       </c>
       <c r="D31" s="6">
         <v>126160</v>
@@ -11843,7 +11855,7 @@
         <v>15077</v>
       </c>
       <c r="C32" s="6">
-        <v>3769</v>
+        <v>753</v>
       </c>
       <c r="D32" s="6">
         <v>145710</v>
@@ -11857,7 +11869,7 @@
         <v>16980</v>
       </c>
       <c r="C33" s="6">
-        <v>4245</v>
+        <v>849</v>
       </c>
       <c r="D33" s="6">
         <v>165320</v>
@@ -11871,7 +11883,7 @@
         <v>18899</v>
       </c>
       <c r="C34" s="6">
-        <v>4725</v>
+        <v>945</v>
       </c>
       <c r="D34" s="6">
         <v>226290</v>
@@ -11885,7 +11897,7 @@
         <v>20826</v>
       </c>
       <c r="C35" s="6">
-        <v>5207</v>
+        <v>1041</v>
       </c>
       <c r="D35" s="6">
         <v>254270</v>
@@ -11899,7 +11911,7 @@
         <v>22756</v>
       </c>
       <c r="C36" s="6">
-        <v>5689</v>
+        <v>1137</v>
       </c>
       <c r="D36" s="6">
         <v>286410</v>
@@ -11913,7 +11925,7 @@
         <v>24681</v>
       </c>
       <c r="C37" s="6">
-        <v>6170</v>
+        <v>1234</v>
       </c>
       <c r="D37" s="6">
         <v>318780</v>
@@ -11927,7 +11939,7 @@
         <v>26597</v>
       </c>
       <c r="C38" s="6">
-        <v>6649</v>
+        <v>1329</v>
       </c>
       <c r="D38" s="6">
         <v>428690</v>
@@ -11941,7 +11953,7 @@
         <v>28500</v>
       </c>
       <c r="C39" s="6">
-        <v>7125</v>
+        <v>1425</v>
       </c>
       <c r="D39" s="6">
         <v>474230</v>
@@ -11955,7 +11967,7 @@
         <v>30387</v>
       </c>
       <c r="C40" s="6">
-        <v>7597</v>
+        <v>1519</v>
       </c>
       <c r="D40" s="6">
         <v>525750</v>
@@ -11969,7 +11981,7 @@
         <v>32256</v>
       </c>
       <c r="C41" s="1">
-        <v>8064</v>
+        <v>1612</v>
       </c>
       <c r="D41" s="1">
         <v>578300</v>
@@ -13804,7 +13816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="1620" yWindow="240" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -319,8 +319,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0\%"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1263,7 +1264,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,6 +1287,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="758">
     <cellStyle name="Default 1" xfId="1"/>
@@ -1293,8 +1297,385 @@
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -1669,383 +2050,6 @@
     <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -11404,8 +11408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showRuler="0" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12848,8 +12852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12910,17 +12914,21 @@
       <c r="B3" s="6">
         <v>30</v>
       </c>
-      <c r="C3" s="6">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6">
-        <v>12</v>
+      <c r="C3" s="8">
+        <f>C2*(1+10%)</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:F18" si="0">D2*(1+10%)</f>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="0"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>12.100000000000001</v>
       </c>
       <c r="G3" s="6">
         <v>48</v>
@@ -12933,17 +12941,21 @@
       <c r="B4" s="6">
         <v>35</v>
       </c>
-      <c r="C4" s="6">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6">
-        <v>13</v>
+      <c r="C4" s="8">
+        <f>C3*(1+10%)</f>
+        <v>13.310000000000002</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>13.310000000000002</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>13.310000000000002</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>13.310000000000002</v>
       </c>
       <c r="G4" s="6">
         <v>52</v>
@@ -12956,17 +12968,21 @@
       <c r="B5" s="6">
         <v>40</v>
       </c>
-      <c r="C5" s="6">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6">
-        <v>14</v>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:C41" si="1">C4*(1+10%)</f>
+        <v>14.641000000000004</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>14.641000000000004</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>14.641000000000004</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>14.641000000000004</v>
       </c>
       <c r="G5" s="6">
         <v>56</v>
@@ -12979,17 +12995,21 @@
       <c r="B6" s="6">
         <v>50</v>
       </c>
-      <c r="C6" s="6">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6">
-        <v>15</v>
+      <c r="C6" s="8">
+        <f t="shared" si="1"/>
+        <v>16.105100000000004</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>16.105100000000004</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>16.105100000000004</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>16.105100000000004</v>
       </c>
       <c r="G6" s="6">
         <v>60</v>
@@ -13002,17 +13022,21 @@
       <c r="B7" s="6">
         <v>60</v>
       </c>
-      <c r="C7" s="6">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6">
-        <v>16</v>
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>17.715610000000005</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>17.715610000000005</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>17.715610000000005</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>17.715610000000005</v>
       </c>
       <c r="G7" s="6">
         <v>64</v>
@@ -13025,17 +13049,21 @@
       <c r="B8" s="6">
         <v>80</v>
       </c>
-      <c r="C8" s="6">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6">
-        <v>17</v>
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>19.487171000000007</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>19.487171000000007</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>19.487171000000007</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>19.487171000000007</v>
       </c>
       <c r="G8" s="6">
         <v>68</v>
@@ -13048,17 +13076,21 @@
       <c r="B9" s="6">
         <v>130</v>
       </c>
-      <c r="C9" s="6">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6">
-        <v>18</v>
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>21.43588810000001</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>21.43588810000001</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>21.43588810000001</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>21.43588810000001</v>
       </c>
       <c r="G9" s="6">
         <v>72</v>
@@ -13071,17 +13103,21 @@
       <c r="B10" s="6">
         <v>270</v>
       </c>
-      <c r="C10" s="6">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6">
-        <v>19</v>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>23.579476910000015</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>23.579476910000015</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>23.579476910000015</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>23.579476910000015</v>
       </c>
       <c r="G10" s="6">
         <v>76</v>
@@ -13094,17 +13130,21 @@
       <c r="B11" s="6">
         <v>400</v>
       </c>
-      <c r="C11" s="6">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6">
-        <v>20</v>
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>25.937424601000018</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>25.937424601000018</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>25.937424601000018</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>25.937424601000018</v>
       </c>
       <c r="G11" s="6">
         <v>80</v>
@@ -13117,17 +13157,21 @@
       <c r="B12" s="6">
         <v>550</v>
       </c>
-      <c r="C12" s="6">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6">
-        <v>21</v>
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>28.531167061100021</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>28.531167061100021</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>28.531167061100021</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>28.531167061100021</v>
       </c>
       <c r="G12" s="6">
         <v>84</v>
@@ -13140,17 +13184,21 @@
       <c r="B13" s="6">
         <v>690</v>
       </c>
-      <c r="C13" s="6">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6">
-        <v>22</v>
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>31.384283767210025</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>31.384283767210025</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>31.384283767210025</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>31.384283767210025</v>
       </c>
       <c r="G13" s="6">
         <v>88</v>
@@ -13163,17 +13211,21 @@
       <c r="B14" s="6">
         <v>900</v>
       </c>
-      <c r="C14" s="6">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6">
-        <v>23</v>
-      </c>
-      <c r="E14" s="6">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6">
-        <v>23</v>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>34.522712143931031</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>34.522712143931031</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>34.522712143931031</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>34.522712143931031</v>
       </c>
       <c r="G14" s="6">
         <v>92</v>
@@ -13186,17 +13238,21 @@
       <c r="B15" s="6">
         <v>1810</v>
       </c>
-      <c r="C15" s="6">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6">
-        <v>24</v>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>37.974983358324138</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>37.974983358324138</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>37.974983358324138</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>37.974983358324138</v>
       </c>
       <c r="G15" s="6">
         <v>96</v>
@@ -13209,17 +13265,21 @@
       <c r="B16" s="6">
         <v>2820</v>
       </c>
-      <c r="C16" s="6">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6">
-        <v>25</v>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>41.772481694156554</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>41.772481694156554</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>41.772481694156554</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>41.772481694156554</v>
       </c>
       <c r="G16" s="6">
         <v>100</v>
@@ -13232,17 +13292,21 @@
       <c r="B17" s="6">
         <v>3900</v>
       </c>
-      <c r="C17" s="6">
-        <v>26</v>
-      </c>
-      <c r="D17" s="6">
-        <v>26</v>
-      </c>
-      <c r="E17" s="6">
-        <v>26</v>
-      </c>
-      <c r="F17" s="6">
-        <v>26</v>
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
+        <v>45.949729863572216</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>45.949729863572216</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>45.949729863572216</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>45.949729863572216</v>
       </c>
       <c r="G17" s="6">
         <v>104</v>
@@ -13255,17 +13319,21 @@
       <c r="B18" s="6">
         <v>5690</v>
       </c>
-      <c r="C18" s="6">
-        <v>27</v>
-      </c>
-      <c r="D18" s="6">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6">
-        <v>27</v>
-      </c>
-      <c r="F18" s="6">
-        <v>27</v>
+      <c r="C18" s="8">
+        <f t="shared" si="1"/>
+        <v>50.544702849929443</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>50.544702849929443</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>50.544702849929443</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>50.544702849929443</v>
       </c>
       <c r="G18" s="6">
         <v>108</v>
@@ -13278,17 +13346,21 @@
       <c r="B19" s="6">
         <v>7000</v>
       </c>
-      <c r="C19" s="6">
-        <v>28</v>
-      </c>
-      <c r="D19" s="6">
-        <v>28</v>
-      </c>
-      <c r="E19" s="6">
-        <v>28</v>
-      </c>
-      <c r="F19" s="6">
-        <v>28</v>
+      <c r="C19" s="8">
+        <f t="shared" si="1"/>
+        <v>55.599173134922395</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19:D41" si="2">D18*(1+10%)</f>
+        <v>55.599173134922395</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" ref="E19:E41" si="3">E18*(1+10%)</f>
+        <v>55.599173134922395</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19:F41" si="4">F18*(1+10%)</f>
+        <v>55.599173134922395</v>
       </c>
       <c r="G19" s="6">
         <v>112</v>
@@ -13301,17 +13373,21 @@
       <c r="B20" s="6">
         <v>8550</v>
       </c>
-      <c r="C20" s="6">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6">
-        <v>29</v>
-      </c>
-      <c r="E20" s="6">
-        <v>29</v>
-      </c>
-      <c r="F20" s="6">
-        <v>29</v>
+      <c r="C20" s="8">
+        <f t="shared" si="1"/>
+        <v>61.159090448414638</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="2"/>
+        <v>61.159090448414638</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="3"/>
+        <v>61.159090448414638</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="4"/>
+        <v>61.159090448414638</v>
       </c>
       <c r="G20" s="6">
         <v>116</v>
@@ -13324,17 +13400,21 @@
       <c r="B21" s="6">
         <v>10030</v>
       </c>
-      <c r="C21" s="6">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6">
-        <v>30</v>
-      </c>
-      <c r="E21" s="6">
-        <v>30</v>
-      </c>
-      <c r="F21" s="6">
-        <v>30</v>
+      <c r="C21" s="8">
+        <f t="shared" si="1"/>
+        <v>67.274999493256104</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="2"/>
+        <v>67.274999493256104</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="3"/>
+        <v>67.274999493256104</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="4"/>
+        <v>67.274999493256104</v>
       </c>
       <c r="G21" s="6">
         <v>120</v>
@@ -13347,17 +13427,21 @@
       <c r="B22" s="6">
         <v>13620</v>
       </c>
-      <c r="C22" s="6">
-        <v>31</v>
-      </c>
-      <c r="D22" s="6">
-        <v>31</v>
-      </c>
-      <c r="E22" s="6">
-        <v>31</v>
-      </c>
-      <c r="F22" s="6">
-        <v>31</v>
+      <c r="C22" s="8">
+        <f t="shared" si="1"/>
+        <v>74.002499442581723</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="2"/>
+        <v>74.002499442581723</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="3"/>
+        <v>74.002499442581723</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="4"/>
+        <v>74.002499442581723</v>
       </c>
       <c r="G22" s="6">
         <v>124</v>
@@ -13370,17 +13454,21 @@
       <c r="B23" s="6">
         <v>15610</v>
       </c>
-      <c r="C23" s="6">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6">
-        <v>32</v>
-      </c>
-      <c r="E23" s="6">
-        <v>32</v>
-      </c>
-      <c r="F23" s="6">
-        <v>32</v>
+      <c r="C23" s="8">
+        <f t="shared" si="1"/>
+        <v>81.402749386839901</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="2"/>
+        <v>81.402749386839901</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="3"/>
+        <v>81.402749386839901</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="4"/>
+        <v>81.402749386839901</v>
       </c>
       <c r="G23" s="6">
         <v>128</v>
@@ -13393,17 +13481,21 @@
       <c r="B24" s="6">
         <v>18010</v>
       </c>
-      <c r="C24" s="6">
-        <v>33</v>
-      </c>
-      <c r="D24" s="6">
-        <v>33</v>
-      </c>
-      <c r="E24" s="6">
-        <v>33</v>
-      </c>
-      <c r="F24" s="6">
-        <v>33</v>
+      <c r="C24" s="8">
+        <f t="shared" si="1"/>
+        <v>89.543024325523902</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="2"/>
+        <v>89.543024325523902</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="3"/>
+        <v>89.543024325523902</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="4"/>
+        <v>89.543024325523902</v>
       </c>
       <c r="G24" s="6">
         <v>132</v>
@@ -13416,17 +13508,21 @@
       <c r="B25" s="6">
         <v>20270</v>
       </c>
-      <c r="C25" s="6">
-        <v>34</v>
-      </c>
-      <c r="D25" s="6">
-        <v>34</v>
-      </c>
-      <c r="E25" s="6">
-        <v>34</v>
-      </c>
-      <c r="F25" s="6">
-        <v>34</v>
+      <c r="C25" s="8">
+        <f t="shared" si="1"/>
+        <v>98.497326758076298</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="2"/>
+        <v>98.497326758076298</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="3"/>
+        <v>98.497326758076298</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="4"/>
+        <v>98.497326758076298</v>
       </c>
       <c r="G25" s="6">
         <v>136</v>
@@ -13439,17 +13535,21 @@
       <c r="B26" s="6">
         <v>27680</v>
       </c>
-      <c r="C26" s="6">
-        <v>35</v>
-      </c>
-      <c r="D26" s="6">
-        <v>35</v>
-      </c>
-      <c r="E26" s="6">
-        <v>35</v>
-      </c>
-      <c r="F26" s="6">
-        <v>35</v>
+      <c r="C26" s="8">
+        <f t="shared" si="1"/>
+        <v>108.34705943388394</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="2"/>
+        <v>108.34705943388394</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="3"/>
+        <v>108.34705943388394</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="4"/>
+        <v>108.34705943388394</v>
       </c>
       <c r="G26" s="6">
         <v>140</v>
@@ -13462,17 +13562,21 @@
       <c r="B27" s="6">
         <v>30900</v>
       </c>
-      <c r="C27" s="6">
-        <v>36</v>
-      </c>
-      <c r="D27" s="6">
-        <v>36</v>
-      </c>
-      <c r="E27" s="6">
-        <v>36</v>
-      </c>
-      <c r="F27" s="6">
-        <v>36</v>
+      <c r="C27" s="8">
+        <f t="shared" si="1"/>
+        <v>119.18176537727234</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="2"/>
+        <v>119.18176537727234</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="3"/>
+        <v>119.18176537727234</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="4"/>
+        <v>119.18176537727234</v>
       </c>
       <c r="G27" s="6">
         <v>144</v>
@@ -13485,17 +13589,21 @@
       <c r="B28" s="6">
         <v>34760</v>
       </c>
-      <c r="C28" s="6">
-        <v>37</v>
-      </c>
-      <c r="D28" s="6">
-        <v>37</v>
-      </c>
-      <c r="E28" s="6">
-        <v>37</v>
-      </c>
-      <c r="F28" s="6">
-        <v>37</v>
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
+        <v>131.09994191499959</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="2"/>
+        <v>131.09994191499959</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="3"/>
+        <v>131.09994191499959</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="4"/>
+        <v>131.09994191499959</v>
       </c>
       <c r="G28" s="6">
         <v>148</v>
@@ -13508,17 +13616,21 @@
       <c r="B29" s="6">
         <v>38410</v>
       </c>
-      <c r="C29" s="6">
-        <v>38</v>
-      </c>
-      <c r="D29" s="6">
-        <v>38</v>
-      </c>
-      <c r="E29" s="6">
-        <v>38</v>
-      </c>
-      <c r="F29" s="6">
-        <v>38</v>
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
+        <v>144.20993610649955</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="2"/>
+        <v>144.20993610649955</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="3"/>
+        <v>144.20993610649955</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="4"/>
+        <v>144.20993610649955</v>
       </c>
       <c r="G29" s="6">
         <v>152</v>
@@ -13531,17 +13643,21 @@
       <c r="B30" s="6">
         <v>54660</v>
       </c>
-      <c r="C30" s="6">
-        <v>39</v>
-      </c>
-      <c r="D30" s="6">
-        <v>39</v>
-      </c>
-      <c r="E30" s="6">
-        <v>39</v>
-      </c>
-      <c r="F30" s="6">
-        <v>39</v>
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
+        <v>158.63092971714951</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="2"/>
+        <v>158.63092971714951</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="3"/>
+        <v>158.63092971714951</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="4"/>
+        <v>158.63092971714951</v>
       </c>
       <c r="G30" s="6">
         <v>156</v>
@@ -13554,17 +13670,21 @@
       <c r="B31" s="6">
         <v>63090</v>
       </c>
-      <c r="C31" s="6">
-        <v>40</v>
-      </c>
-      <c r="D31" s="6">
-        <v>40</v>
-      </c>
-      <c r="E31" s="6">
-        <v>40</v>
-      </c>
-      <c r="F31" s="6">
-        <v>40</v>
+      <c r="C31" s="8">
+        <f t="shared" si="1"/>
+        <v>174.49402268886448</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="2"/>
+        <v>174.49402268886448</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="3"/>
+        <v>174.49402268886448</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="4"/>
+        <v>174.49402268886448</v>
       </c>
       <c r="G31" s="6">
         <v>160</v>
@@ -13577,17 +13697,21 @@
       <c r="B32" s="6">
         <v>72870</v>
       </c>
-      <c r="C32" s="6">
-        <v>41</v>
-      </c>
-      <c r="D32" s="6">
-        <v>41</v>
-      </c>
-      <c r="E32" s="6">
-        <v>41</v>
-      </c>
-      <c r="F32" s="6">
-        <v>41</v>
+      <c r="C32" s="8">
+        <f t="shared" si="1"/>
+        <v>191.94342495775095</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="2"/>
+        <v>191.94342495775095</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="3"/>
+        <v>191.94342495775095</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="4"/>
+        <v>191.94342495775095</v>
       </c>
       <c r="G32" s="6">
         <v>164</v>
@@ -13600,17 +13724,21 @@
       <c r="B33" s="6">
         <v>82670</v>
       </c>
-      <c r="C33" s="6">
-        <v>42</v>
-      </c>
-      <c r="D33" s="6">
-        <v>42</v>
-      </c>
-      <c r="E33" s="6">
-        <v>42</v>
-      </c>
-      <c r="F33" s="6">
-        <v>42</v>
+      <c r="C33" s="8">
+        <f t="shared" si="1"/>
+        <v>211.13776745352607</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="2"/>
+        <v>211.13776745352607</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="3"/>
+        <v>211.13776745352607</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="4"/>
+        <v>211.13776745352607</v>
       </c>
       <c r="G33" s="6">
         <v>168</v>
@@ -13623,17 +13751,21 @@
       <c r="B34" s="6">
         <v>113160</v>
       </c>
-      <c r="C34" s="6">
-        <v>43</v>
-      </c>
-      <c r="D34" s="6">
-        <v>43</v>
-      </c>
-      <c r="E34" s="6">
-        <v>43</v>
-      </c>
-      <c r="F34" s="6">
-        <v>43</v>
+      <c r="C34" s="8">
+        <f t="shared" si="1"/>
+        <v>232.25154419887869</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="2"/>
+        <v>232.25154419887869</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="3"/>
+        <v>232.25154419887869</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="4"/>
+        <v>232.25154419887869</v>
       </c>
       <c r="G34" s="6">
         <v>172</v>
@@ -13646,17 +13778,21 @@
       <c r="B35" s="6">
         <v>127150</v>
       </c>
-      <c r="C35" s="6">
-        <v>44</v>
-      </c>
-      <c r="D35" s="6">
-        <v>44</v>
-      </c>
-      <c r="E35" s="6">
-        <v>44</v>
-      </c>
-      <c r="F35" s="6">
-        <v>44</v>
+      <c r="C35" s="8">
+        <f t="shared" si="1"/>
+        <v>255.47669861876659</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="2"/>
+        <v>255.47669861876659</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="3"/>
+        <v>255.47669861876659</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="4"/>
+        <v>255.47669861876659</v>
       </c>
       <c r="G35" s="6">
         <v>176</v>
@@ -13669,17 +13805,21 @@
       <c r="B36" s="6">
         <v>143220</v>
       </c>
-      <c r="C36" s="6">
-        <v>45</v>
-      </c>
-      <c r="D36" s="6">
-        <v>45</v>
-      </c>
-      <c r="E36" s="6">
-        <v>45</v>
-      </c>
-      <c r="F36" s="6">
-        <v>45</v>
+      <c r="C36" s="8">
+        <f t="shared" si="1"/>
+        <v>281.02436848064326</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="2"/>
+        <v>281.02436848064326</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="3"/>
+        <v>281.02436848064326</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="4"/>
+        <v>281.02436848064326</v>
       </c>
       <c r="G36" s="6">
         <v>180</v>
@@ -13692,17 +13832,21 @@
       <c r="B37" s="6">
         <v>159400</v>
       </c>
-      <c r="C37" s="6">
-        <v>46</v>
-      </c>
-      <c r="D37" s="6">
-        <v>46</v>
-      </c>
-      <c r="E37" s="6">
-        <v>46</v>
-      </c>
-      <c r="F37" s="6">
-        <v>46</v>
+      <c r="C37" s="8">
+        <f t="shared" si="1"/>
+        <v>309.12680532870763</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="2"/>
+        <v>309.12680532870763</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="3"/>
+        <v>309.12680532870763</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="4"/>
+        <v>309.12680532870763</v>
       </c>
       <c r="G37" s="6">
         <v>184</v>
@@ -13715,17 +13859,21 @@
       <c r="B38" s="6">
         <v>214360</v>
       </c>
-      <c r="C38" s="6">
-        <v>47</v>
-      </c>
-      <c r="D38" s="6">
-        <v>47</v>
-      </c>
-      <c r="E38" s="6">
-        <v>47</v>
-      </c>
-      <c r="F38" s="6">
-        <v>47</v>
+      <c r="C38" s="8">
+        <f t="shared" si="1"/>
+        <v>340.03948586157844</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="2"/>
+        <v>340.03948586157844</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="3"/>
+        <v>340.03948586157844</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="4"/>
+        <v>340.03948586157844</v>
       </c>
       <c r="G38" s="6">
         <v>188</v>
@@ -13738,17 +13886,21 @@
       <c r="B39" s="6">
         <v>237130</v>
       </c>
-      <c r="C39" s="6">
-        <v>48</v>
-      </c>
-      <c r="D39" s="6">
-        <v>48</v>
-      </c>
-      <c r="E39" s="6">
-        <v>48</v>
-      </c>
-      <c r="F39" s="6">
-        <v>48</v>
+      <c r="C39" s="8">
+        <f t="shared" si="1"/>
+        <v>374.04343444773633</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="2"/>
+        <v>374.04343444773633</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="3"/>
+        <v>374.04343444773633</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="4"/>
+        <v>374.04343444773633</v>
       </c>
       <c r="G39" s="6">
         <v>192</v>
@@ -13761,17 +13913,21 @@
       <c r="B40" s="6">
         <v>262890</v>
       </c>
-      <c r="C40" s="6">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6">
-        <v>49</v>
-      </c>
-      <c r="E40" s="6">
-        <v>49</v>
-      </c>
-      <c r="F40" s="6">
-        <v>49</v>
+      <c r="C40" s="8">
+        <f t="shared" si="1"/>
+        <v>411.44777789250998</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="2"/>
+        <v>411.44777789250998</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="3"/>
+        <v>411.44777789250998</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="4"/>
+        <v>411.44777789250998</v>
       </c>
       <c r="G40" s="6">
         <v>196</v>
@@ -13784,17 +13940,21 @@
       <c r="B41" s="1">
         <v>289160</v>
       </c>
-      <c r="C41" s="6">
-        <v>50</v>
-      </c>
-      <c r="D41" s="6">
-        <v>50</v>
-      </c>
-      <c r="E41" s="6">
-        <v>50</v>
-      </c>
-      <c r="F41" s="6">
-        <v>50</v>
+      <c r="C41" s="8">
+        <f t="shared" si="1"/>
+        <v>452.59255568176098</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" si="2"/>
+        <v>452.59255568176098</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="3"/>
+        <v>452.59255568176098</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="4"/>
+        <v>452.59255568176098</v>
       </c>
       <c r="G41" s="6">
         <v>200</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="240" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1540" yWindow="540" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -321,7 +321,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0\%"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1264,7 +1264,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,7 +1287,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11408,7 +11411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E15" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -12852,8 +12855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12891,20 +12894,20 @@
       <c r="B2" s="6">
         <v>25</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="8">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>11</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>11</v>
       </c>
       <c r="G2" s="5">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -12914,24 +12917,20 @@
       <c r="B3" s="6">
         <v>30</v>
       </c>
-      <c r="C3" s="8">
-        <f>C2*(1+10%)</f>
-        <v>12.100000000000001</v>
-      </c>
-      <c r="D3" s="8">
-        <f t="shared" ref="D3:F18" si="0">D2*(1+10%)</f>
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" si="0"/>
-        <v>12.100000000000001</v>
-      </c>
-      <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>12.100000000000001</v>
+      <c r="C3" s="9">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9">
+        <v>12</v>
       </c>
       <c r="G3" s="6">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -12941,24 +12940,20 @@
       <c r="B4" s="6">
         <v>35</v>
       </c>
-      <c r="C4" s="8">
-        <f>C3*(1+10%)</f>
-        <v>13.310000000000002</v>
-      </c>
-      <c r="D4" s="8">
-        <f t="shared" si="0"/>
-        <v>13.310000000000002</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" si="0"/>
-        <v>13.310000000000002</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>13.310000000000002</v>
+      <c r="C4" s="9">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9">
+        <v>13</v>
       </c>
       <c r="G4" s="6">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -12968,24 +12963,20 @@
       <c r="B5" s="6">
         <v>40</v>
       </c>
-      <c r="C5" s="8">
-        <f t="shared" ref="C5:C41" si="1">C4*(1+10%)</f>
-        <v>14.641000000000004</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" si="0"/>
-        <v>14.641000000000004</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>14.641000000000004</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>14.641000000000004</v>
-      </c>
-      <c r="G5" s="6">
-        <v>56</v>
+      <c r="C5" s="9">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -12995,24 +12986,20 @@
       <c r="B6" s="6">
         <v>50</v>
       </c>
-      <c r="C6" s="8">
-        <f t="shared" si="1"/>
-        <v>16.105100000000004</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" si="0"/>
-        <v>16.105100000000004</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>16.105100000000004</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>16.105100000000004</v>
+      <c r="C6" s="9">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9">
+        <v>15</v>
       </c>
       <c r="G6" s="6">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -13022,24 +13009,20 @@
       <c r="B7" s="6">
         <v>60</v>
       </c>
-      <c r="C7" s="8">
-        <f t="shared" si="1"/>
-        <v>17.715610000000005</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" si="0"/>
-        <v>17.715610000000005</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>17.715610000000005</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>17.715610000000005</v>
+      <c r="C7" s="9">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9">
+        <v>16</v>
+      </c>
+      <c r="F7" s="9">
+        <v>16</v>
       </c>
       <c r="G7" s="6">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -13049,24 +13032,20 @@
       <c r="B8" s="6">
         <v>80</v>
       </c>
-      <c r="C8" s="8">
-        <f t="shared" si="1"/>
-        <v>19.487171000000007</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="0"/>
-        <v>19.487171000000007</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>19.487171000000007</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>19.487171000000007</v>
-      </c>
-      <c r="G8" s="6">
-        <v>68</v>
+      <c r="C8" s="9">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9">
+        <v>17</v>
+      </c>
+      <c r="E8" s="9">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -13076,24 +13055,20 @@
       <c r="B9" s="6">
         <v>130</v>
       </c>
-      <c r="C9" s="8">
-        <f t="shared" si="1"/>
-        <v>21.43588810000001</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>21.43588810000001</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>21.43588810000001</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>21.43588810000001</v>
+      <c r="C9" s="9">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9">
+        <v>18</v>
       </c>
       <c r="G9" s="6">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -13103,24 +13078,20 @@
       <c r="B10" s="6">
         <v>270</v>
       </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>23.579476910000015</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>23.579476910000015</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>23.579476910000015</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>23.579476910000015</v>
+      <c r="C10" s="9">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9">
+        <v>19</v>
       </c>
       <c r="G10" s="6">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -13130,24 +13101,20 @@
       <c r="B11" s="6">
         <v>400</v>
       </c>
-      <c r="C11" s="8">
-        <f t="shared" si="1"/>
-        <v>25.937424601000018</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>25.937424601000018</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>25.937424601000018</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>25.937424601000018</v>
-      </c>
-      <c r="G11" s="6">
-        <v>80</v>
+      <c r="C11" s="9">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -13157,24 +13124,20 @@
       <c r="B12" s="6">
         <v>550</v>
       </c>
-      <c r="C12" s="8">
-        <f t="shared" si="1"/>
-        <v>28.531167061100021</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="0"/>
-        <v>28.531167061100021</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>28.531167061100021</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>28.531167061100021</v>
+      <c r="C12" s="9">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9">
+        <v>22</v>
       </c>
       <c r="G12" s="6">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -13184,24 +13147,20 @@
       <c r="B13" s="6">
         <v>690</v>
       </c>
-      <c r="C13" s="8">
-        <f t="shared" si="1"/>
-        <v>31.384283767210025</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>31.384283767210025</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>31.384283767210025</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>31.384283767210025</v>
+      <c r="C13" s="9">
+        <v>24</v>
+      </c>
+      <c r="D13" s="9">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9">
+        <v>24</v>
       </c>
       <c r="G13" s="6">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -13211,24 +13170,20 @@
       <c r="B14" s="6">
         <v>900</v>
       </c>
-      <c r="C14" s="8">
-        <f t="shared" si="1"/>
-        <v>34.522712143931031</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="0"/>
-        <v>34.522712143931031</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
-        <v>34.522712143931031</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>34.522712143931031</v>
-      </c>
-      <c r="G14" s="6">
-        <v>92</v>
+      <c r="C14" s="9">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -13238,24 +13193,20 @@
       <c r="B15" s="6">
         <v>1810</v>
       </c>
-      <c r="C15" s="8">
-        <f t="shared" si="1"/>
-        <v>37.974983358324138</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="0"/>
-        <v>37.974983358324138</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>37.974983358324138</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>37.974983358324138</v>
+      <c r="C15" s="9">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9">
+        <v>28</v>
+      </c>
+      <c r="F15" s="9">
+        <v>28</v>
       </c>
       <c r="G15" s="6">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -13265,24 +13216,20 @@
       <c r="B16" s="6">
         <v>2820</v>
       </c>
-      <c r="C16" s="8">
-        <f t="shared" si="1"/>
-        <v>41.772481694156554</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="0"/>
-        <v>41.772481694156554</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>41.772481694156554</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>41.772481694156554</v>
+      <c r="C16" s="9">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9">
+        <v>30</v>
+      </c>
+      <c r="F16" s="9">
+        <v>30</v>
       </c>
       <c r="G16" s="6">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
@@ -13292,24 +13239,20 @@
       <c r="B17" s="6">
         <v>3900</v>
       </c>
-      <c r="C17" s="8">
-        <f t="shared" si="1"/>
-        <v>45.949729863572216</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="0"/>
-        <v>45.949729863572216</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>45.949729863572216</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>45.949729863572216</v>
-      </c>
-      <c r="G17" s="6">
-        <v>104</v>
+      <c r="C17" s="9">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5">
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
@@ -13319,24 +13262,20 @@
       <c r="B18" s="6">
         <v>5690</v>
       </c>
-      <c r="C18" s="8">
-        <f t="shared" si="1"/>
-        <v>50.544702849929443</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="0"/>
-        <v>50.544702849929443</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
-        <v>50.544702849929443</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>50.544702849929443</v>
+      <c r="C18" s="9">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9">
+        <v>34</v>
+      </c>
+      <c r="F18" s="9">
+        <v>34</v>
       </c>
       <c r="G18" s="6">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
@@ -13346,24 +13285,20 @@
       <c r="B19" s="6">
         <v>7000</v>
       </c>
-      <c r="C19" s="8">
-        <f t="shared" si="1"/>
-        <v>55.599173134922395</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" ref="D19:D41" si="2">D18*(1+10%)</f>
-        <v>55.599173134922395</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" ref="E19:E41" si="3">E18*(1+10%)</f>
-        <v>55.599173134922395</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" ref="F19:F41" si="4">F18*(1+10%)</f>
-        <v>55.599173134922395</v>
+      <c r="C19" s="9">
+        <v>36</v>
+      </c>
+      <c r="D19" s="9">
+        <v>36</v>
+      </c>
+      <c r="E19" s="9">
+        <v>36</v>
+      </c>
+      <c r="F19" s="9">
+        <v>36</v>
       </c>
       <c r="G19" s="6">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
@@ -13373,24 +13308,20 @@
       <c r="B20" s="6">
         <v>8550</v>
       </c>
-      <c r="C20" s="8">
-        <f t="shared" si="1"/>
-        <v>61.159090448414638</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="2"/>
-        <v>61.159090448414638</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="3"/>
-        <v>61.159090448414638</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="4"/>
-        <v>61.159090448414638</v>
-      </c>
-      <c r="G20" s="6">
-        <v>116</v>
+      <c r="C20" s="9">
+        <v>38</v>
+      </c>
+      <c r="D20" s="9">
+        <v>38</v>
+      </c>
+      <c r="E20" s="9">
+        <v>38</v>
+      </c>
+      <c r="F20" s="9">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
@@ -13400,24 +13331,20 @@
       <c r="B21" s="6">
         <v>10030</v>
       </c>
-      <c r="C21" s="8">
-        <f t="shared" si="1"/>
-        <v>67.274999493256104</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="2"/>
-        <v>67.274999493256104</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="3"/>
-        <v>67.274999493256104</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="4"/>
-        <v>67.274999493256104</v>
+      <c r="C21" s="9">
+        <v>40</v>
+      </c>
+      <c r="D21" s="9">
+        <v>40</v>
+      </c>
+      <c r="E21" s="9">
+        <v>40</v>
+      </c>
+      <c r="F21" s="9">
+        <v>40</v>
       </c>
       <c r="G21" s="6">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
@@ -13427,24 +13354,20 @@
       <c r="B22" s="6">
         <v>13620</v>
       </c>
-      <c r="C22" s="8">
-        <f t="shared" si="1"/>
-        <v>74.002499442581723</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="2"/>
-        <v>74.002499442581723</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="3"/>
-        <v>74.002499442581723</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="4"/>
-        <v>74.002499442581723</v>
+      <c r="C22" s="9">
+        <v>45</v>
+      </c>
+      <c r="D22" s="9">
+        <v>45</v>
+      </c>
+      <c r="E22" s="9">
+        <v>45</v>
+      </c>
+      <c r="F22" s="9">
+        <v>45</v>
       </c>
       <c r="G22" s="6">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
@@ -13454,24 +13377,20 @@
       <c r="B23" s="6">
         <v>15610</v>
       </c>
-      <c r="C23" s="8">
-        <f t="shared" si="1"/>
-        <v>81.402749386839901</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="2"/>
-        <v>81.402749386839901</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="3"/>
-        <v>81.402749386839901</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="4"/>
-        <v>81.402749386839901</v>
-      </c>
-      <c r="G23" s="6">
-        <v>128</v>
+      <c r="C23" s="9">
+        <v>50</v>
+      </c>
+      <c r="D23" s="9">
+        <v>50</v>
+      </c>
+      <c r="E23" s="9">
+        <v>50</v>
+      </c>
+      <c r="F23" s="9">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5">
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
@@ -13481,24 +13400,20 @@
       <c r="B24" s="6">
         <v>18010</v>
       </c>
-      <c r="C24" s="8">
-        <f t="shared" si="1"/>
-        <v>89.543024325523902</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" si="2"/>
-        <v>89.543024325523902</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="3"/>
-        <v>89.543024325523902</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="4"/>
-        <v>89.543024325523902</v>
+      <c r="C24" s="9">
+        <v>55</v>
+      </c>
+      <c r="D24" s="9">
+        <v>55</v>
+      </c>
+      <c r="E24" s="9">
+        <v>55</v>
+      </c>
+      <c r="F24" s="9">
+        <v>55</v>
       </c>
       <c r="G24" s="6">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
@@ -13508,24 +13423,20 @@
       <c r="B25" s="6">
         <v>20270</v>
       </c>
-      <c r="C25" s="8">
-        <f t="shared" si="1"/>
-        <v>98.497326758076298</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="2"/>
-        <v>98.497326758076298</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="3"/>
-        <v>98.497326758076298</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="4"/>
-        <v>98.497326758076298</v>
+      <c r="C25" s="9">
+        <v>60</v>
+      </c>
+      <c r="D25" s="9">
+        <v>60</v>
+      </c>
+      <c r="E25" s="9">
+        <v>60</v>
+      </c>
+      <c r="F25" s="9">
+        <v>60</v>
       </c>
       <c r="G25" s="6">
-        <v>136</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
@@ -13535,24 +13446,20 @@
       <c r="B26" s="6">
         <v>27680</v>
       </c>
-      <c r="C26" s="8">
-        <f t="shared" si="1"/>
-        <v>108.34705943388394</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="2"/>
-        <v>108.34705943388394</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="3"/>
-        <v>108.34705943388394</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="4"/>
-        <v>108.34705943388394</v>
-      </c>
-      <c r="G26" s="6">
-        <v>140</v>
+      <c r="C26" s="9">
+        <v>65</v>
+      </c>
+      <c r="D26" s="9">
+        <v>65</v>
+      </c>
+      <c r="E26" s="9">
+        <v>65</v>
+      </c>
+      <c r="F26" s="9">
+        <v>65</v>
+      </c>
+      <c r="G26" s="5">
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
@@ -13562,24 +13469,20 @@
       <c r="B27" s="6">
         <v>30900</v>
       </c>
-      <c r="C27" s="8">
-        <f t="shared" si="1"/>
-        <v>119.18176537727234</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="2"/>
-        <v>119.18176537727234</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="3"/>
-        <v>119.18176537727234</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="4"/>
-        <v>119.18176537727234</v>
+      <c r="C27" s="9">
+        <v>70</v>
+      </c>
+      <c r="D27" s="9">
+        <v>70</v>
+      </c>
+      <c r="E27" s="9">
+        <v>70</v>
+      </c>
+      <c r="F27" s="9">
+        <v>70</v>
       </c>
       <c r="G27" s="6">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
@@ -13589,24 +13492,20 @@
       <c r="B28" s="6">
         <v>34760</v>
       </c>
-      <c r="C28" s="8">
-        <f t="shared" si="1"/>
-        <v>131.09994191499959</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="2"/>
-        <v>131.09994191499959</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="3"/>
-        <v>131.09994191499959</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="4"/>
-        <v>131.09994191499959</v>
+      <c r="C28" s="9">
+        <v>75</v>
+      </c>
+      <c r="D28" s="9">
+        <v>75</v>
+      </c>
+      <c r="E28" s="9">
+        <v>75</v>
+      </c>
+      <c r="F28" s="9">
+        <v>75</v>
       </c>
       <c r="G28" s="6">
-        <v>148</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -13616,24 +13515,20 @@
       <c r="B29" s="6">
         <v>38410</v>
       </c>
-      <c r="C29" s="8">
-        <f t="shared" si="1"/>
-        <v>144.20993610649955</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" si="2"/>
-        <v>144.20993610649955</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="3"/>
-        <v>144.20993610649955</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="4"/>
-        <v>144.20993610649955</v>
-      </c>
-      <c r="G29" s="6">
-        <v>152</v>
+      <c r="C29" s="9">
+        <v>80</v>
+      </c>
+      <c r="D29" s="9">
+        <v>80</v>
+      </c>
+      <c r="E29" s="9">
+        <v>80</v>
+      </c>
+      <c r="F29" s="9">
+        <v>80</v>
+      </c>
+      <c r="G29" s="5">
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -13643,24 +13538,20 @@
       <c r="B30" s="6">
         <v>54660</v>
       </c>
-      <c r="C30" s="8">
-        <f t="shared" si="1"/>
-        <v>158.63092971714951</v>
-      </c>
-      <c r="D30" s="8">
-        <f t="shared" si="2"/>
-        <v>158.63092971714951</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="3"/>
-        <v>158.63092971714951</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="4"/>
-        <v>158.63092971714951</v>
+      <c r="C30" s="9">
+        <v>85</v>
+      </c>
+      <c r="D30" s="9">
+        <v>85</v>
+      </c>
+      <c r="E30" s="9">
+        <v>85</v>
+      </c>
+      <c r="F30" s="9">
+        <v>85</v>
       </c>
       <c r="G30" s="6">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
@@ -13670,24 +13561,20 @@
       <c r="B31" s="6">
         <v>63090</v>
       </c>
-      <c r="C31" s="8">
-        <f t="shared" si="1"/>
-        <v>174.49402268886448</v>
-      </c>
-      <c r="D31" s="8">
-        <f t="shared" si="2"/>
-        <v>174.49402268886448</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="3"/>
-        <v>174.49402268886448</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="4"/>
-        <v>174.49402268886448</v>
+      <c r="C31" s="9">
+        <v>90</v>
+      </c>
+      <c r="D31" s="9">
+        <v>90</v>
+      </c>
+      <c r="E31" s="9">
+        <v>90</v>
+      </c>
+      <c r="F31" s="9">
+        <v>90</v>
       </c>
       <c r="G31" s="6">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
@@ -13697,24 +13584,20 @@
       <c r="B32" s="6">
         <v>72870</v>
       </c>
-      <c r="C32" s="8">
-        <f t="shared" si="1"/>
-        <v>191.94342495775095</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" si="2"/>
-        <v>191.94342495775095</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="3"/>
-        <v>191.94342495775095</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="4"/>
-        <v>191.94342495775095</v>
-      </c>
-      <c r="G32" s="6">
-        <v>164</v>
+      <c r="C32" s="9">
+        <v>100</v>
+      </c>
+      <c r="D32" s="9">
+        <v>100</v>
+      </c>
+      <c r="E32" s="9">
+        <v>100</v>
+      </c>
+      <c r="F32" s="9">
+        <v>100</v>
+      </c>
+      <c r="G32" s="5">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
@@ -13724,24 +13607,20 @@
       <c r="B33" s="6">
         <v>82670</v>
       </c>
-      <c r="C33" s="8">
-        <f t="shared" si="1"/>
-        <v>211.13776745352607</v>
-      </c>
-      <c r="D33" s="8">
-        <f t="shared" si="2"/>
-        <v>211.13776745352607</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="3"/>
-        <v>211.13776745352607</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="4"/>
-        <v>211.13776745352607</v>
+      <c r="C33" s="9">
+        <v>110</v>
+      </c>
+      <c r="D33" s="9">
+        <v>110</v>
+      </c>
+      <c r="E33" s="9">
+        <v>110</v>
+      </c>
+      <c r="F33" s="9">
+        <v>110</v>
       </c>
       <c r="G33" s="6">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
@@ -13751,24 +13630,20 @@
       <c r="B34" s="6">
         <v>113160</v>
       </c>
-      <c r="C34" s="8">
-        <f t="shared" si="1"/>
-        <v>232.25154419887869</v>
-      </c>
-      <c r="D34" s="8">
-        <f t="shared" si="2"/>
-        <v>232.25154419887869</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="3"/>
-        <v>232.25154419887869</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="4"/>
-        <v>232.25154419887869</v>
+      <c r="C34" s="9">
+        <v>120</v>
+      </c>
+      <c r="D34" s="9">
+        <v>120</v>
+      </c>
+      <c r="E34" s="9">
+        <v>120</v>
+      </c>
+      <c r="F34" s="9">
+        <v>120</v>
       </c>
       <c r="G34" s="6">
-        <v>172</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
@@ -13778,24 +13653,20 @@
       <c r="B35" s="6">
         <v>127150</v>
       </c>
-      <c r="C35" s="8">
-        <f t="shared" si="1"/>
-        <v>255.47669861876659</v>
-      </c>
-      <c r="D35" s="8">
-        <f t="shared" si="2"/>
-        <v>255.47669861876659</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="3"/>
-        <v>255.47669861876659</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="4"/>
-        <v>255.47669861876659</v>
-      </c>
-      <c r="G35" s="6">
-        <v>176</v>
+      <c r="C35" s="9">
+        <v>130</v>
+      </c>
+      <c r="D35" s="9">
+        <v>130</v>
+      </c>
+      <c r="E35" s="9">
+        <v>130</v>
+      </c>
+      <c r="F35" s="9">
+        <v>130</v>
+      </c>
+      <c r="G35" s="5">
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
@@ -13805,24 +13676,20 @@
       <c r="B36" s="6">
         <v>143220</v>
       </c>
-      <c r="C36" s="8">
-        <f t="shared" si="1"/>
-        <v>281.02436848064326</v>
-      </c>
-      <c r="D36" s="8">
-        <f t="shared" si="2"/>
-        <v>281.02436848064326</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="3"/>
-        <v>281.02436848064326</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="4"/>
-        <v>281.02436848064326</v>
+      <c r="C36" s="9">
+        <v>140</v>
+      </c>
+      <c r="D36" s="9">
+        <v>140</v>
+      </c>
+      <c r="E36" s="9">
+        <v>140</v>
+      </c>
+      <c r="F36" s="9">
+        <v>140</v>
       </c>
       <c r="G36" s="6">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
@@ -13832,24 +13699,20 @@
       <c r="B37" s="6">
         <v>159400</v>
       </c>
-      <c r="C37" s="8">
-        <f t="shared" si="1"/>
-        <v>309.12680532870763</v>
-      </c>
-      <c r="D37" s="8">
-        <f t="shared" si="2"/>
-        <v>309.12680532870763</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="3"/>
-        <v>309.12680532870763</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="4"/>
-        <v>309.12680532870763</v>
+      <c r="C37" s="9">
+        <v>150</v>
+      </c>
+      <c r="D37" s="9">
+        <v>150</v>
+      </c>
+      <c r="E37" s="9">
+        <v>150</v>
+      </c>
+      <c r="F37" s="9">
+        <v>150</v>
       </c>
       <c r="G37" s="6">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
@@ -13859,24 +13722,20 @@
       <c r="B38" s="6">
         <v>214360</v>
       </c>
-      <c r="C38" s="8">
-        <f t="shared" si="1"/>
-        <v>340.03948586157844</v>
-      </c>
-      <c r="D38" s="8">
-        <f t="shared" si="2"/>
-        <v>340.03948586157844</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="3"/>
-        <v>340.03948586157844</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="4"/>
-        <v>340.03948586157844</v>
-      </c>
-      <c r="G38" s="6">
-        <v>188</v>
+      <c r="C38" s="9">
+        <v>160</v>
+      </c>
+      <c r="D38" s="9">
+        <v>160</v>
+      </c>
+      <c r="E38" s="9">
+        <v>160</v>
+      </c>
+      <c r="F38" s="9">
+        <v>160</v>
+      </c>
+      <c r="G38" s="5">
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
@@ -13886,24 +13745,20 @@
       <c r="B39" s="6">
         <v>237130</v>
       </c>
-      <c r="C39" s="8">
-        <f t="shared" si="1"/>
-        <v>374.04343444773633</v>
-      </c>
-      <c r="D39" s="8">
-        <f t="shared" si="2"/>
-        <v>374.04343444773633</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="3"/>
-        <v>374.04343444773633</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="4"/>
-        <v>374.04343444773633</v>
+      <c r="C39" s="9">
+        <v>170</v>
+      </c>
+      <c r="D39" s="9">
+        <v>170</v>
+      </c>
+      <c r="E39" s="9">
+        <v>170</v>
+      </c>
+      <c r="F39" s="9">
+        <v>170</v>
       </c>
       <c r="G39" s="6">
-        <v>192</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
@@ -13913,24 +13768,20 @@
       <c r="B40" s="6">
         <v>262890</v>
       </c>
-      <c r="C40" s="8">
-        <f t="shared" si="1"/>
-        <v>411.44777789250998</v>
-      </c>
-      <c r="D40" s="8">
-        <f t="shared" si="2"/>
-        <v>411.44777789250998</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" si="3"/>
-        <v>411.44777789250998</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="4"/>
-        <v>411.44777789250998</v>
+      <c r="C40" s="9">
+        <v>180</v>
+      </c>
+      <c r="D40" s="9">
+        <v>180</v>
+      </c>
+      <c r="E40" s="9">
+        <v>180</v>
+      </c>
+      <c r="F40" s="9">
+        <v>180</v>
       </c>
       <c r="G40" s="6">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
@@ -13940,24 +13791,20 @@
       <c r="B41" s="1">
         <v>289160</v>
       </c>
-      <c r="C41" s="8">
-        <f t="shared" si="1"/>
-        <v>452.59255568176098</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" si="2"/>
-        <v>452.59255568176098</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="3"/>
-        <v>452.59255568176098</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="4"/>
-        <v>452.59255568176098</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="C41" s="9">
         <v>200</v>
+      </c>
+      <c r="D41" s="9">
+        <v>200</v>
+      </c>
+      <c r="E41" s="9">
+        <v>200</v>
+      </c>
+      <c r="F41" s="9">
+        <v>200</v>
+      </c>
+      <c r="G41" s="5">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="540" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1900" yWindow="980" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -321,7 +321,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0\%"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1287,10 +1287,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12855,8 +12855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13585,7 +13585,7 @@
         <v>72870</v>
       </c>
       <c r="C32" s="9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D32" s="9">
         <v>100</v>
@@ -13608,7 +13608,7 @@
         <v>82670</v>
       </c>
       <c r="C33" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D33" s="9">
         <v>110</v>
@@ -13631,7 +13631,7 @@
         <v>113160</v>
       </c>
       <c r="C34" s="9">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D34" s="9">
         <v>120</v>
@@ -13654,7 +13654,7 @@
         <v>127150</v>
       </c>
       <c r="C35" s="9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D35" s="9">
         <v>130</v>
@@ -13677,7 +13677,7 @@
         <v>143220</v>
       </c>
       <c r="C36" s="9">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D36" s="9">
         <v>140</v>
@@ -13700,7 +13700,7 @@
         <v>159400</v>
       </c>
       <c r="C37" s="9">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D37" s="9">
         <v>150</v>
@@ -13723,7 +13723,7 @@
         <v>214360</v>
       </c>
       <c r="C38" s="9">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D38" s="9">
         <v>160</v>
@@ -13746,7 +13746,7 @@
         <v>237130</v>
       </c>
       <c r="C39" s="9">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D39" s="9">
         <v>170</v>
@@ -13769,7 +13769,7 @@
         <v>262890</v>
       </c>
       <c r="C40" s="9">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="D40" s="9">
         <v>180</v>
@@ -13792,7 +13792,7 @@
         <v>289160</v>
       </c>
       <c r="C41" s="9">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="D41" s="9">
         <v>200</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="980" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1980" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -12856,7 +12856,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13588,13 +13588,13 @@
         <v>95</v>
       </c>
       <c r="D32" s="9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E32" s="9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F32" s="9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G32" s="5">
         <v>205</v>
@@ -13611,13 +13611,13 @@
         <v>100</v>
       </c>
       <c r="D33" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E33" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F33" s="9">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G33" s="6">
         <v>210</v>
@@ -13634,13 +13634,13 @@
         <v>105</v>
       </c>
       <c r="D34" s="9">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E34" s="9">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F34" s="9">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G34" s="6">
         <v>215</v>
@@ -13657,13 +13657,13 @@
         <v>110</v>
       </c>
       <c r="D35" s="9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E35" s="9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F35" s="9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G35" s="5">
         <v>220</v>
@@ -13680,13 +13680,13 @@
         <v>115</v>
       </c>
       <c r="D36" s="9">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E36" s="9">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F36" s="9">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="G36" s="6">
         <v>225</v>
@@ -13703,13 +13703,13 @@
         <v>120</v>
       </c>
       <c r="D37" s="9">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E37" s="9">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F37" s="9">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G37" s="6">
         <v>230</v>
@@ -13726,13 +13726,13 @@
         <v>125</v>
       </c>
       <c r="D38" s="9">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E38" s="9">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F38" s="9">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="G38" s="5">
         <v>235</v>
@@ -13749,13 +13749,13 @@
         <v>130</v>
       </c>
       <c r="D39" s="9">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="E39" s="9">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="F39" s="9">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G39" s="6">
         <v>240</v>
@@ -13772,13 +13772,13 @@
         <v>135</v>
       </c>
       <c r="D40" s="9">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E40" s="9">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="F40" s="9">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="G40" s="6">
         <v>245</v>
@@ -13795,13 +13795,13 @@
         <v>140</v>
       </c>
       <c r="D41" s="9">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E41" s="9">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="F41" s="9">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="G41" s="5">
         <v>250</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1620" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -12855,8 +12855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13355,16 +13355,16 @@
         <v>13620</v>
       </c>
       <c r="C22" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F22" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G22" s="6">
         <v>155</v>
@@ -13378,16 +13378,16 @@
         <v>15610</v>
       </c>
       <c r="C23" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D23" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E23" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F23" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G23" s="5">
         <v>160</v>
@@ -13401,16 +13401,16 @@
         <v>18010</v>
       </c>
       <c r="C24" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D24" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E24" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F24" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G24" s="6">
         <v>165</v>
@@ -13424,16 +13424,16 @@
         <v>20270</v>
       </c>
       <c r="C25" s="9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D25" s="9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E25" s="9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F25" s="9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G25" s="6">
         <v>170</v>
@@ -13447,16 +13447,16 @@
         <v>27680</v>
       </c>
       <c r="C26" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D26" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E26" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F26" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G26" s="5">
         <v>175</v>
@@ -13470,16 +13470,16 @@
         <v>30900</v>
       </c>
       <c r="C27" s="9">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D27" s="9">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E27" s="9">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F27" s="9">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G27" s="6">
         <v>180</v>
@@ -13493,16 +13493,16 @@
         <v>34760</v>
       </c>
       <c r="C28" s="9">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D28" s="9">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E28" s="9">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F28" s="9">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G28" s="6">
         <v>185</v>
@@ -13516,16 +13516,16 @@
         <v>38410</v>
       </c>
       <c r="C29" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D29" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E29" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F29" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G29" s="5">
         <v>190</v>
@@ -13539,16 +13539,16 @@
         <v>54660</v>
       </c>
       <c r="C30" s="9">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D30" s="9">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E30" s="9">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F30" s="9">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G30" s="6">
         <v>195</v>
@@ -13562,16 +13562,16 @@
         <v>63090</v>
       </c>
       <c r="C31" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D31" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E31" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F31" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G31" s="6">
         <v>200</v>
@@ -13585,16 +13585,16 @@
         <v>72870</v>
       </c>
       <c r="C32" s="9">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D32" s="9">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E32" s="9">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F32" s="9">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G32" s="5">
         <v>205</v>
@@ -13608,16 +13608,16 @@
         <v>82670</v>
       </c>
       <c r="C33" s="9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D33" s="9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E33" s="9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F33" s="9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G33" s="6">
         <v>210</v>
@@ -13631,16 +13631,16 @@
         <v>113160</v>
       </c>
       <c r="C34" s="9">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D34" s="9">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E34" s="9">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F34" s="9">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G34" s="6">
         <v>215</v>
@@ -13654,16 +13654,16 @@
         <v>127150</v>
       </c>
       <c r="C35" s="9">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D35" s="9">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E35" s="9">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F35" s="9">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G35" s="5">
         <v>220</v>
@@ -13677,16 +13677,16 @@
         <v>143220</v>
       </c>
       <c r="C36" s="9">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D36" s="9">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E36" s="9">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="F36" s="9">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G36" s="6">
         <v>225</v>
@@ -13700,16 +13700,16 @@
         <v>159400</v>
       </c>
       <c r="C37" s="9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D37" s="9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E37" s="9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F37" s="9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G37" s="6">
         <v>230</v>
@@ -13723,16 +13723,16 @@
         <v>214360</v>
       </c>
       <c r="C38" s="9">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D38" s="9">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E38" s="9">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F38" s="9">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G38" s="5">
         <v>235</v>
@@ -13746,16 +13746,16 @@
         <v>237130</v>
       </c>
       <c r="C39" s="9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D39" s="9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E39" s="9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F39" s="9">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G39" s="6">
         <v>240</v>
@@ -13769,16 +13769,16 @@
         <v>262890</v>
       </c>
       <c r="C40" s="9">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D40" s="9">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E40" s="9">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F40" s="9">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G40" s="6">
         <v>245</v>
@@ -13792,16 +13792,16 @@
         <v>289160</v>
       </c>
       <c r="C41" s="9">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D41" s="9">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E41" s="9">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F41" s="9">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G41" s="5">
         <v>250</v>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -12855,8 +12855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12907,7 +12907,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="5">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -12930,7 +12930,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="6">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -12953,7 +12953,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="6">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -12976,7 +12976,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="5">
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -12999,7 +12999,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="6">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -13022,7 +13022,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="6">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -13045,7 +13045,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="5">
-        <v>85</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -13068,7 +13068,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="6">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -13091,7 +13091,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="6">
-        <v>95</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -13114,7 +13114,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="5">
-        <v>100</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -13137,7 +13137,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="6">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -13160,7 +13160,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="6">
-        <v>110</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -13183,7 +13183,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="5">
-        <v>115</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -13206,7 +13206,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="6">
-        <v>120</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -13229,7 +13229,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="6">
-        <v>125</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
@@ -13252,7 +13252,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="5">
-        <v>130</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
@@ -13275,7 +13275,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="6">
-        <v>135</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
@@ -13298,7 +13298,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="6">
-        <v>140</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
@@ -13321,7 +13321,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="5">
-        <v>145</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
@@ -13344,7 +13344,7 @@
         <v>40</v>
       </c>
       <c r="G21" s="6">
-        <v>150</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
@@ -13367,7 +13367,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="6">
-        <v>155</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
@@ -13390,7 +13390,7 @@
         <v>44</v>
       </c>
       <c r="G23" s="5">
-        <v>160</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
@@ -13413,7 +13413,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="6">
-        <v>165</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
@@ -13436,7 +13436,7 @@
         <v>48</v>
       </c>
       <c r="G25" s="6">
-        <v>170</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
@@ -13459,7 +13459,7 @@
         <v>50</v>
       </c>
       <c r="G26" s="5">
-        <v>175</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
@@ -13482,7 +13482,7 @@
         <v>52</v>
       </c>
       <c r="G27" s="6">
-        <v>180</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
@@ -13505,7 +13505,7 @@
         <v>54</v>
       </c>
       <c r="G28" s="6">
-        <v>185</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -13528,7 +13528,7 @@
         <v>60</v>
       </c>
       <c r="G29" s="5">
-        <v>190</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -13551,7 +13551,7 @@
         <v>65</v>
       </c>
       <c r="G30" s="6">
-        <v>195</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
@@ -13574,7 +13574,7 @@
         <v>70</v>
       </c>
       <c r="G31" s="6">
-        <v>200</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
@@ -13597,7 +13597,7 @@
         <v>75</v>
       </c>
       <c r="G32" s="5">
-        <v>205</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
@@ -13620,7 +13620,7 @@
         <v>80</v>
       </c>
       <c r="G33" s="6">
-        <v>210</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
@@ -13643,7 +13643,7 @@
         <v>85</v>
       </c>
       <c r="G34" s="6">
-        <v>215</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
@@ -13666,7 +13666,7 @@
         <v>90</v>
       </c>
       <c r="G35" s="5">
-        <v>220</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
@@ -13689,7 +13689,7 @@
         <v>95</v>
       </c>
       <c r="G36" s="6">
-        <v>225</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
@@ -13712,7 +13712,7 @@
         <v>100</v>
       </c>
       <c r="G37" s="6">
-        <v>230</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
@@ -13735,7 +13735,7 @@
         <v>105</v>
       </c>
       <c r="G38" s="5">
-        <v>235</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
@@ -13758,7 +13758,7 @@
         <v>110</v>
       </c>
       <c r="G39" s="6">
-        <v>240</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
@@ -13781,7 +13781,7 @@
         <v>115</v>
       </c>
       <c r="G40" s="6">
-        <v>245</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
@@ -13804,7 +13804,7 @@
         <v>120</v>
       </c>
       <c r="G41" s="5">
-        <v>250</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/BuildingFunction.xlsx
+++ b/gameData/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="4300" yWindow="2480" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -12855,8 +12855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12907,7 +12907,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="5">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -12930,7 +12930,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="6">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -12952,8 +12952,8 @@
       <c r="F4" s="9">
         <v>13</v>
       </c>
-      <c r="G4" s="6">
-        <v>120</v>
+      <c r="G4" s="5">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -12975,8 +12975,8 @@
       <c r="F5" s="9">
         <v>14</v>
       </c>
-      <c r="G5" s="5">
-        <v>130</v>
+      <c r="G5" s="6">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -12998,8 +12998,8 @@
       <c r="F6" s="9">
         <v>15</v>
       </c>
-      <c r="G6" s="6">
-        <v>140</v>
+      <c r="G6" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -13022,7 +13022,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="6">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -13045,7 +13045,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="5">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -13068,7 +13068,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="6">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -13090,8 +13090,8 @@
       <c r="F10" s="9">
         <v>19</v>
       </c>
-      <c r="G10" s="6">
-        <v>180</v>
+      <c r="G10" s="5">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -13113,8 +13113,8 @@
       <c r="F11" s="9">
         <v>20</v>
       </c>
-      <c r="G11" s="5">
-        <v>190</v>
+      <c r="G11" s="6">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -13136,8 +13136,8 @@
       <c r="F12" s="9">
         <v>22</v>
       </c>
-      <c r="G12" s="6">
-        <v>200</v>
+      <c r="G12" s="5">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -13160,7 +13160,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="6">
-        <v>210</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -13183,7 +13183,7 @@
         <v>26</v>
       </c>
       <c r="G14" s="5">
-        <v>220</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -13206,7 +13206,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="6">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -13228,8 +13228,8 @@
       <c r="F16" s="9">
         <v>30</v>
       </c>
-      <c r="G16" s="6">
-        <v>240</v>
+      <c r="G16" s="5">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
@@ -13251,8 +13251,8 @@
       <c r="F17" s="9">
         <v>32</v>
       </c>
-      <c r="G17" s="5">
-        <v>250</v>
+      <c r="G17" s="6">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
@@ -13274,8 +13274,8 @@
       <c r="F18" s="9">
         <v>34</v>
       </c>
-      <c r="G18" s="6">
-        <v>260</v>
+      <c r="G18" s="5">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
@@ -13298,7 +13298,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="6">
-        <v>270</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
@@ -13321,7 +13321,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="5">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
@@ -13344,7 +13344,7 @@
         <v>40</v>
       </c>
       <c r="G21" s="6">
-        <v>290</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
@@ -13367,7 +13367,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="6">
-        <v>300</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
@@ -13390,7 +13390,7 @@
         <v>44</v>
       </c>
       <c r="G23" s="5">
-        <v>310</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
@@ -13413,7 +13413,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="6">
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
@@ -13435,8 +13435,8 @@
       <c r="F25" s="9">
         <v>48</v>
       </c>
-      <c r="G25" s="6">
-        <v>330</v>
+      <c r="G25" s="5">
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
@@ -13458,8 +13458,8 @@
       <c r="F26" s="9">
         <v>50</v>
       </c>
-      <c r="G26" s="5">
-        <v>340</v>
+      <c r="G26" s="6">
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
@@ -13481,8 +13481,8 @@
       <c r="F27" s="9">
         <v>52</v>
       </c>
-      <c r="G27" s="6">
-        <v>350</v>
+      <c r="G27" s="5">
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
@@ -13505,7 +13505,7 @@
         <v>54</v>
       </c>
       <c r="G28" s="6">
-        <v>360</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -13528,7 +13528,7 @@
         <v>60</v>
       </c>
       <c r="G29" s="5">
-        <v>370</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -13551,7 +13551,7 @@
         <v>65</v>
       </c>
       <c r="G30" s="6">
-        <v>380</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
@@ -13573,8 +13573,8 @@
       <c r="F31" s="9">
         <v>70</v>
       </c>
-      <c r="G31" s="6">
-        <v>390</v>
+      <c r="G31" s="5">
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
@@ -13596,8 +13596,8 @@
       <c r="F32" s="9">
         <v>75</v>
       </c>
-      <c r="G32" s="5">
-        <v>400</v>
+      <c r="G32" s="6">
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
@@ -13619,8 +13619,8 @@
       <c r="F33" s="9">
         <v>80</v>
       </c>
-      <c r="G33" s="6">
-        <v>410</v>
+      <c r="G33" s="5">
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
@@ -13643,7 +13643,7 @@
         <v>85</v>
       </c>
       <c r="G34" s="6">
-        <v>420</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
@@ -13666,7 +13666,7 @@
         <v>90</v>
       </c>
       <c r="G35" s="5">
-        <v>430</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
@@ -13689,7 +13689,7 @@
         <v>95</v>
       </c>
       <c r="G36" s="6">
-        <v>440</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
@@ -13711,8 +13711,8 @@
       <c r="F37" s="9">
         <v>100</v>
       </c>
-      <c r="G37" s="6">
-        <v>450</v>
+      <c r="G37" s="5">
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
@@ -13734,8 +13734,8 @@
       <c r="F38" s="9">
         <v>105</v>
       </c>
-      <c r="G38" s="5">
-        <v>460</v>
+      <c r="G38" s="6">
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
@@ -13757,8 +13757,8 @@
       <c r="F39" s="9">
         <v>110</v>
       </c>
-      <c r="G39" s="6">
-        <v>470</v>
+      <c r="G39" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
@@ -13781,7 +13781,7 @@
         <v>115</v>
       </c>
       <c r="G40" s="6">
-        <v>480</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
@@ -13804,7 +13804,7 @@
         <v>120</v>
       </c>
       <c r="G41" s="5">
-        <v>490</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
